--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_LDAPUserToPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_LDAPUserToPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="6" r:id="rId1"/>
@@ -3652,7 +3652,7 @@
           <cell r="C2" t="str">
             <v>Astamyugo</v>
           </cell>
-          <cell r="E2" t="str">
+          <cell r="E2">
             <v>47000000000001</v>
           </cell>
         </row>
@@ -3663,7 +3663,7 @@
           <cell r="C3" t="str">
             <v>Hasrul</v>
           </cell>
-          <cell r="E3" t="str">
+          <cell r="E3">
             <v>47000000000002</v>
           </cell>
         </row>
@@ -3674,7 +3674,7 @@
           <cell r="C4" t="str">
             <v>Triani Irma</v>
           </cell>
-          <cell r="E4" t="str">
+          <cell r="E4">
             <v>47000000000003</v>
           </cell>
         </row>
@@ -3685,7 +3685,7 @@
           <cell r="C5" t="str">
             <v>Tjhang Linawati</v>
           </cell>
-          <cell r="E5" t="str">
+          <cell r="E5">
             <v>47000000000004</v>
           </cell>
         </row>
@@ -3696,7 +3696,7 @@
           <cell r="C6" t="str">
             <v>Dadi Anda Zuchradi</v>
           </cell>
-          <cell r="E6" t="str">
+          <cell r="E6">
             <v>47000000000005</v>
           </cell>
         </row>
@@ -3707,7 +3707,7 @@
           <cell r="C7" t="str">
             <v>Irvan</v>
           </cell>
-          <cell r="E7" t="str">
+          <cell r="E7">
             <v>47000000000006</v>
           </cell>
         </row>
@@ -3718,7 +3718,7 @@
           <cell r="C8" t="str">
             <v>Christianto</v>
           </cell>
-          <cell r="E8" t="str">
+          <cell r="E8">
             <v>47000000000007</v>
           </cell>
         </row>
@@ -3729,7 +3729,7 @@
           <cell r="C9" t="str">
             <v>Setiadi</v>
           </cell>
-          <cell r="E9" t="str">
+          <cell r="E9">
             <v>47000000000008</v>
           </cell>
         </row>
@@ -3740,7 +3740,7 @@
           <cell r="C10" t="str">
             <v>Zafrizal Rifla (Ucok)</v>
           </cell>
-          <cell r="E10" t="str">
+          <cell r="E10">
             <v>47000000000009</v>
           </cell>
         </row>
@@ -3751,7 +3751,7 @@
           <cell r="C11" t="str">
             <v>Kornel Sakan</v>
           </cell>
-          <cell r="E11" t="str">
+          <cell r="E11">
             <v>47000000000010</v>
           </cell>
         </row>
@@ -3762,7 +3762,7 @@
           <cell r="C12" t="str">
             <v>Ernawati</v>
           </cell>
-          <cell r="E12" t="str">
+          <cell r="E12">
             <v>47000000000011</v>
           </cell>
         </row>
@@ -3773,7 +3773,7 @@
           <cell r="C13" t="str">
             <v>Hendri Kustian</v>
           </cell>
-          <cell r="E13" t="str">
+          <cell r="E13">
             <v>47000000000012</v>
           </cell>
         </row>
@@ -3784,7 +3784,7 @@
           <cell r="C14" t="str">
             <v>Iskandarsyah</v>
           </cell>
-          <cell r="E14" t="str">
+          <cell r="E14">
             <v>47000000000013</v>
           </cell>
         </row>
@@ -3795,7 +3795,7 @@
           <cell r="C15" t="str">
             <v>Mullan Tresna</v>
           </cell>
-          <cell r="E15" t="str">
+          <cell r="E15">
             <v>47000000000014</v>
           </cell>
         </row>
@@ -3806,7 +3806,7 @@
           <cell r="C16" t="str">
             <v>Yulianta</v>
           </cell>
-          <cell r="E16" t="str">
+          <cell r="E16">
             <v>47000000000015</v>
           </cell>
         </row>
@@ -3817,7 +3817,7 @@
           <cell r="C17" t="str">
             <v>Ferry P Simanjuntak</v>
           </cell>
-          <cell r="E17" t="str">
+          <cell r="E17">
             <v>47000000000016</v>
           </cell>
         </row>
@@ -3828,7 +3828,7 @@
           <cell r="C18" t="str">
             <v>Siti Mulyani</v>
           </cell>
-          <cell r="E18" t="str">
+          <cell r="E18">
             <v>47000000000017</v>
           </cell>
         </row>
@@ -3839,7 +3839,7 @@
           <cell r="C19" t="str">
             <v>Tenri Sumange</v>
           </cell>
-          <cell r="E19" t="str">
+          <cell r="E19">
             <v>47000000000018</v>
           </cell>
         </row>
@@ -3850,7 +3850,7 @@
           <cell r="C20" t="str">
             <v>Hardianto</v>
           </cell>
-          <cell r="E20" t="str">
+          <cell r="E20">
             <v>47000000000019</v>
           </cell>
         </row>
@@ -3861,7 +3861,7 @@
           <cell r="C21" t="str">
             <v>Fitriastuti Kurnia</v>
           </cell>
-          <cell r="E21" t="str">
+          <cell r="E21">
             <v>47000000000020</v>
           </cell>
         </row>
@@ -3872,7 +3872,7 @@
           <cell r="C22" t="str">
             <v>Iwan Wibawa</v>
           </cell>
-          <cell r="E22" t="str">
+          <cell r="E22">
             <v>47000000000021</v>
           </cell>
         </row>
@@ -3883,7 +3883,7 @@
           <cell r="C23" t="str">
             <v>Zaire Dite</v>
           </cell>
-          <cell r="E23" t="str">
+          <cell r="E23">
             <v>47000000000022</v>
           </cell>
         </row>
@@ -3894,7 +3894,7 @@
           <cell r="C24" t="str">
             <v>Handoko</v>
           </cell>
-          <cell r="E24" t="str">
+          <cell r="E24">
             <v>47000000000023</v>
           </cell>
         </row>
@@ -3905,7 +3905,7 @@
           <cell r="C25" t="str">
             <v>Abdullah Nabil</v>
           </cell>
-          <cell r="E25" t="str">
+          <cell r="E25">
             <v>47000000000024</v>
           </cell>
         </row>
@@ -3916,7 +3916,7 @@
           <cell r="C26" t="str">
             <v>Utami Dewi</v>
           </cell>
-          <cell r="E26" t="str">
+          <cell r="E26">
             <v>47000000000025</v>
           </cell>
         </row>
@@ -3927,7 +3927,7 @@
           <cell r="C27" t="str">
             <v>Dadan Suhendar</v>
           </cell>
-          <cell r="E27" t="str">
+          <cell r="E27">
             <v>47000000000026</v>
           </cell>
         </row>
@@ -3938,7 +3938,7 @@
           <cell r="C28" t="str">
             <v>Fikri</v>
           </cell>
-          <cell r="E28" t="str">
+          <cell r="E28">
             <v>47000000000027</v>
           </cell>
         </row>
@@ -3949,7 +3949,7 @@
           <cell r="C29" t="str">
             <v>Fardi Nauli R</v>
           </cell>
-          <cell r="E29" t="str">
+          <cell r="E29">
             <v>47000000000028</v>
           </cell>
         </row>
@@ -3960,7 +3960,7 @@
           <cell r="C30" t="str">
             <v>Dinnar Budiarti</v>
           </cell>
-          <cell r="E30" t="str">
+          <cell r="E30">
             <v>47000000000029</v>
           </cell>
         </row>
@@ -3971,7 +3971,7 @@
           <cell r="C31" t="str">
             <v>Sumirat</v>
           </cell>
-          <cell r="E31" t="str">
+          <cell r="E31">
             <v>47000000000030</v>
           </cell>
         </row>
@@ -3982,7 +3982,7 @@
           <cell r="C32" t="str">
             <v>Anika Setyowati</v>
           </cell>
-          <cell r="E32" t="str">
+          <cell r="E32">
             <v>47000000000031</v>
           </cell>
         </row>
@@ -3993,7 +3993,7 @@
           <cell r="C33" t="str">
             <v>Surtoyo Syukri</v>
           </cell>
-          <cell r="E33" t="str">
+          <cell r="E33">
             <v>47000000000032</v>
           </cell>
         </row>
@@ -4004,7 +4004,7 @@
           <cell r="C34" t="str">
             <v>Santi Dewi RW</v>
           </cell>
-          <cell r="E34" t="str">
+          <cell r="E34">
             <v>47000000000033</v>
           </cell>
         </row>
@@ -4015,7 +4015,7 @@
           <cell r="C35" t="str">
             <v>Alphaliyanri Lasria</v>
           </cell>
-          <cell r="E35" t="str">
+          <cell r="E35">
             <v>47000000000034</v>
           </cell>
         </row>
@@ -4026,7 +4026,7 @@
           <cell r="C36" t="str">
             <v>Jaya Ganef</v>
           </cell>
-          <cell r="E36" t="str">
+          <cell r="E36">
             <v>47000000000035</v>
           </cell>
         </row>
@@ -4037,7 +4037,7 @@
           <cell r="C37" t="str">
             <v>Noercholis Firmansyah</v>
           </cell>
-          <cell r="E37" t="str">
+          <cell r="E37">
             <v>47000000000036</v>
           </cell>
         </row>
@@ -4048,7 +4048,7 @@
           <cell r="C38" t="str">
             <v>Herni Yuliati</v>
           </cell>
-          <cell r="E38" t="str">
+          <cell r="E38">
             <v>47000000000037</v>
           </cell>
         </row>
@@ -4059,7 +4059,7 @@
           <cell r="C39" t="str">
             <v>Triwiarti Dibya</v>
           </cell>
-          <cell r="E39" t="str">
+          <cell r="E39">
             <v>47000000000038</v>
           </cell>
         </row>
@@ -4070,7 +4070,7 @@
           <cell r="C40" t="str">
             <v>Redi Subekti</v>
           </cell>
-          <cell r="E40" t="str">
+          <cell r="E40">
             <v>47000000000039</v>
           </cell>
         </row>
@@ -4081,7 +4081,7 @@
           <cell r="C41" t="str">
             <v>Eka Hamidah</v>
           </cell>
-          <cell r="E41" t="str">
+          <cell r="E41">
             <v>47000000000040</v>
           </cell>
         </row>
@@ -4092,7 +4092,7 @@
           <cell r="C42" t="str">
             <v>Anwar Purnomo</v>
           </cell>
-          <cell r="E42" t="str">
+          <cell r="E42">
             <v>47000000000041</v>
           </cell>
         </row>
@@ -4103,7 +4103,7 @@
           <cell r="C43" t="str">
             <v>Ahmad Zulkarnaen</v>
           </cell>
-          <cell r="E43" t="str">
+          <cell r="E43">
             <v>47000000000042</v>
           </cell>
         </row>
@@ -4114,7 +4114,7 @@
           <cell r="C44" t="str">
             <v>Reni Septiana</v>
           </cell>
-          <cell r="E44" t="str">
+          <cell r="E44">
             <v>47000000000043</v>
           </cell>
         </row>
@@ -4125,7 +4125,7 @@
           <cell r="C45" t="str">
             <v>Ibrahim Soukani</v>
           </cell>
-          <cell r="E45" t="str">
+          <cell r="E45">
             <v>47000000000044</v>
           </cell>
         </row>
@@ -4136,7 +4136,7 @@
           <cell r="C46" t="str">
             <v>Iva Nurvahayati</v>
           </cell>
-          <cell r="E46" t="str">
+          <cell r="E46">
             <v>47000000000045</v>
           </cell>
         </row>
@@ -4147,7 +4147,7 @@
           <cell r="C47" t="str">
             <v>Yulianti</v>
           </cell>
-          <cell r="E47" t="str">
+          <cell r="E47">
             <v>47000000000046</v>
           </cell>
         </row>
@@ -4158,7 +4158,7 @@
           <cell r="C48" t="str">
             <v>Adi Ruswandi</v>
           </cell>
-          <cell r="E48" t="str">
+          <cell r="E48">
             <v>47000000000047</v>
           </cell>
         </row>
@@ -4169,7 +4169,7 @@
           <cell r="C49" t="str">
             <v>Rinaldi Asrin</v>
           </cell>
-          <cell r="E49" t="str">
+          <cell r="E49">
             <v>47000000000048</v>
           </cell>
         </row>
@@ -4180,7 +4180,7 @@
           <cell r="C50" t="str">
             <v>Budi Satrio</v>
           </cell>
-          <cell r="E50" t="str">
+          <cell r="E50">
             <v>47000000000049</v>
           </cell>
         </row>
@@ -4191,7 +4191,7 @@
           <cell r="C51" t="str">
             <v>Heri Susanto</v>
           </cell>
-          <cell r="E51" t="str">
+          <cell r="E51">
             <v>47000000000050</v>
           </cell>
         </row>
@@ -4202,7 +4202,7 @@
           <cell r="C52" t="str">
             <v>Eko Laksono</v>
           </cell>
-          <cell r="E52" t="str">
+          <cell r="E52">
             <v>47000000000051</v>
           </cell>
         </row>
@@ -4213,7 +4213,7 @@
           <cell r="C53" t="str">
             <v>Gunawan</v>
           </cell>
-          <cell r="E53" t="str">
+          <cell r="E53">
             <v>47000000000052</v>
           </cell>
         </row>
@@ -4224,7 +4224,7 @@
           <cell r="C54" t="str">
             <v>Wisudanto C. Suntoyo</v>
           </cell>
-          <cell r="E54" t="str">
+          <cell r="E54">
             <v>47000000000053</v>
           </cell>
         </row>
@@ -4235,7 +4235,7 @@
           <cell r="C55" t="str">
             <v>Bherly Novrandy</v>
           </cell>
-          <cell r="E55" t="str">
+          <cell r="E55">
             <v>47000000000054</v>
           </cell>
         </row>
@@ -4246,7 +4246,7 @@
           <cell r="C56" t="str">
             <v>Tri M. Saputra</v>
           </cell>
-          <cell r="E56" t="str">
+          <cell r="E56">
             <v>47000000000055</v>
           </cell>
         </row>
@@ -4257,7 +4257,7 @@
           <cell r="C57" t="str">
             <v>Jonhar Aziz</v>
           </cell>
-          <cell r="E57" t="str">
+          <cell r="E57">
             <v>47000000000056</v>
           </cell>
         </row>
@@ -4268,7 +4268,7 @@
           <cell r="C58" t="str">
             <v>Marungkil Sagala</v>
           </cell>
-          <cell r="E58" t="str">
+          <cell r="E58">
             <v>47000000000057</v>
           </cell>
         </row>
@@ -4279,7 +4279,7 @@
           <cell r="C59" t="str">
             <v>T Assubki</v>
           </cell>
-          <cell r="E59" t="str">
+          <cell r="E59">
             <v>47000000000058</v>
           </cell>
         </row>
@@ -4290,7 +4290,7 @@
           <cell r="C60" t="str">
             <v>Dionesius S. Duka</v>
           </cell>
-          <cell r="E60" t="str">
+          <cell r="E60">
             <v>47000000000059</v>
           </cell>
         </row>
@@ -4301,7 +4301,7 @@
           <cell r="C61" t="str">
             <v>Endang Sutrisna</v>
           </cell>
-          <cell r="E61" t="str">
+          <cell r="E61">
             <v>47000000000060</v>
           </cell>
         </row>
@@ -4312,7 +4312,7 @@
           <cell r="C62" t="str">
             <v>Ganda Yuharis R</v>
           </cell>
-          <cell r="E62" t="str">
+          <cell r="E62">
             <v>47000000000061</v>
           </cell>
         </row>
@@ -4323,7 +4323,7 @@
           <cell r="C63" t="str">
             <v>Hanif Ashari</v>
           </cell>
-          <cell r="E63" t="str">
+          <cell r="E63">
             <v>47000000000062</v>
           </cell>
         </row>
@@ -4334,7 +4334,7 @@
           <cell r="C64" t="str">
             <v>Kholik</v>
           </cell>
-          <cell r="E64" t="str">
+          <cell r="E64">
             <v>47000000000063</v>
           </cell>
         </row>
@@ -4345,7 +4345,7 @@
           <cell r="C65" t="str">
             <v>Nandang</v>
           </cell>
-          <cell r="E65" t="str">
+          <cell r="E65">
             <v>47000000000064</v>
           </cell>
         </row>
@@ -4356,7 +4356,7 @@
           <cell r="C66" t="str">
             <v>Risdyanto Risdyanto</v>
           </cell>
-          <cell r="E66" t="str">
+          <cell r="E66">
             <v>47000000000065</v>
           </cell>
         </row>
@@ -4367,7 +4367,7 @@
           <cell r="C67" t="str">
             <v>Sofyan Maulana</v>
           </cell>
-          <cell r="E67" t="str">
+          <cell r="E67">
             <v>47000000000066</v>
           </cell>
         </row>
@@ -4378,7 +4378,7 @@
           <cell r="C68" t="str">
             <v>Yanuar Tri Ananda</v>
           </cell>
-          <cell r="E68" t="str">
+          <cell r="E68">
             <v>47000000000067</v>
           </cell>
         </row>
@@ -4389,7 +4389,7 @@
           <cell r="C69" t="str">
             <v>Nugroho Putranto</v>
           </cell>
-          <cell r="E69" t="str">
+          <cell r="E69">
             <v>47000000000068</v>
           </cell>
         </row>
@@ -4400,7 +4400,7 @@
           <cell r="C70" t="str">
             <v>Alexandri</v>
           </cell>
-          <cell r="E70" t="str">
+          <cell r="E70">
             <v>47000000000069</v>
           </cell>
         </row>
@@ -4411,7 +4411,7 @@
           <cell r="C71" t="str">
             <v>Syafrudin Machmud</v>
           </cell>
-          <cell r="E71" t="str">
+          <cell r="E71">
             <v>47000000000070</v>
           </cell>
         </row>
@@ -4422,7 +4422,7 @@
           <cell r="C72" t="str">
             <v>Bondhan Sosiarta</v>
           </cell>
-          <cell r="E72" t="str">
+          <cell r="E72">
             <v>47000000000071</v>
           </cell>
         </row>
@@ -4433,7 +4433,7 @@
           <cell r="C73" t="str">
             <v>Samsul Hadi</v>
           </cell>
-          <cell r="E73" t="str">
+          <cell r="E73">
             <v>47000000000072</v>
           </cell>
         </row>
@@ -4444,7 +4444,7 @@
           <cell r="C74" t="str">
             <v>Marbun Pantas Banjarmahon</v>
           </cell>
-          <cell r="E74" t="str">
+          <cell r="E74">
             <v>47000000000073</v>
           </cell>
         </row>
@@ -4455,7 +4455,7 @@
           <cell r="C75" t="str">
             <v>Galuh Swastika</v>
           </cell>
-          <cell r="E75" t="str">
+          <cell r="E75">
             <v>47000000000074</v>
           </cell>
         </row>
@@ -4466,7 +4466,7 @@
           <cell r="C76" t="str">
             <v>Eko Syambudi</v>
           </cell>
-          <cell r="E76" t="str">
+          <cell r="E76">
             <v>47000000000075</v>
           </cell>
         </row>
@@ -4477,7 +4477,7 @@
           <cell r="C77" t="str">
             <v>Imelda Claudia</v>
           </cell>
-          <cell r="E77" t="str">
+          <cell r="E77">
             <v>47000000000076</v>
           </cell>
         </row>
@@ -4488,7 +4488,7 @@
           <cell r="C78" t="str">
             <v>Maharani Tanjungsari</v>
           </cell>
-          <cell r="E78" t="str">
+          <cell r="E78">
             <v>47000000000077</v>
           </cell>
         </row>
@@ -4499,7 +4499,7 @@
           <cell r="C79" t="str">
             <v>Raoli Nainggolan</v>
           </cell>
-          <cell r="E79" t="str">
+          <cell r="E79">
             <v>47000000000078</v>
           </cell>
         </row>
@@ -4510,7 +4510,7 @@
           <cell r="C80" t="str">
             <v>Esa Annahar</v>
           </cell>
-          <cell r="E80" t="str">
+          <cell r="E80">
             <v>47000000000079</v>
           </cell>
         </row>
@@ -4521,7 +4521,7 @@
           <cell r="C81" t="str">
             <v>novalia</v>
           </cell>
-          <cell r="E81" t="str">
+          <cell r="E81">
             <v>47000000000080</v>
           </cell>
         </row>
@@ -4532,7 +4532,7 @@
           <cell r="C82" t="str">
             <v>Efrina Dwililia</v>
           </cell>
-          <cell r="E82" t="str">
+          <cell r="E82">
             <v>47000000000081</v>
           </cell>
         </row>
@@ -4543,7 +4543,7 @@
           <cell r="C83" t="str">
             <v>Diyah Martina</v>
           </cell>
-          <cell r="E83" t="str">
+          <cell r="E83">
             <v>47000000000082</v>
           </cell>
         </row>
@@ -4554,7 +4554,7 @@
           <cell r="C84" t="str">
             <v>Ricky Samuel</v>
           </cell>
-          <cell r="E84" t="str">
+          <cell r="E84">
             <v>47000000000083</v>
           </cell>
         </row>
@@ -4565,7 +4565,7 @@
           <cell r="C85" t="str">
             <v>Indra Muchtar</v>
           </cell>
-          <cell r="E85" t="str">
+          <cell r="E85">
             <v>47000000000084</v>
           </cell>
         </row>
@@ -4576,7 +4576,7 @@
           <cell r="C86" t="str">
             <v>Turita Marantina</v>
           </cell>
-          <cell r="E86" t="str">
+          <cell r="E86">
             <v>47000000000085</v>
           </cell>
         </row>
@@ -4587,7 +4587,7 @@
           <cell r="C87" t="str">
             <v>Parulian Napitupulu</v>
           </cell>
-          <cell r="E87" t="str">
+          <cell r="E87">
             <v>47000000000086</v>
           </cell>
         </row>
@@ -4598,7 +4598,7 @@
           <cell r="C88" t="str">
             <v>Rudi Junaedi</v>
           </cell>
-          <cell r="E88" t="str">
+          <cell r="E88">
             <v>47000000000087</v>
           </cell>
         </row>
@@ -4609,7 +4609,7 @@
           <cell r="C89" t="str">
             <v>Edi Turnip</v>
           </cell>
-          <cell r="E89" t="str">
+          <cell r="E89">
             <v>47000000000088</v>
           </cell>
         </row>
@@ -4620,7 +4620,7 @@
           <cell r="C90" t="str">
             <v>Istanto Istanto</v>
           </cell>
-          <cell r="E90" t="str">
+          <cell r="E90">
             <v>47000000000089</v>
           </cell>
         </row>
@@ -4631,7 +4631,7 @@
           <cell r="C91" t="str">
             <v>Al Amin</v>
           </cell>
-          <cell r="E91" t="str">
+          <cell r="E91">
             <v>47000000000090</v>
           </cell>
         </row>
@@ -4642,7 +4642,7 @@
           <cell r="C92" t="str">
             <v>Johannes Silalahi</v>
           </cell>
-          <cell r="E92" t="str">
+          <cell r="E92">
             <v>47000000000091</v>
           </cell>
         </row>
@@ -4653,7 +4653,7 @@
           <cell r="C93" t="str">
             <v>Anak Agung Netti Ariani</v>
           </cell>
-          <cell r="E93" t="str">
+          <cell r="E93">
             <v>47000000000092</v>
           </cell>
         </row>
@@ -4664,7 +4664,7 @@
           <cell r="C94" t="str">
             <v>Hanantowiryo Tamtama</v>
           </cell>
-          <cell r="E94" t="str">
+          <cell r="E94">
             <v>47000000000093</v>
           </cell>
         </row>
@@ -4675,7 +4675,7 @@
           <cell r="C95" t="str">
             <v>Sarah Sibarani</v>
           </cell>
-          <cell r="E95" t="str">
+          <cell r="E95">
             <v>47000000000094</v>
           </cell>
         </row>
@@ -4686,7 +4686,7 @@
           <cell r="C96" t="str">
             <v>Dodit Widiarto</v>
           </cell>
-          <cell r="E96" t="str">
+          <cell r="E96">
             <v>47000000000095</v>
           </cell>
         </row>
@@ -4697,7 +4697,7 @@
           <cell r="C97" t="str">
             <v>Rika Ginting</v>
           </cell>
-          <cell r="E97" t="str">
+          <cell r="E97">
             <v>47000000000096</v>
           </cell>
         </row>
@@ -4708,7 +4708,7 @@
           <cell r="C98" t="str">
             <v>Emir Paranita Nasution</v>
           </cell>
-          <cell r="E98" t="str">
+          <cell r="E98">
             <v>47000000000097</v>
           </cell>
         </row>
@@ -4719,7 +4719,7 @@
           <cell r="C99" t="str">
             <v>Yefri Hendrayani</v>
           </cell>
-          <cell r="E99" t="str">
+          <cell r="E99">
             <v>47000000000098</v>
           </cell>
         </row>
@@ -4730,7 +4730,7 @@
           <cell r="C100" t="str">
             <v>subagio</v>
           </cell>
-          <cell r="E100" t="str">
+          <cell r="E100">
             <v>47000000000099</v>
           </cell>
         </row>
@@ -4741,7 +4741,7 @@
           <cell r="C101" t="str">
             <v>Gustia Rakhmanita</v>
           </cell>
-          <cell r="E101" t="str">
+          <cell r="E101">
             <v>47000000000100</v>
           </cell>
         </row>
@@ -4752,7 +4752,7 @@
           <cell r="C102" t="str">
             <v>Agnes Sutedja</v>
           </cell>
-          <cell r="E102" t="str">
+          <cell r="E102">
             <v>47000000000101</v>
           </cell>
         </row>
@@ -4763,7 +4763,7 @@
           <cell r="C103" t="str">
             <v>Farhana</v>
           </cell>
-          <cell r="E103" t="str">
+          <cell r="E103">
             <v>47000000000102</v>
           </cell>
         </row>
@@ -4774,7 +4774,7 @@
           <cell r="C104" t="str">
             <v>Arfianti Haryani</v>
           </cell>
-          <cell r="E104" t="str">
+          <cell r="E104">
             <v>47000000000103</v>
           </cell>
         </row>
@@ -4785,7 +4785,7 @@
           <cell r="C105" t="str">
             <v>Herdi Yulia Rohmana</v>
           </cell>
-          <cell r="E105" t="str">
+          <cell r="E105">
             <v>47000000000104</v>
           </cell>
         </row>
@@ -4796,7 +4796,7 @@
           <cell r="C106" t="str">
             <v>Desi Setiowati</v>
           </cell>
-          <cell r="E106" t="str">
+          <cell r="E106">
             <v>47000000000105</v>
           </cell>
         </row>
@@ -4807,7 +4807,7 @@
           <cell r="C107" t="str">
             <v>Imam Basuki</v>
           </cell>
-          <cell r="E107" t="str">
+          <cell r="E107">
             <v>47000000000106</v>
           </cell>
         </row>
@@ -4818,7 +4818,7 @@
           <cell r="C108" t="str">
             <v>otong Bustori</v>
           </cell>
-          <cell r="E108" t="str">
+          <cell r="E108">
             <v>47000000000107</v>
           </cell>
         </row>
@@ -4829,7 +4829,7 @@
           <cell r="C109" t="str">
             <v>Retnasha Gameswari</v>
           </cell>
-          <cell r="E109" t="str">
+          <cell r="E109">
             <v>47000000000108</v>
           </cell>
         </row>
@@ -4840,7 +4840,7 @@
           <cell r="C110" t="str">
             <v>Juminar</v>
           </cell>
-          <cell r="E110" t="str">
+          <cell r="E110">
             <v>47000000000109</v>
           </cell>
         </row>
@@ -4851,7 +4851,7 @@
           <cell r="C111" t="str">
             <v>Trisyanto</v>
           </cell>
-          <cell r="E111" t="str">
+          <cell r="E111">
             <v>47000000000110</v>
           </cell>
         </row>
@@ -4862,7 +4862,7 @@
           <cell r="C112" t="str">
             <v>Liaseptriani Liaseptriani</v>
           </cell>
-          <cell r="E112" t="str">
+          <cell r="E112">
             <v>47000000000111</v>
           </cell>
         </row>
@@ -4873,7 +4873,7 @@
           <cell r="C113" t="str">
             <v>gatot harsono</v>
           </cell>
-          <cell r="E113" t="str">
+          <cell r="E113">
             <v>47000000000112</v>
           </cell>
         </row>
@@ -4884,7 +4884,7 @@
           <cell r="C114" t="str">
             <v>Feri Priyanto</v>
           </cell>
-          <cell r="E114" t="str">
+          <cell r="E114">
             <v>47000000000113</v>
           </cell>
         </row>
@@ -4895,7 +4895,7 @@
           <cell r="C115" t="str">
             <v>Winda Suherman</v>
           </cell>
-          <cell r="E115" t="str">
+          <cell r="E115">
             <v>47000000000114</v>
           </cell>
         </row>
@@ -4906,7 +4906,7 @@
           <cell r="C116" t="str">
             <v>Indawan Haryadi</v>
           </cell>
-          <cell r="E116" t="str">
+          <cell r="E116">
             <v>47000000000115</v>
           </cell>
         </row>
@@ -4917,7 +4917,7 @@
           <cell r="C117" t="str">
             <v>Laode</v>
           </cell>
-          <cell r="E117" t="str">
+          <cell r="E117">
             <v>47000000000116</v>
           </cell>
         </row>
@@ -4928,7 +4928,7 @@
           <cell r="C118" t="str">
             <v>Iwan Setiawan</v>
           </cell>
-          <cell r="E118" t="str">
+          <cell r="E118">
             <v>47000000000117</v>
           </cell>
         </row>
@@ -4939,7 +4939,7 @@
           <cell r="C119" t="str">
             <v>Warsito Edy Saputra</v>
           </cell>
-          <cell r="E119" t="str">
+          <cell r="E119">
             <v>47000000000118</v>
           </cell>
         </row>
@@ -4950,7 +4950,7 @@
           <cell r="C120" t="str">
             <v>Moh. Afif</v>
           </cell>
-          <cell r="E120" t="str">
+          <cell r="E120">
             <v>47000000000119</v>
           </cell>
         </row>
@@ -4961,7 +4961,7 @@
           <cell r="C121" t="str">
             <v>Sutarno</v>
           </cell>
-          <cell r="E121" t="str">
+          <cell r="E121">
             <v>47000000000120</v>
           </cell>
         </row>
@@ -4972,7 +4972,7 @@
           <cell r="C122" t="str">
             <v>Andri Herdiansyah</v>
           </cell>
-          <cell r="E122" t="str">
+          <cell r="E122">
             <v>47000000000121</v>
           </cell>
         </row>
@@ -4983,7 +4983,7 @@
           <cell r="C123" t="str">
             <v>Dony Darmawan</v>
           </cell>
-          <cell r="E123" t="str">
+          <cell r="E123">
             <v>47000000000122</v>
           </cell>
         </row>
@@ -4994,7 +4994,7 @@
           <cell r="C124" t="str">
             <v>Ahmad Syaifullah</v>
           </cell>
-          <cell r="E124" t="str">
+          <cell r="E124">
             <v>47000000000123</v>
           </cell>
         </row>
@@ -5005,7 +5005,7 @@
           <cell r="C125" t="str">
             <v>Erwin Said</v>
           </cell>
-          <cell r="E125" t="str">
+          <cell r="E125">
             <v>47000000000124</v>
           </cell>
         </row>
@@ -5016,7 +5016,7 @@
           <cell r="C126" t="str">
             <v>Harry Isnaeni</v>
           </cell>
-          <cell r="E126" t="str">
+          <cell r="E126">
             <v>47000000000125</v>
           </cell>
         </row>
@@ -5027,7 +5027,7 @@
           <cell r="C127" t="str">
             <v>Kahar Triyono</v>
           </cell>
-          <cell r="E127" t="str">
+          <cell r="E127">
             <v>47000000000126</v>
           </cell>
         </row>
@@ -5038,7 +5038,7 @@
           <cell r="C128" t="str">
             <v>Jondril Hantoni</v>
           </cell>
-          <cell r="E128" t="str">
+          <cell r="E128">
             <v>47000000000127</v>
           </cell>
         </row>
@@ -5049,7 +5049,7 @@
           <cell r="C129" t="str">
             <v>Zainuddin Zainuddin</v>
           </cell>
-          <cell r="E129" t="str">
+          <cell r="E129">
             <v>47000000000128</v>
           </cell>
         </row>
@@ -5060,7 +5060,7 @@
           <cell r="C130" t="str">
             <v>Sudarlan Sudarlan</v>
           </cell>
-          <cell r="E130" t="str">
+          <cell r="E130">
             <v>47000000000129</v>
           </cell>
         </row>
@@ -5071,7 +5071,7 @@
           <cell r="C131" t="str">
             <v>Jerry Djajasaputra</v>
           </cell>
-          <cell r="E131" t="str">
+          <cell r="E131">
             <v>47000000000130</v>
           </cell>
         </row>
@@ -5082,7 +5082,7 @@
           <cell r="C132" t="str">
             <v>Eddy Waluyo</v>
           </cell>
-          <cell r="E132" t="str">
+          <cell r="E132">
             <v>47000000000131</v>
           </cell>
         </row>
@@ -5093,7 +5093,7 @@
           <cell r="C133" t="str">
             <v>Yusman</v>
           </cell>
-          <cell r="E133" t="str">
+          <cell r="E133">
             <v>47000000000132</v>
           </cell>
         </row>
@@ -5104,7 +5104,7 @@
           <cell r="C134" t="str">
             <v>Marissa Watak</v>
           </cell>
-          <cell r="E134" t="str">
+          <cell r="E134">
             <v>47000000000133</v>
           </cell>
         </row>
@@ -5115,7 +5115,7 @@
           <cell r="C135" t="str">
             <v>Sugiarto Sugiarto</v>
           </cell>
-          <cell r="E135" t="str">
+          <cell r="E135">
             <v>47000000000134</v>
           </cell>
         </row>
@@ -5126,7 +5126,7 @@
           <cell r="C136" t="str">
             <v>Tutus Ary</v>
           </cell>
-          <cell r="E136" t="str">
+          <cell r="E136">
             <v>47000000000135</v>
           </cell>
         </row>
@@ -5137,7 +5137,7 @@
           <cell r="C137" t="str">
             <v>sumadi</v>
           </cell>
-          <cell r="E137" t="str">
+          <cell r="E137">
             <v>47000000000136</v>
           </cell>
         </row>
@@ -5148,7 +5148,7 @@
           <cell r="C138" t="str">
             <v>Totok Kristianto</v>
           </cell>
-          <cell r="E138" t="str">
+          <cell r="E138">
             <v>47000000000137</v>
           </cell>
         </row>
@@ -5159,7 +5159,7 @@
           <cell r="C139" t="str">
             <v>Yossie Deliana</v>
           </cell>
-          <cell r="E139" t="str">
+          <cell r="E139">
             <v>47000000000138</v>
           </cell>
         </row>
@@ -5170,7 +5170,7 @@
           <cell r="C140" t="str">
             <v>Samad Abdul</v>
           </cell>
-          <cell r="E140" t="str">
+          <cell r="E140">
             <v>47000000000139</v>
           </cell>
         </row>
@@ -5181,7 +5181,7 @@
           <cell r="C141" t="str">
             <v>Agus Priyatno Mahmudo</v>
           </cell>
-          <cell r="E141" t="str">
+          <cell r="E141">
             <v>47000000000140</v>
           </cell>
         </row>
@@ -5192,7 +5192,7 @@
           <cell r="C142" t="str">
             <v>Agus Tanto</v>
           </cell>
-          <cell r="E142" t="str">
+          <cell r="E142">
             <v>47000000000141</v>
           </cell>
         </row>
@@ -5203,7 +5203,7 @@
           <cell r="C143" t="str">
             <v>Andrie</v>
           </cell>
-          <cell r="E143" t="str">
+          <cell r="E143">
             <v>47000000000142</v>
           </cell>
         </row>
@@ -5214,7 +5214,7 @@
           <cell r="C144" t="str">
             <v>Bambang Irawan</v>
           </cell>
-          <cell r="E144" t="str">
+          <cell r="E144">
             <v>47000000000143</v>
           </cell>
         </row>
@@ -5225,7 +5225,7 @@
           <cell r="C145" t="str">
             <v>Cecep Maulana</v>
           </cell>
-          <cell r="E145" t="str">
+          <cell r="E145">
             <v>47000000000144</v>
           </cell>
         </row>
@@ -5236,7 +5236,7 @@
           <cell r="C146" t="str">
             <v>Djuang Tampubolon</v>
           </cell>
-          <cell r="E146" t="str">
+          <cell r="E146">
             <v>47000000000145</v>
           </cell>
         </row>
@@ -5244,7 +5244,7 @@
           <cell r="B147" t="str">
             <v>edwardh</v>
           </cell>
-          <cell r="E147" t="str">
+          <cell r="E147">
             <v>47000000000146</v>
           </cell>
         </row>
@@ -5252,7 +5252,7 @@
           <cell r="B148" t="str">
             <v>edwardp</v>
           </cell>
-          <cell r="E148" t="str">
+          <cell r="E148">
             <v>47000000000147</v>
           </cell>
         </row>
@@ -5263,7 +5263,7 @@
           <cell r="C149" t="str">
             <v>Effendi fendi</v>
           </cell>
-          <cell r="E149" t="str">
+          <cell r="E149">
             <v>47000000000148</v>
           </cell>
         </row>
@@ -5274,7 +5274,7 @@
           <cell r="C150" t="str">
             <v>HR Marlina STR</v>
           </cell>
-          <cell r="E150" t="str">
+          <cell r="E150">
             <v>47000000000149</v>
           </cell>
         </row>
@@ -5282,7 +5282,7 @@
           <cell r="B151" t="str">
             <v>iwanbudi</v>
           </cell>
-          <cell r="E151" t="str">
+          <cell r="E151">
             <v>47000000000150</v>
           </cell>
         </row>
@@ -5293,7 +5293,7 @@
           <cell r="C152" t="str">
             <v>Juharja Juharja</v>
           </cell>
-          <cell r="E152" t="str">
+          <cell r="E152">
             <v>47000000000151</v>
           </cell>
         </row>
@@ -5304,7 +5304,7 @@
           <cell r="C153" t="str">
             <v>Idham Idham</v>
           </cell>
-          <cell r="E153" t="str">
+          <cell r="E153">
             <v>47000000000152</v>
           </cell>
         </row>
@@ -5315,7 +5315,7 @@
           <cell r="C154" t="str">
             <v>Mashuri Mashuri</v>
           </cell>
-          <cell r="E154" t="str">
+          <cell r="E154">
             <v>47000000000153</v>
           </cell>
         </row>
@@ -5326,7 +5326,7 @@
           <cell r="C155" t="str">
             <v>Ardiansyah</v>
           </cell>
-          <cell r="E155" t="str">
+          <cell r="E155">
             <v>47000000000154</v>
           </cell>
         </row>
@@ -5337,7 +5337,7 @@
           <cell r="C156" t="str">
             <v>Novan Nugraha</v>
           </cell>
-          <cell r="E156" t="str">
+          <cell r="E156">
             <v>47000000000155</v>
           </cell>
         </row>
@@ -5348,7 +5348,7 @@
           <cell r="C157" t="str">
             <v>Rhino Priawan</v>
           </cell>
-          <cell r="E157" t="str">
+          <cell r="E157">
             <v>47000000000156</v>
           </cell>
         </row>
@@ -5359,7 +5359,7 @@
           <cell r="C158" t="str">
             <v>Suriono Suriono</v>
           </cell>
-          <cell r="E158" t="str">
+          <cell r="E158">
             <v>47000000000157</v>
           </cell>
         </row>
@@ -5367,7 +5367,7 @@
           <cell r="B159" t="str">
             <v>teuku</v>
           </cell>
-          <cell r="E159" t="str">
+          <cell r="E159">
             <v>47000000000158</v>
           </cell>
         </row>
@@ -5378,7 +5378,7 @@
           <cell r="C160" t="str">
             <v>Leo Nababan</v>
           </cell>
-          <cell r="E160" t="str">
+          <cell r="E160">
             <v>47000000000159</v>
           </cell>
         </row>
@@ -5389,7 +5389,7 @@
           <cell r="C161" t="str">
             <v>Idham Nasution</v>
           </cell>
-          <cell r="E161" t="str">
+          <cell r="E161">
             <v>47000000000160</v>
           </cell>
         </row>
@@ -5400,7 +5400,7 @@
           <cell r="C162" t="str">
             <v>Andri Gunawan</v>
           </cell>
-          <cell r="E162" t="str">
+          <cell r="E162">
             <v>47000000000161</v>
           </cell>
         </row>
@@ -5411,7 +5411,7 @@
           <cell r="C163" t="str">
             <v>Teuku Zulkifli</v>
           </cell>
-          <cell r="E163" t="str">
+          <cell r="E163">
             <v>47000000000162</v>
           </cell>
         </row>
@@ -5422,7 +5422,7 @@
           <cell r="C164" t="str">
             <v>Isa Taufiq</v>
           </cell>
-          <cell r="E164" t="str">
+          <cell r="E164">
             <v>47000000000163</v>
           </cell>
         </row>
@@ -5430,7 +5430,7 @@
           <cell r="B165" t="str">
             <v>EdiSum</v>
           </cell>
-          <cell r="E165" t="str">
+          <cell r="E165">
             <v>47000000000164</v>
           </cell>
         </row>
@@ -5438,7 +5438,7 @@
           <cell r="B166" t="str">
             <v>matshol</v>
           </cell>
-          <cell r="E166" t="str">
+          <cell r="E166">
             <v>47000000000165</v>
           </cell>
         </row>
@@ -5446,7 +5446,7 @@
           <cell r="B167" t="str">
             <v>masimin</v>
           </cell>
-          <cell r="E167" t="str">
+          <cell r="E167">
             <v>47000000000166</v>
           </cell>
         </row>
@@ -5454,7 +5454,7 @@
           <cell r="B168" t="str">
             <v>rofiq</v>
           </cell>
-          <cell r="E168" t="str">
+          <cell r="E168">
             <v>47000000000167</v>
           </cell>
         </row>
@@ -5462,7 +5462,7 @@
           <cell r="B169" t="str">
             <v>sribas</v>
           </cell>
-          <cell r="E169" t="str">
+          <cell r="E169">
             <v>47000000000168</v>
           </cell>
         </row>
@@ -5470,7 +5470,7 @@
           <cell r="B170" t="str">
             <v>taufikh</v>
           </cell>
-          <cell r="E170" t="str">
+          <cell r="E170">
             <v>47000000000169</v>
           </cell>
         </row>
@@ -5481,7 +5481,7 @@
           <cell r="C171" t="str">
             <v>Benita Sofia</v>
           </cell>
-          <cell r="E171" t="str">
+          <cell r="E171">
             <v>47000000000170</v>
           </cell>
         </row>
@@ -5492,7 +5492,7 @@
           <cell r="C172" t="str">
             <v>Zulfikar Siregar</v>
           </cell>
-          <cell r="E172" t="str">
+          <cell r="E172">
             <v>47000000000171</v>
           </cell>
         </row>
@@ -5503,7 +5503,7 @@
           <cell r="C173" t="str">
             <v>Erwin Firmansyah</v>
           </cell>
-          <cell r="E173" t="str">
+          <cell r="E173">
             <v>47000000000172</v>
           </cell>
         </row>
@@ -5514,7 +5514,7 @@
           <cell r="C174" t="str">
             <v>Dian Hariyana</v>
           </cell>
-          <cell r="E174" t="str">
+          <cell r="E174">
             <v>47000000000173</v>
           </cell>
         </row>
@@ -5525,7 +5525,7 @@
           <cell r="C175" t="str">
             <v>Adhitya Danar</v>
           </cell>
-          <cell r="E175" t="str">
+          <cell r="E175">
             <v>47000000000174</v>
           </cell>
         </row>
@@ -5536,7 +5536,7 @@
           <cell r="C176" t="str">
             <v>tri aji</v>
           </cell>
-          <cell r="E176" t="str">
+          <cell r="E176">
             <v>47000000000175</v>
           </cell>
         </row>
@@ -5547,7 +5547,7 @@
           <cell r="C177" t="str">
             <v>marzuki</v>
           </cell>
-          <cell r="E177" t="str">
+          <cell r="E177">
             <v>47000000000176</v>
           </cell>
         </row>
@@ -5558,7 +5558,7 @@
           <cell r="C178" t="str">
             <v>Yulius</v>
           </cell>
-          <cell r="E178" t="str">
+          <cell r="E178">
             <v>47000000000177</v>
           </cell>
         </row>
@@ -5569,7 +5569,7 @@
           <cell r="C179" t="str">
             <v>Supriyadi</v>
           </cell>
-          <cell r="E179" t="str">
+          <cell r="E179">
             <v>47000000000178</v>
           </cell>
         </row>
@@ -5580,7 +5580,7 @@
           <cell r="C180" t="str">
             <v>Yakup Sunaryo</v>
           </cell>
-          <cell r="E180" t="str">
+          <cell r="E180">
             <v>47000000000179</v>
           </cell>
         </row>
@@ -5591,7 +5591,7 @@
           <cell r="C181" t="str">
             <v>Hendar Pambudi</v>
           </cell>
-          <cell r="E181" t="str">
+          <cell r="E181">
             <v>47000000000180</v>
           </cell>
         </row>
@@ -5602,7 +5602,7 @@
           <cell r="C182" t="str">
             <v>Simron Ronaldi Nasution</v>
           </cell>
-          <cell r="E182" t="str">
+          <cell r="E182">
             <v>47000000000181</v>
           </cell>
         </row>
@@ -5613,7 +5613,7 @@
           <cell r="C183" t="str">
             <v>Nugraha</v>
           </cell>
-          <cell r="E183" t="str">
+          <cell r="E183">
             <v>47000000000182</v>
           </cell>
         </row>
@@ -5624,7 +5624,7 @@
           <cell r="C184" t="str">
             <v>Dwinanto Prabowo</v>
           </cell>
-          <cell r="E184" t="str">
+          <cell r="E184">
             <v>47000000000183</v>
           </cell>
         </row>
@@ -5635,7 +5635,7 @@
           <cell r="C185" t="str">
             <v>Nurhidayat</v>
           </cell>
-          <cell r="E185" t="str">
+          <cell r="E185">
             <v>47000000000184</v>
           </cell>
         </row>
@@ -5646,7 +5646,7 @@
           <cell r="C186" t="str">
             <v>Tiara Kemalasari</v>
           </cell>
-          <cell r="E186" t="str">
+          <cell r="E186">
             <v>47000000000185</v>
           </cell>
         </row>
@@ -5657,7 +5657,7 @@
           <cell r="C187" t="str">
             <v>Suci Mardiana</v>
           </cell>
-          <cell r="E187" t="str">
+          <cell r="E187">
             <v>47000000000186</v>
           </cell>
         </row>
@@ -5668,7 +5668,7 @@
           <cell r="C188" t="str">
             <v>Vonny Agram</v>
           </cell>
-          <cell r="E188" t="str">
+          <cell r="E188">
             <v>47000000000187</v>
           </cell>
         </row>
@@ -5679,7 +5679,7 @@
           <cell r="C189" t="str">
             <v>mulyono</v>
           </cell>
-          <cell r="E189" t="str">
+          <cell r="E189">
             <v>47000000000188</v>
           </cell>
         </row>
@@ -5690,7 +5690,7 @@
           <cell r="C190" t="str">
             <v>Keila</v>
           </cell>
-          <cell r="E190" t="str">
+          <cell r="E190">
             <v>47000000000189</v>
           </cell>
         </row>
@@ -5701,7 +5701,7 @@
           <cell r="C191" t="str">
             <v>Taslim</v>
           </cell>
-          <cell r="E191" t="str">
+          <cell r="E191">
             <v>47000000000190</v>
           </cell>
         </row>
@@ -5712,7 +5712,7 @@
           <cell r="C192" t="str">
             <v>Rubah</v>
           </cell>
-          <cell r="E192" t="str">
+          <cell r="E192">
             <v>47000000000191</v>
           </cell>
         </row>
@@ -5723,7 +5723,7 @@
           <cell r="C193" t="str">
             <v>Jaya Sitepu</v>
           </cell>
-          <cell r="E193" t="str">
+          <cell r="E193">
             <v>47000000000192</v>
           </cell>
         </row>
@@ -5734,7 +5734,7 @@
           <cell r="C194" t="str">
             <v>Junaidi</v>
           </cell>
-          <cell r="E194" t="str">
+          <cell r="E194">
             <v>47000000000193</v>
           </cell>
         </row>
@@ -5745,7 +5745,7 @@
           <cell r="C195" t="str">
             <v>Listyo Hartanto</v>
           </cell>
-          <cell r="E195" t="str">
+          <cell r="E195">
             <v>47000000000194</v>
           </cell>
         </row>
@@ -5756,7 +5756,7 @@
           <cell r="C196" t="str">
             <v>Francis Imanuel</v>
           </cell>
-          <cell r="E196" t="str">
+          <cell r="E196">
             <v>47000000000195</v>
           </cell>
         </row>
@@ -5767,7 +5767,7 @@
           <cell r="C197" t="str">
             <v>Nancy Meriana Sinaga</v>
           </cell>
-          <cell r="E197" t="str">
+          <cell r="E197">
             <v>47000000000196</v>
           </cell>
         </row>
@@ -5778,7 +5778,7 @@
           <cell r="C198" t="str">
             <v>Rohmani</v>
           </cell>
-          <cell r="E198" t="str">
+          <cell r="E198">
             <v>47000000000197</v>
           </cell>
         </row>
@@ -5789,7 +5789,7 @@
           <cell r="C199" t="str">
             <v>Herri Setyawan</v>
           </cell>
-          <cell r="E199" t="str">
+          <cell r="E199">
             <v>47000000000198</v>
           </cell>
         </row>
@@ -5800,7 +5800,7 @@
           <cell r="C200" t="str">
             <v>Kurniadi</v>
           </cell>
-          <cell r="E200" t="str">
+          <cell r="E200">
             <v>47000000000199</v>
           </cell>
         </row>
@@ -5811,7 +5811,7 @@
           <cell r="C201" t="str">
             <v>Arini</v>
           </cell>
-          <cell r="E201" t="str">
+          <cell r="E201">
             <v>47000000000200</v>
           </cell>
         </row>
@@ -5822,7 +5822,7 @@
           <cell r="C202" t="str">
             <v>Pikri Hidayat</v>
           </cell>
-          <cell r="E202" t="str">
+          <cell r="E202">
             <v>47000000000201</v>
           </cell>
         </row>
@@ -5833,7 +5833,7 @@
           <cell r="C203" t="str">
             <v>Anggina Tri Yudandi</v>
           </cell>
-          <cell r="E203" t="str">
+          <cell r="E203">
             <v>47000000000202</v>
           </cell>
         </row>
@@ -5844,7 +5844,7 @@
           <cell r="C204" t="str">
             <v>Sigit Rudiantono</v>
           </cell>
-          <cell r="E204" t="str">
+          <cell r="E204">
             <v>47000000000203</v>
           </cell>
         </row>
@@ -5855,7 +5855,7 @@
           <cell r="C205" t="str">
             <v>Muhamad Ikhsan</v>
           </cell>
-          <cell r="E205" t="str">
+          <cell r="E205">
             <v>47000000000204</v>
           </cell>
         </row>
@@ -5866,7 +5866,7 @@
           <cell r="C206" t="str">
             <v>Endang Lestari</v>
           </cell>
-          <cell r="E206" t="str">
+          <cell r="E206">
             <v>47000000000205</v>
           </cell>
         </row>
@@ -5877,7 +5877,7 @@
           <cell r="C207" t="str">
             <v>Ardi</v>
           </cell>
-          <cell r="E207" t="str">
+          <cell r="E207">
             <v>47000000000206</v>
           </cell>
         </row>
@@ -5888,7 +5888,7 @@
           <cell r="C208" t="str">
             <v>Elieser Ferdy P</v>
           </cell>
-          <cell r="E208" t="str">
+          <cell r="E208">
             <v>47000000000207</v>
           </cell>
         </row>
@@ -5899,7 +5899,7 @@
           <cell r="C209" t="str">
             <v>Sjanti Devi</v>
           </cell>
-          <cell r="E209" t="str">
+          <cell r="E209">
             <v>47000000000208</v>
           </cell>
         </row>
@@ -5910,7 +5910,7 @@
           <cell r="C210" t="str">
             <v>Herman Budoyo</v>
           </cell>
-          <cell r="E210" t="str">
+          <cell r="E210">
             <v>47000000000209</v>
           </cell>
         </row>
@@ -5921,7 +5921,7 @@
           <cell r="C211" t="str">
             <v>Ahmad Faza</v>
           </cell>
-          <cell r="E211" t="str">
+          <cell r="E211">
             <v>47000000000210</v>
           </cell>
         </row>
@@ -5932,7 +5932,7 @@
           <cell r="C212" t="str">
             <v>Anna Savitrie</v>
           </cell>
-          <cell r="E212" t="str">
+          <cell r="E212">
             <v>47000000000211</v>
           </cell>
         </row>
@@ -5943,7 +5943,7 @@
           <cell r="C213" t="str">
             <v>Sunaryati</v>
           </cell>
-          <cell r="E213" t="str">
+          <cell r="E213">
             <v>47000000000212</v>
           </cell>
         </row>
@@ -5954,7 +5954,7 @@
           <cell r="C214" t="str">
             <v>Afrida Eka Putri</v>
           </cell>
-          <cell r="E214" t="str">
+          <cell r="E214">
             <v>47000000000213</v>
           </cell>
         </row>
@@ -5965,7 +5965,7 @@
           <cell r="C215" t="str">
             <v>Barika</v>
           </cell>
-          <cell r="E215" t="str">
+          <cell r="E215">
             <v>47000000000214</v>
           </cell>
         </row>
@@ -5976,7 +5976,7 @@
           <cell r="C216" t="str">
             <v>Alfaedi</v>
           </cell>
-          <cell r="E216" t="str">
+          <cell r="E216">
             <v>47000000000215</v>
           </cell>
         </row>
@@ -5987,7 +5987,7 @@
           <cell r="C217" t="str">
             <v>sutra riandi</v>
           </cell>
-          <cell r="E217" t="str">
+          <cell r="E217">
             <v>47000000000216</v>
           </cell>
         </row>
@@ -5998,7 +5998,7 @@
           <cell r="C218" t="str">
             <v>bachtiar</v>
           </cell>
-          <cell r="E218" t="str">
+          <cell r="E218">
             <v>47000000000217</v>
           </cell>
         </row>
@@ -6009,7 +6009,7 @@
           <cell r="C219" t="str">
             <v>Yudi Rahmadi</v>
           </cell>
-          <cell r="E219" t="str">
+          <cell r="E219">
             <v>47000000000218</v>
           </cell>
         </row>
@@ -6020,7 +6020,7 @@
           <cell r="C220" t="str">
             <v>Iwan Sumantri</v>
           </cell>
-          <cell r="E220" t="str">
+          <cell r="E220">
             <v>47000000000219</v>
           </cell>
         </row>
@@ -6031,7 +6031,7 @@
           <cell r="C221" t="str">
             <v>Hanif Eko Saputro</v>
           </cell>
-          <cell r="E221" t="str">
+          <cell r="E221">
             <v>47000000000220</v>
           </cell>
         </row>
@@ -6042,7 +6042,7 @@
           <cell r="C222" t="str">
             <v>Antok</v>
           </cell>
-          <cell r="E222" t="str">
+          <cell r="E222">
             <v>47000000000221</v>
           </cell>
         </row>
@@ -6053,7 +6053,7 @@
           <cell r="C223" t="str">
             <v>Frederika Intan</v>
           </cell>
-          <cell r="E223" t="str">
+          <cell r="E223">
             <v>47000000000222</v>
           </cell>
         </row>
@@ -6064,7 +6064,7 @@
           <cell r="C224" t="str">
             <v>Kurniawan</v>
           </cell>
-          <cell r="E224" t="str">
+          <cell r="E224">
             <v>47000000000223</v>
           </cell>
         </row>
@@ -6075,7 +6075,7 @@
           <cell r="C225" t="str">
             <v>dudung</v>
           </cell>
-          <cell r="E225" t="str">
+          <cell r="E225">
             <v>47000000000224</v>
           </cell>
         </row>
@@ -6086,7 +6086,7 @@
           <cell r="C226" t="str">
             <v>Gina Septa</v>
           </cell>
-          <cell r="E226" t="str">
+          <cell r="E226">
             <v>47000000000225</v>
           </cell>
         </row>
@@ -6097,7 +6097,7 @@
           <cell r="C227" t="str">
             <v>Rahmat Riyadi</v>
           </cell>
-          <cell r="E227" t="str">
+          <cell r="E227">
             <v>47000000000226</v>
           </cell>
         </row>
@@ -6108,7 +6108,7 @@
           <cell r="C228" t="str">
             <v>Antony Pakpahan</v>
           </cell>
-          <cell r="E228" t="str">
+          <cell r="E228">
             <v>47000000000227</v>
           </cell>
         </row>
@@ -6119,7 +6119,7 @@
           <cell r="C229" t="str">
             <v>Muhammad Taufan</v>
           </cell>
-          <cell r="E229" t="str">
+          <cell r="E229">
             <v>47000000000228</v>
           </cell>
         </row>
@@ -6130,7 +6130,7 @@
           <cell r="C230" t="str">
             <v>tedy harseno</v>
           </cell>
-          <cell r="E230" t="str">
+          <cell r="E230">
             <v>47000000000229</v>
           </cell>
         </row>
@@ -6141,7 +6141,7 @@
           <cell r="C231" t="str">
             <v>Arman</v>
           </cell>
-          <cell r="E231" t="str">
+          <cell r="E231">
             <v>47000000000230</v>
           </cell>
         </row>
@@ -6152,7 +6152,7 @@
           <cell r="C232" t="str">
             <v>Ardisam</v>
           </cell>
-          <cell r="E232" t="str">
+          <cell r="E232">
             <v>47000000000231</v>
           </cell>
         </row>
@@ -6163,7 +6163,7 @@
           <cell r="C233" t="str">
             <v>irwan</v>
           </cell>
-          <cell r="E233" t="str">
+          <cell r="E233">
             <v>47000000000232</v>
           </cell>
         </row>
@@ -6174,7 +6174,7 @@
           <cell r="C234" t="str">
             <v>Indra Jaya</v>
           </cell>
-          <cell r="E234" t="str">
+          <cell r="E234">
             <v>47000000000233</v>
           </cell>
         </row>
@@ -6185,7 +6185,7 @@
           <cell r="C235" t="str">
             <v>Kendra Daniswara</v>
           </cell>
-          <cell r="E235" t="str">
+          <cell r="E235">
             <v>47000000000234</v>
           </cell>
         </row>
@@ -6196,7 +6196,7 @@
           <cell r="C236" t="str">
             <v>Ichsanudin</v>
           </cell>
-          <cell r="E236" t="str">
+          <cell r="E236">
             <v>47000000000235</v>
           </cell>
         </row>
@@ -6207,7 +6207,7 @@
           <cell r="C237" t="str">
             <v>Riki Chairul Anwar</v>
           </cell>
-          <cell r="E237" t="str">
+          <cell r="E237">
             <v>47000000000236</v>
           </cell>
         </row>
@@ -6218,7 +6218,7 @@
           <cell r="C238" t="str">
             <v>Ikun M Soedrajat</v>
           </cell>
-          <cell r="E238" t="str">
+          <cell r="E238">
             <v>47000000000237</v>
           </cell>
         </row>
@@ -6229,7 +6229,7 @@
           <cell r="C239" t="str">
             <v>Firman Akbar</v>
           </cell>
-          <cell r="E239" t="str">
+          <cell r="E239">
             <v>47000000000238</v>
           </cell>
         </row>
@@ -6240,7 +6240,7 @@
           <cell r="C240" t="str">
             <v>Rakman A Hadi</v>
           </cell>
-          <cell r="E240" t="str">
+          <cell r="E240">
             <v>47000000000239</v>
           </cell>
         </row>
@@ -6251,7 +6251,7 @@
           <cell r="C241" t="str">
             <v>Marten Tabun</v>
           </cell>
-          <cell r="E241" t="str">
+          <cell r="E241">
             <v>47000000000240</v>
           </cell>
         </row>
@@ -6262,7 +6262,7 @@
           <cell r="C242" t="str">
             <v>Dudi Rustandi</v>
           </cell>
-          <cell r="E242" t="str">
+          <cell r="E242">
             <v>47000000000241</v>
           </cell>
         </row>
@@ -6273,7 +6273,7 @@
           <cell r="C243" t="str">
             <v>saifulloh</v>
           </cell>
-          <cell r="E243" t="str">
+          <cell r="E243">
             <v>47000000000242</v>
           </cell>
         </row>
@@ -6284,7 +6284,7 @@
           <cell r="C244" t="str">
             <v>saifuloh</v>
           </cell>
-          <cell r="E244" t="str">
+          <cell r="E244">
             <v>47000000000243</v>
           </cell>
         </row>
@@ -6295,7 +6295,7 @@
           <cell r="C245" t="str">
             <v>Liani Atmaningrum</v>
           </cell>
-          <cell r="E245" t="str">
+          <cell r="E245">
             <v>47000000000244</v>
           </cell>
         </row>
@@ -6306,7 +6306,7 @@
           <cell r="C246" t="str">
             <v>Mohammad Arman Tompo</v>
           </cell>
-          <cell r="E246" t="str">
+          <cell r="E246">
             <v>47000000000245</v>
           </cell>
         </row>
@@ -6317,7 +6317,7 @@
           <cell r="C247" t="str">
             <v>Ida Tri Wulaningsih</v>
           </cell>
-          <cell r="E247" t="str">
+          <cell r="E247">
             <v>47000000000246</v>
           </cell>
         </row>
@@ -6328,7 +6328,7 @@
           <cell r="C248" t="str">
             <v>Kiki Mustikawati</v>
           </cell>
-          <cell r="E248" t="str">
+          <cell r="E248">
             <v>47000000000247</v>
           </cell>
         </row>
@@ -6339,7 +6339,7 @@
           <cell r="C249" t="str">
             <v>Edy Putra Waskita</v>
           </cell>
-          <cell r="E249" t="str">
+          <cell r="E249">
             <v>47000000000248</v>
           </cell>
         </row>
@@ -6350,7 +6350,7 @@
           <cell r="C250" t="str">
             <v>Ramaizon</v>
           </cell>
-          <cell r="E250" t="str">
+          <cell r="E250">
             <v>47000000000249</v>
           </cell>
         </row>
@@ -6361,7 +6361,7 @@
           <cell r="C251" t="str">
             <v>Arif Prasetyo</v>
           </cell>
-          <cell r="E251" t="str">
+          <cell r="E251">
             <v>47000000000250</v>
           </cell>
         </row>
@@ -6372,7 +6372,7 @@
           <cell r="C252" t="str">
             <v>murdiansyah</v>
           </cell>
-          <cell r="E252" t="str">
+          <cell r="E252">
             <v>47000000000251</v>
           </cell>
         </row>
@@ -6383,7 +6383,7 @@
           <cell r="C253" t="str">
             <v>rifki</v>
           </cell>
-          <cell r="E253" t="str">
+          <cell r="E253">
             <v>47000000000252</v>
           </cell>
         </row>
@@ -6394,7 +6394,7 @@
           <cell r="C254" t="str">
             <v>elisa</v>
           </cell>
-          <cell r="E254" t="str">
+          <cell r="E254">
             <v>47000000000253</v>
           </cell>
         </row>
@@ -6405,7 +6405,7 @@
           <cell r="C255" t="str">
             <v>triyono</v>
           </cell>
-          <cell r="E255" t="str">
+          <cell r="E255">
             <v>47000000000254</v>
           </cell>
         </row>
@@ -6416,7 +6416,7 @@
           <cell r="C256" t="str">
             <v>Monang Simarmata</v>
           </cell>
-          <cell r="E256" t="str">
+          <cell r="E256">
             <v>47000000000255</v>
           </cell>
         </row>
@@ -6427,7 +6427,7 @@
           <cell r="C257" t="str">
             <v>sandika</v>
           </cell>
-          <cell r="E257" t="str">
+          <cell r="E257">
             <v>47000000000256</v>
           </cell>
         </row>
@@ -6438,7 +6438,7 @@
           <cell r="C258" t="str">
             <v>utanto</v>
           </cell>
-          <cell r="E258" t="str">
+          <cell r="E258">
             <v>47000000000257</v>
           </cell>
         </row>
@@ -6449,7 +6449,7 @@
           <cell r="C259" t="str">
             <v>Aris Widodo Pamungkas</v>
           </cell>
-          <cell r="E259" t="str">
+          <cell r="E259">
             <v>47000000000258</v>
           </cell>
         </row>
@@ -6460,7 +6460,7 @@
           <cell r="C260" t="str">
             <v>Yessi Setiarini</v>
           </cell>
-          <cell r="E260" t="str">
+          <cell r="E260">
             <v>47000000000259</v>
           </cell>
         </row>
@@ -6471,7 +6471,7 @@
           <cell r="C261" t="str">
             <v>Ari Yuniasmono</v>
           </cell>
-          <cell r="E261" t="str">
+          <cell r="E261">
             <v>47000000000260</v>
           </cell>
         </row>
@@ -6479,7 +6479,7 @@
           <cell r="B262" t="str">
             <v>rizanur</v>
           </cell>
-          <cell r="E262" t="str">
+          <cell r="E262">
             <v>47000000000261</v>
           </cell>
         </row>
@@ -6490,7 +6490,7 @@
           <cell r="C263" t="str">
             <v>Dedi Marciano Rizanur</v>
           </cell>
-          <cell r="E263" t="str">
+          <cell r="E263">
             <v>47000000000262</v>
           </cell>
         </row>
@@ -6501,7 +6501,7 @@
           <cell r="C264" t="str">
             <v>Uswatun Khasanah</v>
           </cell>
-          <cell r="E264" t="str">
+          <cell r="E264">
             <v>47000000000263</v>
           </cell>
         </row>
@@ -6512,7 +6512,7 @@
           <cell r="C265" t="str">
             <v>Weldi Wimar</v>
           </cell>
-          <cell r="E265" t="str">
+          <cell r="E265">
             <v>47000000000264</v>
           </cell>
         </row>
@@ -6523,7 +6523,7 @@
           <cell r="C266" t="str">
             <v>Yorid Fae</v>
           </cell>
-          <cell r="E266" t="str">
+          <cell r="E266">
             <v>47000000000265</v>
           </cell>
         </row>
@@ -6534,7 +6534,7 @@
           <cell r="C267" t="str">
             <v>Saut MPL Tobing</v>
           </cell>
-          <cell r="E267" t="str">
+          <cell r="E267">
             <v>47000000000266</v>
           </cell>
         </row>
@@ -6545,7 +6545,7 @@
           <cell r="C268" t="str">
             <v>Wahyu Widodo</v>
           </cell>
-          <cell r="E268" t="str">
+          <cell r="E268">
             <v>47000000000267</v>
           </cell>
         </row>
@@ -6556,7 +6556,7 @@
           <cell r="C269" t="str">
             <v>Yunni Sazili</v>
           </cell>
-          <cell r="E269" t="str">
+          <cell r="E269">
             <v>47000000000268</v>
           </cell>
         </row>
@@ -6567,7 +6567,7 @@
           <cell r="C270" t="str">
             <v>Iswahyuni</v>
           </cell>
-          <cell r="E270" t="str">
+          <cell r="E270">
             <v>47000000000269</v>
           </cell>
         </row>
@@ -6578,7 +6578,7 @@
           <cell r="C271" t="str">
             <v>Endang Sobari</v>
           </cell>
-          <cell r="E271" t="str">
+          <cell r="E271">
             <v>47000000000270</v>
           </cell>
         </row>
@@ -6589,7 +6589,7 @@
           <cell r="C272" t="str">
             <v>Edi Siswanto</v>
           </cell>
-          <cell r="E272" t="str">
+          <cell r="E272">
             <v>47000000000271</v>
           </cell>
         </row>
@@ -6600,7 +6600,7 @@
           <cell r="C273" t="str">
             <v>Syahrizal</v>
           </cell>
-          <cell r="E273" t="str">
+          <cell r="E273">
             <v>47000000000272</v>
           </cell>
         </row>
@@ -6611,7 +6611,7 @@
           <cell r="C274" t="str">
             <v>Anton Iryanto</v>
           </cell>
-          <cell r="E274" t="str">
+          <cell r="E274">
             <v>47000000000273</v>
           </cell>
         </row>
@@ -6622,7 +6622,7 @@
           <cell r="C275" t="str">
             <v>Chairul Musaddat</v>
           </cell>
-          <cell r="E275" t="str">
+          <cell r="E275">
             <v>47000000000274</v>
           </cell>
         </row>
@@ -6633,7 +6633,7 @@
           <cell r="C276" t="str">
             <v>Rere Ronggolawe</v>
           </cell>
-          <cell r="E276" t="str">
+          <cell r="E276">
             <v>47000000000275</v>
           </cell>
         </row>
@@ -6644,7 +6644,7 @@
           <cell r="C277" t="str">
             <v>Ryan Bagus Sasminta</v>
           </cell>
-          <cell r="E277" t="str">
+          <cell r="E277">
             <v>47000000000276</v>
           </cell>
         </row>
@@ -6655,7 +6655,7 @@
           <cell r="C278" t="str">
             <v>Bela Retmalantika</v>
           </cell>
-          <cell r="E278" t="str">
+          <cell r="E278">
             <v>47000000000277</v>
           </cell>
         </row>
@@ -6666,7 +6666,7 @@
           <cell r="C279" t="str">
             <v>Sinta Vera Trikawati</v>
           </cell>
-          <cell r="E279" t="str">
+          <cell r="E279">
             <v>47000000000278</v>
           </cell>
         </row>
@@ -6677,7 +6677,7 @@
           <cell r="C280" t="str">
             <v>Redi Setiadi</v>
           </cell>
-          <cell r="E280" t="str">
+          <cell r="E280">
             <v>47000000000279</v>
           </cell>
         </row>
@@ -6688,7 +6688,7 @@
           <cell r="C281" t="str">
             <v>Slamet Budi Setiawan</v>
           </cell>
-          <cell r="E281" t="str">
+          <cell r="E281">
             <v>47000000000280</v>
           </cell>
         </row>
@@ -6699,7 +6699,7 @@
           <cell r="C282" t="str">
             <v>Hendrik</v>
           </cell>
-          <cell r="E282" t="str">
+          <cell r="E282">
             <v>47000000000281</v>
           </cell>
         </row>
@@ -6710,7 +6710,7 @@
           <cell r="C283" t="str">
             <v>Manutar Tamba</v>
           </cell>
-          <cell r="E283" t="str">
+          <cell r="E283">
             <v>47000000000282</v>
           </cell>
         </row>
@@ -6721,7 +6721,7 @@
           <cell r="C284" t="str">
             <v>SYSTEM CRON</v>
           </cell>
-          <cell r="E284" t="str">
+          <cell r="E284">
             <v>47000000000283</v>
           </cell>
         </row>
@@ -6732,7 +6732,7 @@
           <cell r="C285" t="str">
             <v>Nur Kusumowati</v>
           </cell>
-          <cell r="E285" t="str">
+          <cell r="E285">
             <v>47000000000284</v>
           </cell>
         </row>
@@ -6743,7 +6743,7 @@
           <cell r="C286" t="str">
             <v>Ubaidillah</v>
           </cell>
-          <cell r="E286" t="str">
+          <cell r="E286">
             <v>47000000000285</v>
           </cell>
         </row>
@@ -6754,7 +6754,7 @@
           <cell r="C287" t="str">
             <v>Iman Hakiki</v>
           </cell>
-          <cell r="E287" t="str">
+          <cell r="E287">
             <v>47000000000286</v>
           </cell>
         </row>
@@ -6765,7 +6765,7 @@
           <cell r="C288" t="str">
             <v>Susilawati</v>
           </cell>
-          <cell r="E288" t="str">
+          <cell r="E288">
             <v>47000000000287</v>
           </cell>
         </row>
@@ -6776,7 +6776,7 @@
           <cell r="C289" t="str">
             <v>Darsito</v>
           </cell>
-          <cell r="E289" t="str">
+          <cell r="E289">
             <v>47000000000288</v>
           </cell>
         </row>
@@ -6787,7 +6787,7 @@
           <cell r="C290" t="str">
             <v>zafrizal</v>
           </cell>
-          <cell r="E290" t="str">
+          <cell r="E290">
             <v>47000000000289</v>
           </cell>
         </row>
@@ -6798,7 +6798,7 @@
           <cell r="C291" t="str">
             <v>Manotar Tamba</v>
           </cell>
-          <cell r="E291" t="str">
+          <cell r="E291">
             <v>47000000000290</v>
           </cell>
         </row>
@@ -6809,7 +6809,7 @@
           <cell r="C292" t="str">
             <v>Surono</v>
           </cell>
-          <cell r="E292" t="str">
+          <cell r="E292">
             <v>47000000000291</v>
           </cell>
         </row>
@@ -6820,7 +6820,7 @@
           <cell r="C293" t="str">
             <v>Suryadi</v>
           </cell>
-          <cell r="E293" t="str">
+          <cell r="E293">
             <v>47000000000292</v>
           </cell>
         </row>
@@ -6831,7 +6831,7 @@
           <cell r="C294" t="str">
             <v>Rais Indra Noor</v>
           </cell>
-          <cell r="E294" t="str">
+          <cell r="E294">
             <v>47000000000293</v>
           </cell>
         </row>
@@ -6842,7 +6842,7 @@
           <cell r="C295" t="str">
             <v>Faiz Haems</v>
           </cell>
-          <cell r="E295" t="str">
+          <cell r="E295">
             <v>47000000000294</v>
           </cell>
         </row>
@@ -6853,7 +6853,7 @@
           <cell r="C296" t="str">
             <v>Agung Hendarto</v>
           </cell>
-          <cell r="E296" t="str">
+          <cell r="E296">
             <v>47000000000295</v>
           </cell>
         </row>
@@ -6864,7 +6864,7 @@
           <cell r="C297" t="str">
             <v>Deni Setiawan</v>
           </cell>
-          <cell r="E297" t="str">
+          <cell r="E297">
             <v>47000000000296</v>
           </cell>
         </row>
@@ -6875,7 +6875,7 @@
           <cell r="C298" t="str">
             <v>Shobarin Jabar</v>
           </cell>
-          <cell r="E298" t="str">
+          <cell r="E298">
             <v>47000000000297</v>
           </cell>
         </row>
@@ -6886,7 +6886,7 @@
           <cell r="C299" t="str">
             <v>Riandi</v>
           </cell>
-          <cell r="E299" t="str">
+          <cell r="E299">
             <v>47000000000298</v>
           </cell>
         </row>
@@ -6897,7 +6897,7 @@
           <cell r="C300" t="str">
             <v>Mulyadi</v>
           </cell>
-          <cell r="E300" t="str">
+          <cell r="E300">
             <v>47000000000299</v>
           </cell>
         </row>
@@ -6908,7 +6908,7 @@
           <cell r="C301" t="str">
             <v>Dedi Rianto</v>
           </cell>
-          <cell r="E301" t="str">
+          <cell r="E301">
             <v>47000000000300</v>
           </cell>
         </row>
@@ -6919,7 +6919,7 @@
           <cell r="C302" t="str">
             <v>Iyus Darwin</v>
           </cell>
-          <cell r="E302" t="str">
+          <cell r="E302">
             <v>47000000000301</v>
           </cell>
         </row>
@@ -6930,7 +6930,7 @@
           <cell r="C303" t="str">
             <v>Yasir Liem</v>
           </cell>
-          <cell r="E303" t="str">
+          <cell r="E303">
             <v>47000000000302</v>
           </cell>
         </row>
@@ -6941,7 +6941,7 @@
           <cell r="C304" t="str">
             <v>Sir Muhammad Zafrulloh Khan</v>
           </cell>
-          <cell r="E304" t="str">
+          <cell r="E304">
             <v>47000000000303</v>
           </cell>
         </row>
@@ -6952,7 +6952,7 @@
           <cell r="C305" t="str">
             <v>Nawir Lahamutu</v>
           </cell>
-          <cell r="E305" t="str">
+          <cell r="E305">
             <v>47000000000304</v>
           </cell>
         </row>
@@ -6963,7 +6963,7 @@
           <cell r="C306" t="str">
             <v>Swar Jono</v>
           </cell>
-          <cell r="E306" t="str">
+          <cell r="E306">
             <v>47000000000305</v>
           </cell>
         </row>
@@ -6974,7 +6974,7 @@
           <cell r="C307" t="str">
             <v>Hasan Gani</v>
           </cell>
-          <cell r="E307" t="str">
+          <cell r="E307">
             <v>47000000000306</v>
           </cell>
         </row>
@@ -6985,7 +6985,7 @@
           <cell r="C308" t="str">
             <v>Imam Mustofa</v>
           </cell>
-          <cell r="E308" t="str">
+          <cell r="E308">
             <v>47000000000307</v>
           </cell>
         </row>
@@ -6996,7 +6996,7 @@
           <cell r="C309" t="str">
             <v>jumino</v>
           </cell>
-          <cell r="E309" t="str">
+          <cell r="E309">
             <v>47000000000308</v>
           </cell>
         </row>
@@ -7007,7 +7007,7 @@
           <cell r="C310" t="str">
             <v>Felpy</v>
           </cell>
-          <cell r="E310" t="str">
+          <cell r="E310">
             <v>47000000000309</v>
           </cell>
         </row>
@@ -7018,7 +7018,7 @@
           <cell r="C311" t="str">
             <v>Yuliandaru Suryoatmodjo</v>
           </cell>
-          <cell r="E311" t="str">
+          <cell r="E311">
             <v>47000000000310</v>
           </cell>
         </row>
@@ -7029,7 +7029,7 @@
           <cell r="C312" t="str">
             <v>awaludin</v>
           </cell>
-          <cell r="E312" t="str">
+          <cell r="E312">
             <v>47000000000311</v>
           </cell>
         </row>
@@ -7040,7 +7040,7 @@
           <cell r="C313" t="str">
             <v>M Denny  Micrazudin</v>
           </cell>
-          <cell r="E313" t="str">
+          <cell r="E313">
             <v>47000000000312</v>
           </cell>
         </row>
@@ -7051,7 +7051,7 @@
           <cell r="C314" t="str">
             <v>Ambon Rumalean</v>
           </cell>
-          <cell r="E314" t="str">
+          <cell r="E314">
             <v>47000000000313</v>
           </cell>
         </row>
@@ -7062,7 +7062,7 @@
           <cell r="C315" t="str">
             <v>Nawal</v>
           </cell>
-          <cell r="E315" t="str">
+          <cell r="E315">
             <v>47000000000314</v>
           </cell>
         </row>
@@ -7073,7 +7073,7 @@
           <cell r="C316" t="str">
             <v>Miftakhul Muzakky</v>
           </cell>
-          <cell r="E316" t="str">
+          <cell r="E316">
             <v>47000000000315</v>
           </cell>
         </row>
@@ -7084,7 +7084,7 @@
           <cell r="C317" t="str">
             <v>Bambang Prihatin</v>
           </cell>
-          <cell r="E317" t="str">
+          <cell r="E317">
             <v>47000000000316</v>
           </cell>
         </row>
@@ -7095,7 +7095,7 @@
           <cell r="C318" t="str">
             <v>Rizki Akbar</v>
           </cell>
-          <cell r="E318" t="str">
+          <cell r="E318">
             <v>47000000000317</v>
           </cell>
         </row>
@@ -7106,7 +7106,7 @@
           <cell r="C319" t="str">
             <v>Isa Anshori</v>
           </cell>
-          <cell r="E319" t="str">
+          <cell r="E319">
             <v>47000000000318</v>
           </cell>
         </row>
@@ -7117,7 +7117,7 @@
           <cell r="C320" t="str">
             <v>Ridwan Nurhadi</v>
           </cell>
-          <cell r="E320" t="str">
+          <cell r="E320">
             <v>47000000000319</v>
           </cell>
         </row>
@@ -7128,7 +7128,7 @@
           <cell r="C321" t="str">
             <v>Budiman</v>
           </cell>
-          <cell r="E321" t="str">
+          <cell r="E321">
             <v>47000000000320</v>
           </cell>
         </row>
@@ -7139,7 +7139,7 @@
           <cell r="C322" t="str">
             <v>Frando J Siahan</v>
           </cell>
-          <cell r="E322" t="str">
+          <cell r="E322">
             <v>47000000000321</v>
           </cell>
         </row>
@@ -7150,7 +7150,7 @@
           <cell r="C323" t="str">
             <v>Ares S Mauboi</v>
           </cell>
-          <cell r="E323" t="str">
+          <cell r="E323">
             <v>47000000000322</v>
           </cell>
         </row>
@@ -7161,7 +7161,7 @@
           <cell r="C324" t="str">
             <v>Hadi Kasmuri</v>
           </cell>
-          <cell r="E324" t="str">
+          <cell r="E324">
             <v>47000000000323</v>
           </cell>
         </row>
@@ -7172,7 +7172,7 @@
           <cell r="C325" t="str">
             <v>Yusri Azhar</v>
           </cell>
-          <cell r="E325" t="str">
+          <cell r="E325">
             <v>47000000000324</v>
           </cell>
         </row>
@@ -7183,7 +7183,7 @@
           <cell r="C326" t="str">
             <v>M Rusdi</v>
           </cell>
-          <cell r="E326" t="str">
+          <cell r="E326">
             <v>47000000000325</v>
           </cell>
         </row>
@@ -7194,7 +7194,7 @@
           <cell r="C327" t="str">
             <v>Dedi Syahputra</v>
           </cell>
-          <cell r="E327" t="str">
+          <cell r="E327">
             <v>47000000000326</v>
           </cell>
         </row>
@@ -7205,7 +7205,7 @@
           <cell r="C328" t="str">
             <v>Dedi Kusnadi</v>
           </cell>
-          <cell r="E328" t="str">
+          <cell r="E328">
             <v>47000000000327</v>
           </cell>
         </row>
@@ -7216,7 +7216,7 @@
           <cell r="C329" t="str">
             <v>Moritz Thomsen Marbun</v>
           </cell>
-          <cell r="E329" t="str">
+          <cell r="E329">
             <v>47000000000328</v>
           </cell>
         </row>
@@ -7227,7 +7227,7 @@
           <cell r="C330" t="str">
             <v>Aryoko Sudiro</v>
           </cell>
-          <cell r="E330" t="str">
+          <cell r="E330">
             <v>47000000000329</v>
           </cell>
         </row>
@@ -7238,7 +7238,7 @@
           <cell r="C331" t="str">
             <v>Prayanti Dewi Anggraini</v>
           </cell>
-          <cell r="E331" t="str">
+          <cell r="E331">
             <v>47000000000330</v>
           </cell>
         </row>
@@ -7249,7 +7249,7 @@
           <cell r="C332" t="str">
             <v>Ardita</v>
           </cell>
-          <cell r="E332" t="str">
+          <cell r="E332">
             <v>47000000000331</v>
           </cell>
         </row>
@@ -7260,7 +7260,7 @@
           <cell r="C333" t="str">
             <v>PM Q000135</v>
           </cell>
-          <cell r="E333" t="str">
+          <cell r="E333">
             <v>47000000000332</v>
           </cell>
         </row>
@@ -7271,7 +7271,7 @@
           <cell r="C334" t="str">
             <v>Nicky Kurnia</v>
           </cell>
-          <cell r="E334" t="str">
+          <cell r="E334">
             <v>47000000000333</v>
           </cell>
         </row>
@@ -7282,7 +7282,7 @@
           <cell r="C335" t="str">
             <v>M Ari Ardizah Nasution</v>
           </cell>
-          <cell r="E335" t="str">
+          <cell r="E335">
             <v>47000000000334</v>
           </cell>
         </row>
@@ -7293,7 +7293,7 @@
           <cell r="C336" t="str">
             <v>Dadan Hermawan</v>
           </cell>
-          <cell r="E336" t="str">
+          <cell r="E336">
             <v>47000000000335</v>
           </cell>
         </row>
@@ -7304,7 +7304,7 @@
           <cell r="C337" t="str">
             <v>Ardhi Swasono</v>
           </cell>
-          <cell r="E337" t="str">
+          <cell r="E337">
             <v>47000000000336</v>
           </cell>
         </row>
@@ -7315,7 +7315,7 @@
           <cell r="C338" t="str">
             <v>Budi Pranata Sinaga</v>
           </cell>
-          <cell r="E338" t="str">
+          <cell r="E338">
             <v>47000000000337</v>
           </cell>
         </row>
@@ -7326,7 +7326,7 @@
           <cell r="C339" t="str">
             <v>Midin Ena</v>
           </cell>
-          <cell r="E339" t="str">
+          <cell r="E339">
             <v>47000000000338</v>
           </cell>
         </row>
@@ -7337,7 +7337,7 @@
           <cell r="C340" t="str">
             <v>Bardai</v>
           </cell>
-          <cell r="E340" t="str">
+          <cell r="E340">
             <v>47000000000339</v>
           </cell>
         </row>
@@ -7348,7 +7348,7 @@
           <cell r="C341" t="str">
             <v>Syafruddin</v>
           </cell>
-          <cell r="E341" t="str">
+          <cell r="E341">
             <v>47000000000340</v>
           </cell>
         </row>
@@ -7359,7 +7359,7 @@
           <cell r="C342" t="str">
             <v>Rizky Fauzy</v>
           </cell>
-          <cell r="E342" t="str">
+          <cell r="E342">
             <v>47000000000341</v>
           </cell>
         </row>
@@ -7370,7 +7370,7 @@
           <cell r="C343" t="str">
             <v>Imam Safiiy</v>
           </cell>
-          <cell r="E343" t="str">
+          <cell r="E343">
             <v>47000000000342</v>
           </cell>
         </row>
@@ -7381,7 +7381,7 @@
           <cell r="C344" t="str">
             <v>Jimmy Wal</v>
           </cell>
-          <cell r="E344" t="str">
+          <cell r="E344">
             <v>47000000000343</v>
           </cell>
         </row>
@@ -7392,7 +7392,7 @@
           <cell r="C345" t="str">
             <v>Budianto</v>
           </cell>
-          <cell r="E345" t="str">
+          <cell r="E345">
             <v>47000000000344</v>
           </cell>
         </row>
@@ -7403,7 +7403,7 @@
           <cell r="C346" t="str">
             <v>Rio Hakim</v>
           </cell>
-          <cell r="E346" t="str">
+          <cell r="E346">
             <v>47000000000345</v>
           </cell>
         </row>
@@ -7414,7 +7414,7 @@
           <cell r="C347" t="str">
             <v>Nasrul Anwar P</v>
           </cell>
-          <cell r="E347" t="str">
+          <cell r="E347">
             <v>47000000000346</v>
           </cell>
         </row>
@@ -7425,7 +7425,7 @@
           <cell r="C348" t="str">
             <v>Syaiful Idjam</v>
           </cell>
-          <cell r="E348" t="str">
+          <cell r="E348">
             <v>47000000000347</v>
           </cell>
         </row>
@@ -7436,7 +7436,7 @@
           <cell r="C349" t="str">
             <v>Yudo Jati Rahmat Satrio</v>
           </cell>
-          <cell r="E349" t="str">
+          <cell r="E349">
             <v>47000000000348</v>
           </cell>
         </row>
@@ -7447,7 +7447,7 @@
           <cell r="C350" t="str">
             <v>Mursalim</v>
           </cell>
-          <cell r="E350" t="str">
+          <cell r="E350">
             <v>47000000000349</v>
           </cell>
         </row>
@@ -7458,7 +7458,7 @@
           <cell r="C351" t="str">
             <v>Aditya Yudha Prawira</v>
           </cell>
-          <cell r="E351" t="str">
+          <cell r="E351">
             <v>47000000000350</v>
           </cell>
         </row>
@@ -7469,7 +7469,7 @@
           <cell r="C352" t="str">
             <v>Siska Marlina</v>
           </cell>
-          <cell r="E352" t="str">
+          <cell r="E352">
             <v>47000000000351</v>
           </cell>
         </row>
@@ -7480,7 +7480,7 @@
           <cell r="C353" t="str">
             <v>Nur Indra Sri Melati</v>
           </cell>
-          <cell r="E353" t="str">
+          <cell r="E353">
             <v>47000000000352</v>
           </cell>
         </row>
@@ -7491,7 +7491,7 @@
           <cell r="C354" t="str">
             <v>Marcella Avia Ramadhinaningrum</v>
           </cell>
-          <cell r="E354" t="str">
+          <cell r="E354">
             <v>47000000000353</v>
           </cell>
         </row>
@@ -7502,7 +7502,7 @@
           <cell r="C355" t="str">
             <v>Jaruli Samosir</v>
           </cell>
-          <cell r="E355" t="str">
+          <cell r="E355">
             <v>47000000000354</v>
           </cell>
         </row>
@@ -7513,7 +7513,7 @@
           <cell r="C356" t="str">
             <v>Ari Priwarsono</v>
           </cell>
-          <cell r="E356" t="str">
+          <cell r="E356">
             <v>47000000000355</v>
           </cell>
         </row>
@@ -7524,7 +7524,7 @@
           <cell r="C357" t="str">
             <v>Teguh Susanto</v>
           </cell>
-          <cell r="E357" t="str">
+          <cell r="E357">
             <v>47000000000356</v>
           </cell>
         </row>
@@ -7535,7 +7535,7 @@
           <cell r="C358" t="str">
             <v>Juan Talitha</v>
           </cell>
-          <cell r="E358" t="str">
+          <cell r="E358">
             <v>47000000000357</v>
           </cell>
         </row>
@@ -7546,7 +7546,7 @@
           <cell r="C359" t="str">
             <v>Rachmad</v>
           </cell>
-          <cell r="E359" t="str">
+          <cell r="E359">
             <v>47000000000358</v>
           </cell>
         </row>
@@ -7557,7 +7557,7 @@
           <cell r="C360" t="str">
             <v>Radjiman</v>
           </cell>
-          <cell r="E360" t="str">
+          <cell r="E360">
             <v>47000000000359</v>
           </cell>
         </row>
@@ -7568,7 +7568,7 @@
           <cell r="C361" t="str">
             <v>Mat Soleh</v>
           </cell>
-          <cell r="E361" t="str">
+          <cell r="E361">
             <v>47000000000360</v>
           </cell>
         </row>
@@ -7579,7 +7579,7 @@
           <cell r="C362" t="str">
             <v>Binsar</v>
           </cell>
-          <cell r="E362" t="str">
+          <cell r="E362">
             <v>47000000000361</v>
           </cell>
         </row>
@@ -7590,7 +7590,7 @@
           <cell r="C363" t="str">
             <v>Abdul Karim</v>
           </cell>
-          <cell r="E363" t="str">
+          <cell r="E363">
             <v>47000000000362</v>
           </cell>
         </row>
@@ -7601,7 +7601,7 @@
           <cell r="C364" t="str">
             <v>Cahyaningrum Widiastuti</v>
           </cell>
-          <cell r="E364" t="str">
+          <cell r="E364">
             <v>47000000000363</v>
           </cell>
         </row>
@@ -7612,7 +7612,7 @@
           <cell r="C365" t="str">
             <v>Icha Mailinda</v>
           </cell>
-          <cell r="E365" t="str">
+          <cell r="E365">
             <v>47000000000364</v>
           </cell>
         </row>
@@ -7623,7 +7623,7 @@
           <cell r="C366" t="str">
             <v>Cahyaning Annisa</v>
           </cell>
-          <cell r="E366" t="str">
+          <cell r="E366">
             <v>47000000000365</v>
           </cell>
         </row>
@@ -7634,7 +7634,7 @@
           <cell r="C367" t="str">
             <v>Yahya Adyasa Febriansyah</v>
           </cell>
-          <cell r="E367" t="str">
+          <cell r="E367">
             <v>47000000000366</v>
           </cell>
         </row>
@@ -7645,7 +7645,7 @@
           <cell r="C368" t="str">
             <v>Haikal</v>
           </cell>
-          <cell r="E368" t="str">
+          <cell r="E368">
             <v>47000000000367</v>
           </cell>
         </row>
@@ -7656,7 +7656,7 @@
           <cell r="C369" t="str">
             <v>Febriyanto Ahdiat</v>
           </cell>
-          <cell r="E369" t="str">
+          <cell r="E369">
             <v>47000000000368</v>
           </cell>
         </row>
@@ -7667,7 +7667,7 @@
           <cell r="C370" t="str">
             <v>Urbanus</v>
           </cell>
-          <cell r="E370" t="str">
+          <cell r="E370">
             <v>47000000000369</v>
           </cell>
         </row>
@@ -7678,7 +7678,7 @@
           <cell r="C371" t="str">
             <v>Siswanto</v>
           </cell>
-          <cell r="E371" t="str">
+          <cell r="E371">
             <v>47000000000370</v>
           </cell>
         </row>
@@ -7689,7 +7689,7 @@
           <cell r="C372" t="str">
             <v>Prayati Zai</v>
           </cell>
-          <cell r="E372" t="str">
+          <cell r="E372">
             <v>47000000000371</v>
           </cell>
         </row>
@@ -7700,7 +7700,7 @@
           <cell r="C373" t="str">
             <v>Willy Indarto</v>
           </cell>
-          <cell r="E373" t="str">
+          <cell r="E373">
             <v>47000000000372</v>
           </cell>
         </row>
@@ -7711,7 +7711,7 @@
           <cell r="C374" t="str">
             <v>Junaedi</v>
           </cell>
-          <cell r="E374" t="str">
+          <cell r="E374">
             <v>47000000000373</v>
           </cell>
         </row>
@@ -7722,7 +7722,7 @@
           <cell r="C375" t="str">
             <v>Fikri Caesarandi</v>
           </cell>
-          <cell r="E375" t="str">
+          <cell r="E375">
             <v>47000000000374</v>
           </cell>
         </row>
@@ -7733,7 +7733,7 @@
           <cell r="C376" t="str">
             <v>Sakinah Tantriani</v>
           </cell>
-          <cell r="E376" t="str">
+          <cell r="E376">
             <v>47000000000375</v>
           </cell>
         </row>
@@ -7744,7 +7744,7 @@
           <cell r="C377" t="str">
             <v>Dian Firdaus</v>
           </cell>
-          <cell r="E377" t="str">
+          <cell r="E377">
             <v>47000000000376</v>
           </cell>
         </row>
@@ -7755,7 +7755,7 @@
           <cell r="C378" t="str">
             <v>uswatun hasamah</v>
           </cell>
-          <cell r="E378" t="str">
+          <cell r="E378">
             <v>47000000000377</v>
           </cell>
         </row>
@@ -7766,7 +7766,7 @@
           <cell r="C379" t="str">
             <v>sarif hidayatul umah</v>
           </cell>
-          <cell r="E379" t="str">
+          <cell r="E379">
             <v>47000000000378</v>
           </cell>
         </row>
@@ -7777,7 +7777,7 @@
           <cell r="C380" t="str">
             <v>Abdul Rahman Sitompul</v>
           </cell>
-          <cell r="E380" t="str">
+          <cell r="E380">
             <v>47000000000379</v>
           </cell>
         </row>
@@ -7788,7 +7788,7 @@
           <cell r="C381" t="str">
             <v>Abdollah Syani Siregar</v>
           </cell>
-          <cell r="E381" t="str">
+          <cell r="E381">
             <v>47000000000380</v>
           </cell>
         </row>
@@ -7799,7 +7799,7 @@
           <cell r="C382" t="str">
             <v>M. Ervan Isyawal Akbar</v>
           </cell>
-          <cell r="E382" t="str">
+          <cell r="E382">
             <v>47000000000381</v>
           </cell>
         </row>
@@ -7810,7 +7810,7 @@
           <cell r="C383" t="str">
             <v>Erfananda Rasyid</v>
           </cell>
-          <cell r="E383" t="str">
+          <cell r="E383">
             <v>47000000000382</v>
           </cell>
         </row>
@@ -7821,7 +7821,7 @@
           <cell r="C384" t="str">
             <v>Arif Gunawan</v>
           </cell>
-          <cell r="E384" t="str">
+          <cell r="E384">
             <v>47000000000383</v>
           </cell>
         </row>
@@ -7832,7 +7832,7 @@
           <cell r="C385" t="str">
             <v>Elsa Jayanti</v>
           </cell>
-          <cell r="E385" t="str">
+          <cell r="E385">
             <v>47000000000384</v>
           </cell>
         </row>
@@ -7843,7 +7843,7 @@
           <cell r="C386" t="str">
             <v>Muhamad Hamdan Rifai</v>
           </cell>
-          <cell r="E386" t="str">
+          <cell r="E386">
             <v>47000000000385</v>
           </cell>
         </row>
@@ -7854,7 +7854,7 @@
           <cell r="C387" t="str">
             <v>Rizky Reza Pradipta</v>
           </cell>
-          <cell r="E387" t="str">
+          <cell r="E387">
             <v>47000000000386</v>
           </cell>
         </row>
@@ -7865,7 +7865,7 @@
           <cell r="C388" t="str">
             <v>nora meilissa</v>
           </cell>
-          <cell r="E388" t="str">
+          <cell r="E388">
             <v>47000000000387</v>
           </cell>
         </row>
@@ -7876,7 +7876,7 @@
           <cell r="C389" t="str">
             <v>Rahmat Sirfano</v>
           </cell>
-          <cell r="E389" t="str">
+          <cell r="E389">
             <v>47000000000388</v>
           </cell>
         </row>
@@ -7887,7 +7887,7 @@
           <cell r="C390" t="str">
             <v>Wahyu</v>
           </cell>
-          <cell r="E390" t="str">
+          <cell r="E390">
             <v>47000000000389</v>
           </cell>
         </row>
@@ -7898,7 +7898,7 @@
           <cell r="C391" t="str">
             <v>Ario Setyo Gunawan</v>
           </cell>
-          <cell r="E391" t="str">
+          <cell r="E391">
             <v>47000000000390</v>
           </cell>
         </row>
@@ -7909,7 +7909,7 @@
           <cell r="C392" t="str">
             <v>Yosef Hang Wan</v>
           </cell>
-          <cell r="E392" t="str">
+          <cell r="E392">
             <v>47000000000391</v>
           </cell>
         </row>
@@ -7920,7 +7920,7 @@
           <cell r="C393" t="str">
             <v>Maradona Manurung</v>
           </cell>
-          <cell r="E393" t="str">
+          <cell r="E393">
             <v>47000000000392</v>
           </cell>
         </row>
@@ -7931,7 +7931,7 @@
           <cell r="C394" t="str">
             <v>Hervian Bagus Saputra</v>
           </cell>
-          <cell r="E394" t="str">
+          <cell r="E394">
             <v>47000000000393</v>
           </cell>
         </row>
@@ -7942,7 +7942,7 @@
           <cell r="C395" t="str">
             <v>Arfah Hanum</v>
           </cell>
-          <cell r="E395" t="str">
+          <cell r="E395">
             <v>47000000000394</v>
           </cell>
         </row>
@@ -7953,7 +7953,7 @@
           <cell r="C396" t="str">
             <v>Sugeng Ismanto</v>
           </cell>
-          <cell r="E396" t="str">
+          <cell r="E396">
             <v>47000000000395</v>
           </cell>
         </row>
@@ -7964,7 +7964,7 @@
           <cell r="C397" t="str">
             <v>Mia Puspitasari</v>
           </cell>
-          <cell r="E397" t="str">
+          <cell r="E397">
             <v>47000000000396</v>
           </cell>
         </row>
@@ -7975,7 +7975,7 @@
           <cell r="C398" t="str">
             <v>Panca Yudi Baskoro</v>
           </cell>
-          <cell r="E398" t="str">
+          <cell r="E398">
             <v>47000000000397</v>
           </cell>
         </row>
@@ -7986,7 +7986,7 @@
           <cell r="C399" t="str">
             <v>Ilham Arisyandy</v>
           </cell>
-          <cell r="E399" t="str">
+          <cell r="E399">
             <v>47000000000398</v>
           </cell>
         </row>
@@ -7997,7 +7997,7 @@
           <cell r="C400" t="str">
             <v>Ilham Ilham</v>
           </cell>
-          <cell r="E400" t="str">
+          <cell r="E400">
             <v>47000000000399</v>
           </cell>
         </row>
@@ -8008,7 +8008,7 @@
           <cell r="C401" t="str">
             <v>Rohendi Rohendi</v>
           </cell>
-          <cell r="E401" t="str">
+          <cell r="E401">
             <v>47000000000400</v>
           </cell>
         </row>
@@ -8019,7 +8019,7 @@
           <cell r="C402" t="str">
             <v>Ulman Juanda</v>
           </cell>
-          <cell r="E402" t="str">
+          <cell r="E402">
             <v>47000000000401</v>
           </cell>
         </row>
@@ -8030,7 +8030,7 @@
           <cell r="C403" t="str">
             <v>Deddy Rochman</v>
           </cell>
-          <cell r="E403" t="str">
+          <cell r="E403">
             <v>47000000000402</v>
           </cell>
         </row>
@@ -8041,7 +8041,7 @@
           <cell r="C404" t="str">
             <v>Adli Margie</v>
           </cell>
-          <cell r="E404" t="str">
+          <cell r="E404">
             <v>47000000000403</v>
           </cell>
         </row>
@@ -8052,7 +8052,7 @@
           <cell r="C405" t="str">
             <v>Pristu Andonoto</v>
           </cell>
-          <cell r="E405" t="str">
+          <cell r="E405">
             <v>47000000000404</v>
           </cell>
         </row>
@@ -8063,7 +8063,7 @@
           <cell r="C406" t="str">
             <v>Dwi Joko</v>
           </cell>
-          <cell r="E406" t="str">
+          <cell r="E406">
             <v>47000000000405</v>
           </cell>
         </row>
@@ -8074,7 +8074,7 @@
           <cell r="C407" t="str">
             <v>Teguh Pratama</v>
           </cell>
-          <cell r="E407" t="str">
+          <cell r="E407">
             <v>47000000000406</v>
           </cell>
         </row>
@@ -8085,7 +8085,7 @@
           <cell r="C408" t="str">
             <v>Maharani Uthmaniah</v>
           </cell>
-          <cell r="E408" t="str">
+          <cell r="E408">
             <v>47000000000407</v>
           </cell>
         </row>
@@ -8096,7 +8096,7 @@
           <cell r="C409" t="str">
             <v>Sena Andi Satria</v>
           </cell>
-          <cell r="E409" t="str">
+          <cell r="E409">
             <v>47000000000408</v>
           </cell>
         </row>
@@ -8107,7 +8107,7 @@
           <cell r="C410" t="str">
             <v>Mulia Rohanson Harahap</v>
           </cell>
-          <cell r="E410" t="str">
+          <cell r="E410">
             <v>47000000000409</v>
           </cell>
         </row>
@@ -8118,7 +8118,7 @@
           <cell r="C411" t="str">
             <v>Riki Evindra</v>
           </cell>
-          <cell r="E411" t="str">
+          <cell r="E411">
             <v>47000000000410</v>
           </cell>
         </row>
@@ -8129,7 +8129,7 @@
           <cell r="C412" t="str">
             <v>Muhamad Nurhamsach</v>
           </cell>
-          <cell r="E412" t="str">
+          <cell r="E412">
             <v>47000000000411</v>
           </cell>
         </row>
@@ -8140,7 +8140,7 @@
           <cell r="C413" t="str">
             <v>Veradita Yulanda</v>
           </cell>
-          <cell r="E413" t="str">
+          <cell r="E413">
             <v>47000000000412</v>
           </cell>
         </row>
@@ -8151,7 +8151,7 @@
           <cell r="C414" t="str">
             <v>Kevin Henokh Tambunan</v>
           </cell>
-          <cell r="E414" t="str">
+          <cell r="E414">
             <v>47000000000413</v>
           </cell>
         </row>
@@ -8162,7 +8162,7 @@
           <cell r="C415" t="str">
             <v>Suci Rachma Sari</v>
           </cell>
-          <cell r="E415" t="str">
+          <cell r="E415">
             <v>47000000000414</v>
           </cell>
         </row>
@@ -8173,7 +8173,7 @@
           <cell r="C416" t="str">
             <v>R.Lar Kumalaning Tresno</v>
           </cell>
-          <cell r="E416" t="str">
+          <cell r="E416">
             <v>47000000000415</v>
           </cell>
         </row>
@@ -8184,7 +8184,7 @@
           <cell r="C417" t="str">
             <v>Budi Raharja</v>
           </cell>
-          <cell r="E417" t="str">
+          <cell r="E417">
             <v>47000000000416</v>
           </cell>
         </row>
@@ -8195,7 +8195,7 @@
           <cell r="C418" t="str">
             <v>Anggit Ismiyanto</v>
           </cell>
-          <cell r="E418" t="str">
+          <cell r="E418">
             <v>47000000000417</v>
           </cell>
         </row>
@@ -8206,7 +8206,7 @@
           <cell r="C419" t="str">
             <v>Ali Wahono</v>
           </cell>
-          <cell r="E419" t="str">
+          <cell r="E419">
             <v>47000000000418</v>
           </cell>
         </row>
@@ -8217,7 +8217,7 @@
           <cell r="C420" t="str">
             <v>Silvia Putri</v>
           </cell>
-          <cell r="E420" t="str">
+          <cell r="E420">
             <v>47000000000419</v>
           </cell>
         </row>
@@ -8228,7 +8228,7 @@
           <cell r="C421" t="str">
             <v>Paryanto</v>
           </cell>
-          <cell r="E421" t="str">
+          <cell r="E421">
             <v>47000000000420</v>
           </cell>
         </row>
@@ -8239,7 +8239,7 @@
           <cell r="C422" t="str">
             <v>Muklis</v>
           </cell>
-          <cell r="E422" t="str">
+          <cell r="E422">
             <v>47000000000421</v>
           </cell>
         </row>
@@ -8250,7 +8250,7 @@
           <cell r="C423" t="str">
             <v>Zalfi Yandri</v>
           </cell>
-          <cell r="E423" t="str">
+          <cell r="E423">
             <v>47000000000422</v>
           </cell>
         </row>
@@ -8261,7 +8261,7 @@
           <cell r="C424" t="str">
             <v>Grace Kurniawan</v>
           </cell>
-          <cell r="E424" t="str">
+          <cell r="E424">
             <v>47000000000423</v>
           </cell>
         </row>
@@ -8272,7 +8272,7 @@
           <cell r="C425" t="str">
             <v>Farekh Huzair</v>
           </cell>
-          <cell r="E425" t="str">
+          <cell r="E425">
             <v>47000000000424</v>
           </cell>
         </row>
@@ -8283,7 +8283,7 @@
           <cell r="C426" t="str">
             <v>Saarah Andriani</v>
           </cell>
-          <cell r="E426" t="str">
+          <cell r="E426">
             <v>47000000000425</v>
           </cell>
         </row>
@@ -8294,7 +8294,7 @@
           <cell r="C427" t="str">
             <v>Anisah</v>
           </cell>
-          <cell r="E427" t="str">
+          <cell r="E427">
             <v>47000000000426</v>
           </cell>
         </row>
@@ -8305,7 +8305,7 @@
           <cell r="C428" t="str">
             <v>Mohd. Elfan Pratama</v>
           </cell>
-          <cell r="E428" t="str">
+          <cell r="E428">
             <v>47000000000427</v>
           </cell>
         </row>
@@ -8316,7 +8316,7 @@
           <cell r="C429" t="str">
             <v>Deny Adi</v>
           </cell>
-          <cell r="E429" t="str">
+          <cell r="E429">
             <v>47000000000428</v>
           </cell>
         </row>
@@ -8327,7 +8327,7 @@
           <cell r="C430" t="str">
             <v>Heru Sugiri</v>
           </cell>
-          <cell r="E430" t="str">
+          <cell r="E430">
             <v>47000000000429</v>
           </cell>
         </row>
@@ -8338,7 +8338,7 @@
           <cell r="C431" t="str">
             <v>Teguh Joko Pamuji</v>
           </cell>
-          <cell r="E431" t="str">
+          <cell r="E431">
             <v>47000000000430</v>
           </cell>
         </row>
@@ -8349,7 +8349,7 @@
           <cell r="C432" t="str">
             <v>Nopitasari</v>
           </cell>
-          <cell r="E432" t="str">
+          <cell r="E432">
             <v>47000000000431</v>
           </cell>
         </row>
@@ -8360,7 +8360,7 @@
           <cell r="C433" t="str">
             <v>Fani Dwi Astutik</v>
           </cell>
-          <cell r="E433" t="str">
+          <cell r="E433">
             <v>47000000000432</v>
           </cell>
         </row>
@@ -8371,7 +8371,7 @@
           <cell r="C434" t="str">
             <v>Sholehah</v>
           </cell>
-          <cell r="E434" t="str">
+          <cell r="E434">
             <v>47000000000433</v>
           </cell>
         </row>
@@ -8382,7 +8382,7 @@
           <cell r="C435" t="str">
             <v>Wisnu Ardian</v>
           </cell>
-          <cell r="E435" t="str">
+          <cell r="E435">
             <v>47000000000434</v>
           </cell>
         </row>
@@ -8393,7 +8393,7 @@
           <cell r="C436" t="str">
             <v>Wisnu Ardian</v>
           </cell>
-          <cell r="E436" t="str">
+          <cell r="E436">
             <v>47000000000435</v>
           </cell>
         </row>
@@ -8404,7 +8404,7 @@
           <cell r="C437" t="str">
             <v>Putra Perdana Tirtomoyo</v>
           </cell>
-          <cell r="E437" t="str">
+          <cell r="E437">
             <v>47000000000436</v>
           </cell>
         </row>
@@ -8415,7 +8415,7 @@
           <cell r="C438" t="str">
             <v>Jaenudin</v>
           </cell>
-          <cell r="E438" t="str">
+          <cell r="E438">
             <v>47000000000437</v>
           </cell>
         </row>
@@ -8426,7 +8426,7 @@
           <cell r="C439" t="str">
             <v>Jusuf Gandi</v>
           </cell>
-          <cell r="E439" t="str">
+          <cell r="E439">
             <v>47000000000438</v>
           </cell>
         </row>
@@ -8437,7 +8437,7 @@
           <cell r="C440" t="str">
             <v>Jodie Satria</v>
           </cell>
-          <cell r="E440" t="str">
+          <cell r="E440">
             <v>47000000000439</v>
           </cell>
         </row>
@@ -8448,7 +8448,7 @@
           <cell r="C441" t="str">
             <v>Ujang Barma</v>
           </cell>
-          <cell r="E441" t="str">
+          <cell r="E441">
             <v>47000000000440</v>
           </cell>
         </row>
@@ -8459,7 +8459,7 @@
           <cell r="C442" t="str">
             <v>Ajan</v>
           </cell>
-          <cell r="E442" t="str">
+          <cell r="E442">
             <v>47000000000441</v>
           </cell>
         </row>
@@ -8470,7 +8470,7 @@
           <cell r="C443" t="str">
             <v>Mista</v>
           </cell>
-          <cell r="E443" t="str">
+          <cell r="E443">
             <v>47000000000442</v>
           </cell>
         </row>
@@ -8481,7 +8481,7 @@
           <cell r="C444" t="str">
             <v>Enceng Hemawan</v>
           </cell>
-          <cell r="E444" t="str">
+          <cell r="E444">
             <v>47000000000443</v>
           </cell>
         </row>
@@ -8492,7 +8492,7 @@
           <cell r="C445" t="str">
             <v>Kosasih</v>
           </cell>
-          <cell r="E445" t="str">
+          <cell r="E445">
             <v>47000000000444</v>
           </cell>
         </row>
@@ -8503,7 +8503,7 @@
           <cell r="C446" t="str">
             <v>habib</v>
           </cell>
-          <cell r="E446" t="str">
+          <cell r="E446">
             <v>47000000000445</v>
           </cell>
         </row>
@@ -8514,7 +8514,7 @@
           <cell r="C447" t="str">
             <v>Endang Endang</v>
           </cell>
-          <cell r="E447" t="str">
+          <cell r="E447">
             <v>47000000000446</v>
           </cell>
         </row>
@@ -8525,7 +8525,7 @@
           <cell r="C448" t="str">
             <v>Narno Narno</v>
           </cell>
-          <cell r="E448" t="str">
+          <cell r="E448">
             <v>47000000000447</v>
           </cell>
         </row>
@@ -8536,7 +8536,7 @@
           <cell r="C449" t="str">
             <v>Rizak Tri Septian</v>
           </cell>
-          <cell r="E449" t="str">
+          <cell r="E449">
             <v>47000000000448</v>
           </cell>
         </row>
@@ -8547,7 +8547,7 @@
           <cell r="C450" t="str">
             <v>Rian Yushak</v>
           </cell>
-          <cell r="E450" t="str">
+          <cell r="E450">
             <v>47000000000449</v>
           </cell>
         </row>
@@ -8558,7 +8558,7 @@
           <cell r="C451" t="str">
             <v>Lisma Natalia</v>
           </cell>
-          <cell r="E451" t="str">
+          <cell r="E451">
             <v>47000000000450</v>
           </cell>
         </row>
@@ -8569,7 +8569,7 @@
           <cell r="C452" t="str">
             <v>David Lumban Gaol</v>
           </cell>
-          <cell r="E452" t="str">
+          <cell r="E452">
             <v>47000000000451</v>
           </cell>
         </row>
@@ -8580,7 +8580,7 @@
           <cell r="C453" t="str">
             <v>Vidhy Kartika Putri</v>
           </cell>
-          <cell r="E453" t="str">
+          <cell r="E453">
             <v>47000000000452</v>
           </cell>
         </row>
@@ -8591,7 +8591,7 @@
           <cell r="C454" t="str">
             <v>Arjiyanto</v>
           </cell>
-          <cell r="E454" t="str">
+          <cell r="E454">
             <v>47000000000453</v>
           </cell>
         </row>
@@ -8602,7 +8602,7 @@
           <cell r="C455" t="str">
             <v>Muhammad Ardiansyah</v>
           </cell>
-          <cell r="E455" t="str">
+          <cell r="E455">
             <v>47000000000454</v>
           </cell>
         </row>
@@ -8613,7 +8613,7 @@
           <cell r="C456" t="str">
             <v>Turita Pramuning</v>
           </cell>
-          <cell r="E456" t="str">
+          <cell r="E456">
             <v>47000000000455</v>
           </cell>
         </row>
@@ -8624,7 +8624,7 @@
           <cell r="C457" t="str">
             <v>External Audit</v>
           </cell>
-          <cell r="E457" t="str">
+          <cell r="E457">
             <v>47000000000456</v>
           </cell>
         </row>
@@ -8635,7 +8635,7 @@
           <cell r="C458" t="str">
             <v>Seftiyan Hadi Maulana</v>
           </cell>
-          <cell r="E458" t="str">
+          <cell r="E458">
             <v>47000000000457</v>
           </cell>
         </row>
@@ -8646,7 +8646,7 @@
           <cell r="C459" t="str">
             <v>Edy Situmeang</v>
           </cell>
-          <cell r="E459" t="str">
+          <cell r="E459">
             <v>47000000000458</v>
           </cell>
         </row>
@@ -8657,7 +8657,7 @@
           <cell r="C460" t="str">
             <v>M Ridho Pramudia</v>
           </cell>
-          <cell r="E460" t="str">
+          <cell r="E460">
             <v>47000000000459</v>
           </cell>
         </row>
@@ -8668,7 +8668,7 @@
           <cell r="C461" t="str">
             <v>Mhd Syahputra</v>
           </cell>
-          <cell r="E461" t="str">
+          <cell r="E461">
             <v>47000000000460</v>
           </cell>
         </row>
@@ -8679,7 +8679,7 @@
           <cell r="C462" t="str">
             <v>Jeefrianda HP Sigalingging</v>
           </cell>
-          <cell r="E462" t="str">
+          <cell r="E462">
             <v>47000000000461</v>
           </cell>
         </row>
@@ -8690,7 +8690,7 @@
           <cell r="C463" t="str">
             <v>Amir Sofyan Hadi</v>
           </cell>
-          <cell r="E463" t="str">
+          <cell r="E463">
             <v>47000000000462</v>
           </cell>
         </row>
@@ -8701,7 +8701,7 @@
           <cell r="C464" t="str">
             <v>Jusuf Bobby Putra</v>
           </cell>
-          <cell r="E464" t="str">
+          <cell r="E464">
             <v>47000000000463</v>
           </cell>
         </row>
@@ -8712,7 +8712,7 @@
           <cell r="C465" t="str">
             <v>Muhammad Khadafy</v>
           </cell>
-          <cell r="E465" t="str">
+          <cell r="E465">
             <v>47000000000464</v>
           </cell>
         </row>
@@ -8723,7 +8723,7 @@
           <cell r="C466" t="str">
             <v>Desi Herawati</v>
           </cell>
-          <cell r="E466" t="str">
+          <cell r="E466">
             <v>47000000000465</v>
           </cell>
         </row>
@@ -8734,7 +8734,7 @@
           <cell r="C467" t="str">
             <v>Zam Roji</v>
           </cell>
-          <cell r="E467" t="str">
+          <cell r="E467">
             <v>47000000000466</v>
           </cell>
         </row>
@@ -8745,7 +8745,7 @@
           <cell r="C468" t="str">
             <v>Idian</v>
           </cell>
-          <cell r="E468" t="str">
+          <cell r="E468">
             <v>47000000000467</v>
           </cell>
         </row>
@@ -8756,7 +8756,7 @@
           <cell r="C469" t="str">
             <v>Atmo Sastro Dinoto</v>
           </cell>
-          <cell r="E469" t="str">
+          <cell r="E469">
             <v>47000000000468</v>
           </cell>
         </row>
@@ -8767,7 +8767,7 @@
           <cell r="C470" t="str">
             <v>Finance Taketaker</v>
           </cell>
-          <cell r="E470" t="str">
+          <cell r="E470">
             <v>47000000000469</v>
           </cell>
         </row>
@@ -8778,7 +8778,7 @@
           <cell r="C471" t="str">
             <v>Herlin Juli Asri</v>
           </cell>
-          <cell r="E471" t="str">
+          <cell r="E471">
             <v>47000000000470</v>
           </cell>
         </row>
@@ -8789,7 +8789,7 @@
           <cell r="C472" t="str">
             <v>Wahyu Ramadhani</v>
           </cell>
-          <cell r="E472" t="str">
+          <cell r="E472">
             <v>47000000000471</v>
           </cell>
         </row>
@@ -8800,7 +8800,7 @@
           <cell r="C473" t="str">
             <v>Bani Mustazeni</v>
           </cell>
-          <cell r="E473" t="str">
+          <cell r="E473">
             <v>47000000000472</v>
           </cell>
         </row>
@@ -8811,7 +8811,7 @@
           <cell r="C474" t="str">
             <v>Elsa Mardian</v>
           </cell>
-          <cell r="E474" t="str">
+          <cell r="E474">
             <v>47000000000473</v>
           </cell>
         </row>
@@ -8822,7 +8822,7 @@
           <cell r="C475" t="str">
             <v>Ujang Suryana</v>
           </cell>
-          <cell r="E475" t="str">
+          <cell r="E475">
             <v>47000000000474</v>
           </cell>
         </row>
@@ -8833,7 +8833,7 @@
           <cell r="C476" t="str">
             <v>Panji Bima Santri</v>
           </cell>
-          <cell r="E476" t="str">
+          <cell r="E476">
             <v>47000000000475</v>
           </cell>
         </row>
@@ -8844,7 +8844,7 @@
           <cell r="C477" t="str">
             <v>Annisa Dewi Arumsari</v>
           </cell>
-          <cell r="E477" t="str">
+          <cell r="E477">
             <v>47000000000476</v>
           </cell>
         </row>
@@ -8855,7 +8855,7 @@
           <cell r="C478" t="str">
             <v>Khafid Fahrurrozi</v>
           </cell>
-          <cell r="E478" t="str">
+          <cell r="E478">
             <v>47000000000477</v>
           </cell>
         </row>
@@ -8866,7 +8866,7 @@
           <cell r="C479" t="str">
             <v>Rayan Suryadikara</v>
           </cell>
-          <cell r="E479" t="str">
+          <cell r="E479">
             <v>47000000000478</v>
           </cell>
         </row>
@@ -8877,7 +8877,7 @@
           <cell r="C480" t="str">
             <v>Joko Wiyono</v>
           </cell>
-          <cell r="E480" t="str">
+          <cell r="E480">
             <v>47000000000479</v>
           </cell>
         </row>
@@ -8888,7 +8888,7 @@
           <cell r="C481" t="str">
             <v>Annyess Sri Maristi</v>
           </cell>
-          <cell r="E481" t="str">
+          <cell r="E481">
             <v>47000000000480</v>
           </cell>
         </row>
@@ -8899,7 +8899,7 @@
           <cell r="C482" t="str">
             <v>Annyes Sri Maristi</v>
           </cell>
-          <cell r="E482" t="str">
+          <cell r="E482">
             <v>47000000000481</v>
           </cell>
         </row>
@@ -8910,7 +8910,7 @@
           <cell r="C483" t="str">
             <v>Fuzi Mafhrozi</v>
           </cell>
-          <cell r="E483" t="str">
+          <cell r="E483">
             <v>47000000000482</v>
           </cell>
         </row>
@@ -8921,7 +8921,7 @@
           <cell r="C484" t="str">
             <v>Roy Aditya</v>
           </cell>
-          <cell r="E484" t="str">
+          <cell r="E484">
             <v>47000000000483</v>
           </cell>
         </row>
@@ -8932,7 +8932,7 @@
           <cell r="C485" t="str">
             <v>Shihab</v>
           </cell>
-          <cell r="E485" t="str">
+          <cell r="E485">
             <v>47000000000484</v>
           </cell>
         </row>
@@ -8943,7 +8943,7 @@
           <cell r="C486" t="str">
             <v>Dony Setiawan</v>
           </cell>
-          <cell r="E486" t="str">
+          <cell r="E486">
             <v>47000000000485</v>
           </cell>
         </row>
@@ -8954,7 +8954,7 @@
           <cell r="C487" t="str">
             <v>Ario Yulianto Wibowo</v>
           </cell>
-          <cell r="E487" t="str">
+          <cell r="E487">
             <v>47000000000486</v>
           </cell>
         </row>
@@ -8965,7 +8965,7 @@
           <cell r="C488" t="str">
             <v>Zainudin Anwar</v>
           </cell>
-          <cell r="E488" t="str">
+          <cell r="E488">
             <v>47000000000487</v>
           </cell>
         </row>
@@ -8976,7 +8976,7 @@
           <cell r="C489" t="str">
             <v>Sulih</v>
           </cell>
-          <cell r="E489" t="str">
+          <cell r="E489">
             <v>47000000000488</v>
           </cell>
         </row>
@@ -8987,7 +8987,7 @@
           <cell r="C490" t="str">
             <v>Ario Yulianto Wibowo</v>
           </cell>
-          <cell r="E490" t="str">
+          <cell r="E490">
             <v>47000000000489</v>
           </cell>
         </row>
@@ -8998,7 +8998,7 @@
           <cell r="C491" t="str">
             <v>anugerah Januariansyah</v>
           </cell>
-          <cell r="E491" t="str">
+          <cell r="E491">
             <v>47000000000490</v>
           </cell>
         </row>
@@ -9009,7 +9009,7 @@
           <cell r="C492" t="str">
             <v>Anugerah Januariansyah</v>
           </cell>
-          <cell r="E492" t="str">
+          <cell r="E492">
             <v>47000000000491</v>
           </cell>
         </row>
@@ -9020,7 +9020,7 @@
           <cell r="C493" t="str">
             <v>agus salim</v>
           </cell>
-          <cell r="E493" t="str">
+          <cell r="E493">
             <v>47000000000492</v>
           </cell>
         </row>
@@ -9031,7 +9031,7 @@
           <cell r="C494" t="str">
             <v>rangga darmawan</v>
           </cell>
-          <cell r="E494" t="str">
+          <cell r="E494">
             <v>47000000000493</v>
           </cell>
         </row>
@@ -9042,7 +9042,7 @@
           <cell r="C495" t="str">
             <v>Hernita Dwi</v>
           </cell>
-          <cell r="E495" t="str">
+          <cell r="E495">
             <v>47000000000494</v>
           </cell>
         </row>
@@ -9053,7 +9053,7 @@
           <cell r="C496" t="str">
             <v>Faiz Horifal</v>
           </cell>
-          <cell r="E496" t="str">
+          <cell r="E496">
             <v>47000000000495</v>
           </cell>
         </row>
@@ -9064,7 +9064,7 @@
           <cell r="C497" t="str">
             <v>Rendy Prananta Purba</v>
           </cell>
-          <cell r="E497" t="str">
+          <cell r="E497">
             <v>47000000000496</v>
           </cell>
         </row>
@@ -9075,7 +9075,7 @@
           <cell r="C498" t="str">
             <v>Mochamad Samman</v>
           </cell>
-          <cell r="E498" t="str">
+          <cell r="E498">
             <v>47000000000497</v>
           </cell>
         </row>
@@ -9086,7 +9086,7 @@
           <cell r="C499" t="str">
             <v>Fuad Febrian</v>
           </cell>
-          <cell r="E499" t="str">
+          <cell r="E499">
             <v>47000000000498</v>
           </cell>
         </row>
@@ -9097,7 +9097,7 @@
           <cell r="C500" t="str">
             <v>suyanto</v>
           </cell>
-          <cell r="E500" t="str">
+          <cell r="E500">
             <v>47000000000499</v>
           </cell>
         </row>
@@ -9108,7 +9108,7 @@
           <cell r="C501" t="str">
             <v>ruswandi</v>
           </cell>
-          <cell r="E501" t="str">
+          <cell r="E501">
             <v>47000000000500</v>
           </cell>
         </row>
@@ -9119,7 +9119,7 @@
           <cell r="C502" t="str">
             <v>Sang Toga Sitompul</v>
           </cell>
-          <cell r="E502" t="str">
+          <cell r="E502">
             <v>47000000000501</v>
           </cell>
         </row>
@@ -9130,7 +9130,7 @@
           <cell r="C503" t="str">
             <v>eka purwanti</v>
           </cell>
-          <cell r="E503" t="str">
+          <cell r="E503">
             <v>47000000000502</v>
           </cell>
         </row>
@@ -9141,7 +9141,7 @@
           <cell r="C504" t="str">
             <v>Magang Bhayangkari</v>
           </cell>
-          <cell r="E504" t="str">
+          <cell r="E504">
             <v>47000000000503</v>
           </cell>
         </row>
@@ -9152,7 +9152,7 @@
           <cell r="C505" t="str">
             <v>Harlen Amudi Purba</v>
           </cell>
-          <cell r="E505" t="str">
+          <cell r="E505">
             <v>47000000000504</v>
           </cell>
         </row>
@@ -9163,7 +9163,7 @@
           <cell r="C506" t="str">
             <v>Rafi Firman Saputra</v>
           </cell>
-          <cell r="E506" t="str">
+          <cell r="E506">
             <v>47000000000505</v>
           </cell>
         </row>
@@ -9174,7 +9174,7 @@
           <cell r="C507" t="str">
             <v>eko kurniawan</v>
           </cell>
-          <cell r="E507" t="str">
+          <cell r="E507">
             <v>47000000000506</v>
           </cell>
         </row>
@@ -9185,7 +9185,7 @@
           <cell r="C508" t="str">
             <v>krisnawan</v>
           </cell>
-          <cell r="E508" t="str">
+          <cell r="E508">
             <v>47000000000507</v>
           </cell>
         </row>
@@ -9196,7 +9196,7 @@
           <cell r="C509" t="str">
             <v>Rio Martha</v>
           </cell>
-          <cell r="E509" t="str">
+          <cell r="E509">
             <v>47000000000508</v>
           </cell>
         </row>
@@ -9207,7 +9207,7 @@
           <cell r="C510" t="str">
             <v>Paino Suprayinto</v>
           </cell>
-          <cell r="E510" t="str">
+          <cell r="E510">
             <v>47000000000509</v>
           </cell>
         </row>
@@ -9218,7 +9218,7 @@
           <cell r="C511" t="str">
             <v>eka bagus</v>
           </cell>
-          <cell r="E511" t="str">
+          <cell r="E511">
             <v>47000000000510</v>
           </cell>
         </row>
@@ -9229,7 +9229,7 @@
           <cell r="C512" t="str">
             <v>Belina Lindarwani</v>
           </cell>
-          <cell r="E512" t="str">
+          <cell r="E512">
             <v>47000000000511</v>
           </cell>
         </row>
@@ -9240,7 +9240,7 @@
           <cell r="C513" t="str">
             <v>Martimbul Rahman</v>
           </cell>
-          <cell r="E513" t="str">
+          <cell r="E513">
             <v>47000000000512</v>
           </cell>
         </row>
@@ -9251,7 +9251,7 @@
           <cell r="C514" t="str">
             <v>Aldi Mulyadi</v>
           </cell>
-          <cell r="E514" t="str">
+          <cell r="E514">
             <v>47000000000513</v>
           </cell>
         </row>
@@ -9262,7 +9262,7 @@
           <cell r="C515" t="str">
             <v>Rommel Hutapea</v>
           </cell>
-          <cell r="E515" t="str">
+          <cell r="E515">
             <v>47000000000514</v>
           </cell>
         </row>
@@ -9273,7 +9273,7 @@
           <cell r="C516" t="str">
             <v>Wendy Septiyan</v>
           </cell>
-          <cell r="E516" t="str">
+          <cell r="E516">
             <v>47000000000515</v>
           </cell>
         </row>
@@ -9284,7 +9284,7 @@
           <cell r="C517" t="str">
             <v>Febryan Mahsyar</v>
           </cell>
-          <cell r="E517" t="str">
+          <cell r="E517">
             <v>47000000000516</v>
           </cell>
         </row>
@@ -9295,7 +9295,7 @@
           <cell r="C518" t="str">
             <v>Sherly Tamira</v>
           </cell>
-          <cell r="E518" t="str">
+          <cell r="E518">
             <v>47000000000517</v>
           </cell>
         </row>
@@ -9306,7 +9306,7 @@
           <cell r="C519" t="str">
             <v>Taufik Mulia Pane</v>
           </cell>
-          <cell r="E519" t="str">
+          <cell r="E519">
             <v>47000000000518</v>
           </cell>
         </row>
@@ -9317,7 +9317,7 @@
           <cell r="C520" t="str">
             <v>Eka Purwanti</v>
           </cell>
-          <cell r="E520" t="str">
+          <cell r="E520">
             <v>47000000000519</v>
           </cell>
         </row>
@@ -9328,7 +9328,7 @@
           <cell r="C521" t="str">
             <v>Safira Nurbaiti</v>
           </cell>
-          <cell r="E521" t="str">
+          <cell r="E521">
             <v>47000000000520</v>
           </cell>
         </row>
@@ -9339,7 +9339,7 @@
           <cell r="C522" t="str">
             <v>Irvan Agus Dharma</v>
           </cell>
-          <cell r="E522" t="str">
+          <cell r="E522">
             <v>47000000000521</v>
           </cell>
         </row>
@@ -9350,7 +9350,7 @@
           <cell r="C523" t="str">
             <v>Adietya Dharmawan</v>
           </cell>
-          <cell r="E523" t="str">
+          <cell r="E523">
             <v>47000000000522</v>
           </cell>
         </row>
@@ -9361,7 +9361,7 @@
           <cell r="C524" t="str">
             <v>Abdul Risan</v>
           </cell>
-          <cell r="E524" t="str">
+          <cell r="E524">
             <v>47000000000523</v>
           </cell>
         </row>
@@ -9372,7 +9372,7 @@
           <cell r="C525" t="str">
             <v>Sufie Amalia</v>
           </cell>
-          <cell r="E525" t="str">
+          <cell r="E525">
             <v>47000000000524</v>
           </cell>
         </row>
@@ -9437,12 +9437,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Source"/>
       <sheetName val="MAIN"/>
       <sheetName val="Sheet1"/>
       <sheetName val="Pindahan dari DB ERP Live"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="2">
           <cell r="C2" t="str">
             <v>Abdollah</v>
@@ -17178,6 +17180,9 @@
           <cell r="F554">
             <v>25000000000553</v>
           </cell>
+          <cell r="H554" t="str">
+            <v>Masimin</v>
+          </cell>
         </row>
         <row r="555">
           <cell r="D555" t="str">
@@ -17186,6 +17191,9 @@
           <cell r="F555">
             <v>25000000000554</v>
           </cell>
+          <cell r="H555" t="str">
+            <v>Santoso Dwi Cahyo</v>
+          </cell>
         </row>
         <row r="556">
           <cell r="D556" t="str">
@@ -17194,6 +17202,9 @@
           <cell r="F556">
             <v>25000000000555</v>
           </cell>
+          <cell r="H556" t="str">
+            <v>Wartono</v>
+          </cell>
         </row>
         <row r="557">
           <cell r="D557" t="str">
@@ -17202,10 +17213,419 @@
           <cell r="F557">
             <v>25000000000556</v>
           </cell>
+          <cell r="H557" t="str">
+            <v>Yusarman</v>
+          </cell>
+        </row>
+        <row r="558">
+          <cell r="C558" t="str">
+            <v>abdul.rachman</v>
+          </cell>
+          <cell r="D558" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Rachman', null);</v>
+          </cell>
+          <cell r="F558">
+            <v>25000000000557</v>
+          </cell>
+          <cell r="H558" t="str">
+            <v>Abdul Rachman</v>
+          </cell>
+        </row>
+        <row r="559">
+          <cell r="C559" t="str">
+            <v>aden.bagus</v>
+          </cell>
+          <cell r="D559" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aden Bagus', null);</v>
+          </cell>
+          <cell r="F559">
+            <v>25000000000558</v>
+          </cell>
+          <cell r="H559" t="str">
+            <v>Aden Bagus</v>
+          </cell>
+        </row>
+        <row r="560">
+          <cell r="C560" t="str">
+            <v>adhe.kurniawan</v>
+          </cell>
+          <cell r="D560" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adhe Kurniawan', null);</v>
+          </cell>
+          <cell r="F560">
+            <v>25000000000559</v>
+          </cell>
+          <cell r="H560" t="str">
+            <v>Adhe Kurniawan</v>
+          </cell>
+        </row>
+        <row r="561">
+          <cell r="C561" t="str">
+            <v>ahmad.fauzi</v>
+          </cell>
+          <cell r="D561" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Fauzi', null);</v>
+          </cell>
+          <cell r="F561">
+            <v>25000000000560</v>
+          </cell>
+          <cell r="H561" t="str">
+            <v>Ahmad Fauzi</v>
+          </cell>
+        </row>
+        <row r="562">
+          <cell r="C562" t="str">
+            <v>ahmad.gunawan</v>
+          </cell>
+          <cell r="D562" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Gunawan', null);</v>
+          </cell>
+          <cell r="F562">
+            <v>25000000000561</v>
+          </cell>
+          <cell r="H562" t="str">
+            <v>Ahmad Gunawan</v>
+          </cell>
+        </row>
+        <row r="563">
+          <cell r="C563" t="str">
+            <v>andri.andriyan</v>
+          </cell>
+          <cell r="D563" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andri Andriyan', null);</v>
+          </cell>
+          <cell r="F563">
+            <v>25000000000562</v>
+          </cell>
+          <cell r="H563" t="str">
+            <v>Andri Andriyan</v>
+          </cell>
+        </row>
+        <row r="564">
+          <cell r="C564" t="str">
+            <v>budi.sulistianto</v>
+          </cell>
+          <cell r="D564" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budi Sulistianto', null);</v>
+          </cell>
+          <cell r="F564">
+            <v>25000000000563</v>
+          </cell>
+          <cell r="H564" t="str">
+            <v>Budi Sulistianto</v>
+          </cell>
+        </row>
+        <row r="565">
+          <cell r="C565" t="str">
+            <v>eka.budi</v>
+          </cell>
+          <cell r="D565" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Budi', null);</v>
+          </cell>
+          <cell r="F565">
+            <v>25000000000564</v>
+          </cell>
+          <cell r="H565" t="str">
+            <v>Eka Budi</v>
+          </cell>
+        </row>
+        <row r="566">
+          <cell r="C566" t="str">
+            <v>eka.kurniawan</v>
+          </cell>
+          <cell r="D566" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Kurniawan', null);</v>
+          </cell>
+          <cell r="F566">
+            <v>25000000000565</v>
+          </cell>
+          <cell r="H566" t="str">
+            <v>Eka Kurniawan</v>
+          </cell>
+        </row>
+        <row r="567">
+          <cell r="C567" t="str">
+            <v>haerul.gunawan</v>
+          </cell>
+          <cell r="D567" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Haerul Gunawan', null);</v>
+          </cell>
+          <cell r="F567">
+            <v>25000000000566</v>
+          </cell>
+          <cell r="H567" t="str">
+            <v>Haerul Gunawan</v>
+          </cell>
+        </row>
+        <row r="568">
+          <cell r="C568" t="str">
+            <v>irvan.agus</v>
+          </cell>
+          <cell r="D568" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan Agus', null);</v>
+          </cell>
+          <cell r="F568">
+            <v>25000000000567</v>
+          </cell>
+          <cell r="H568" t="str">
+            <v>Irvan Agus</v>
+          </cell>
+        </row>
+        <row r="569">
+          <cell r="C569" t="str">
+            <v>joshika.pradirga</v>
+          </cell>
+          <cell r="D569" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Joshika Pradirga', null);</v>
+          </cell>
+          <cell r="F569">
+            <v>25000000000568</v>
+          </cell>
+          <cell r="H569" t="str">
+            <v>Joshika Pradirga</v>
+          </cell>
+        </row>
+        <row r="570">
+          <cell r="C570" t="str">
+            <v>khaidir</v>
+          </cell>
+          <cell r="D570" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khaidir', null);</v>
+          </cell>
+          <cell r="F570">
+            <v>25000000000569</v>
+          </cell>
+          <cell r="H570" t="str">
+            <v>Khaidir</v>
+          </cell>
+        </row>
+        <row r="571">
+          <cell r="C571" t="str">
+            <v>latip.muhlanto</v>
+          </cell>
+          <cell r="D571" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Latip Muhlanto', null);</v>
+          </cell>
+          <cell r="F571">
+            <v>25000000000570</v>
+          </cell>
+          <cell r="H571" t="str">
+            <v>Latip Muhlanto</v>
+          </cell>
+        </row>
+        <row r="572">
+          <cell r="C572" t="str">
+            <v>leonardo.putra</v>
+          </cell>
+          <cell r="D572" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Leonardo Putra', null);</v>
+          </cell>
+          <cell r="F572">
+            <v>25000000000571</v>
+          </cell>
+          <cell r="H572" t="str">
+            <v>Leonardo Putra</v>
+          </cell>
+        </row>
+        <row r="573">
+          <cell r="C573" t="str">
+            <v>muhammad.ramadani</v>
+          </cell>
+          <cell r="D573" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Ramadani', null);</v>
+          </cell>
+          <cell r="F573">
+            <v>25000000000572</v>
+          </cell>
+          <cell r="H573" t="str">
+            <v>Muhammad Ramadani</v>
+          </cell>
+        </row>
+        <row r="574">
+          <cell r="C574" t="str">
+            <v>musdalipa</v>
+          </cell>
+          <cell r="D574" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Musdalipa', null);</v>
+          </cell>
+          <cell r="F574">
+            <v>25000000000573</v>
+          </cell>
+          <cell r="H574" t="str">
+            <v>Musdalipa</v>
+          </cell>
+        </row>
+        <row r="575">
+          <cell r="C575" t="str">
+            <v>nico.melky</v>
+          </cell>
+          <cell r="D575" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nico Melky', null);</v>
+          </cell>
+          <cell r="F575">
+            <v>25000000000574</v>
+          </cell>
+          <cell r="H575" t="str">
+            <v>Nico Melky</v>
+          </cell>
+        </row>
+        <row r="576">
+          <cell r="C576" t="str">
+            <v>rahmata.novanisa</v>
+          </cell>
+          <cell r="D576" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rahmata Novanisa', null);</v>
+          </cell>
+          <cell r="F576">
+            <v>25000000000575</v>
+          </cell>
+          <cell r="H576" t="str">
+            <v>Rahmata Novanisa</v>
+          </cell>
+        </row>
+        <row r="577">
+          <cell r="C577" t="str">
+            <v>satrio.dhiaputra</v>
+          </cell>
+          <cell r="D577" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Satrio Dhiaputra', null);</v>
+          </cell>
+          <cell r="F577">
+            <v>25000000000576</v>
+          </cell>
+          <cell r="H577" t="str">
+            <v>Satrio Dhiaputra</v>
+          </cell>
+        </row>
+        <row r="578">
+          <cell r="C578" t="str">
+            <v>sudirman</v>
+          </cell>
+          <cell r="D578" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sudirman', null);</v>
+          </cell>
+          <cell r="F578">
+            <v>25000000000577</v>
+          </cell>
+          <cell r="H578" t="str">
+            <v>Sudirman</v>
+          </cell>
+        </row>
+        <row r="579">
+          <cell r="C579" t="str">
+            <v>suparji</v>
+          </cell>
+          <cell r="D579" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suparji', null);</v>
+          </cell>
+          <cell r="F579">
+            <v>25000000000578</v>
+          </cell>
+          <cell r="H579" t="str">
+            <v>Suparji</v>
+          </cell>
+        </row>
+        <row r="580">
+          <cell r="C580" t="str">
+            <v>taufik.iskandar</v>
+          </cell>
+          <cell r="D580" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Taufik Iskandar', null);</v>
+          </cell>
+          <cell r="F580">
+            <v>25000000000579</v>
+          </cell>
+          <cell r="H580" t="str">
+            <v>Taufik Iskandar</v>
+          </cell>
+        </row>
+        <row r="581">
+          <cell r="C581" t="str">
+            <v>tegar.hersaputra</v>
+          </cell>
+          <cell r="D581" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tegar Hersaputra', null);</v>
+          </cell>
+          <cell r="F581">
+            <v>25000000000580</v>
+          </cell>
+          <cell r="H581" t="str">
+            <v>Tegar Hersaputra</v>
+          </cell>
+        </row>
+        <row r="582">
+          <cell r="C582" t="str">
+            <v>togar.sihombing</v>
+          </cell>
+          <cell r="D582" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Togar Sihombing', null);</v>
+          </cell>
+          <cell r="F582">
+            <v>25000000000581</v>
+          </cell>
+          <cell r="H582" t="str">
+            <v>Togar Sihombing</v>
+          </cell>
+        </row>
+        <row r="583">
+          <cell r="C583" t="str">
+            <v>wisnu.trenggono</v>
+          </cell>
+          <cell r="D583" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Trenggono', null);</v>
+          </cell>
+          <cell r="F583">
+            <v>25000000000582</v>
+          </cell>
+          <cell r="H583" t="str">
+            <v>Wisnu Trenggono</v>
+          </cell>
+        </row>
+        <row r="584">
+          <cell r="C584" t="str">
+            <v>yogo</v>
+          </cell>
+          <cell r="D584" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yogo', null);</v>
+          </cell>
+          <cell r="F584">
+            <v>25000000000583</v>
+          </cell>
+          <cell r="H584" t="str">
+            <v>Yogo</v>
+          </cell>
+        </row>
+        <row r="585">
+          <cell r="C585" t="str">
+            <v>yustiana.firda</v>
+          </cell>
+          <cell r="D585" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yustiana Firda', null);</v>
+          </cell>
+          <cell r="F585">
+            <v>25000000000584</v>
+          </cell>
+          <cell r="H585" t="str">
+            <v>Yustiana Firda</v>
+          </cell>
+        </row>
+        <row r="586">
+          <cell r="C586" t="str">
+            <v>zainal.abidin</v>
+          </cell>
+          <cell r="D586" t="str">
+            <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zainal Abidin', null);</v>
+          </cell>
+          <cell r="F586">
+            <v>25000000000585</v>
+          </cell>
+          <cell r="H586" t="str">
+            <v>Zainal Abidin</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -17500,8 +17920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B560" workbookViewId="0">
-      <selection activeCell="K570" sqref="K570"/>
+    <sheetView tabSelected="1" topLeftCell="B565" workbookViewId="0">
+      <selection activeCell="B576" sqref="B576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17533,7 +17953,7 @@
         <f>[1]MAIN!C2</f>
         <v>Astamyugo</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="4">
         <f>[1]MAIN!E2</f>
         <v>47000000000001</v>
       </c>
@@ -17563,7 +17983,7 @@
         <f>[1]MAIN!C3</f>
         <v>Hasrul</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="4">
         <f>[1]MAIN!E3</f>
         <v>47000000000002</v>
       </c>
@@ -17593,7 +18013,7 @@
         <f>[1]MAIN!C4</f>
         <v>Triani Irma</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="4">
         <f>[1]MAIN!E4</f>
         <v>47000000000003</v>
       </c>
@@ -17623,7 +18043,7 @@
         <f>[1]MAIN!C5</f>
         <v>Tjhang Linawati</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="4">
         <f>[1]MAIN!E5</f>
         <v>47000000000004</v>
       </c>
@@ -17653,7 +18073,7 @@
         <f>[1]MAIN!C6</f>
         <v>Dadi Anda Zuchradi</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="4">
         <f>[1]MAIN!E6</f>
         <v>47000000000005</v>
       </c>
@@ -17683,7 +18103,7 @@
         <f>[1]MAIN!C7</f>
         <v>Irvan</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="4">
         <f>[1]MAIN!E7</f>
         <v>47000000000006</v>
       </c>
@@ -17713,7 +18133,7 @@
         <f>[1]MAIN!C8</f>
         <v>Christianto</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="4">
         <f>[1]MAIN!E8</f>
         <v>47000000000007</v>
       </c>
@@ -17743,7 +18163,7 @@
         <f>[1]MAIN!C9</f>
         <v>Setiadi</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="4">
         <f>[1]MAIN!E9</f>
         <v>47000000000008</v>
       </c>
@@ -17773,7 +18193,7 @@
         <f>[1]MAIN!C10</f>
         <v>Zafrizal Rifla (Ucok)</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="4">
         <f>[1]MAIN!E10</f>
         <v>47000000000009</v>
       </c>
@@ -17803,7 +18223,7 @@
         <f>[1]MAIN!C11</f>
         <v>Kornel Sakan</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="4">
         <f>[1]MAIN!E11</f>
         <v>47000000000010</v>
       </c>
@@ -17833,7 +18253,7 @@
         <f>[1]MAIN!C12</f>
         <v>Ernawati</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="4">
         <f>[1]MAIN!E12</f>
         <v>47000000000011</v>
       </c>
@@ -17863,7 +18283,7 @@
         <f>[1]MAIN!C13</f>
         <v>Hendri Kustian</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="4">
         <f>[1]MAIN!E13</f>
         <v>47000000000012</v>
       </c>
@@ -17893,7 +18313,7 @@
         <f>[1]MAIN!C14</f>
         <v>Iskandarsyah</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="4">
         <f>[1]MAIN!E14</f>
         <v>47000000000013</v>
       </c>
@@ -17923,7 +18343,7 @@
         <f>[1]MAIN!C15</f>
         <v>Mullan Tresna</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="4">
         <f>[1]MAIN!E15</f>
         <v>47000000000014</v>
       </c>
@@ -17953,7 +18373,7 @@
         <f>[1]MAIN!C16</f>
         <v>Yulianta</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="4">
         <f>[1]MAIN!E16</f>
         <v>47000000000015</v>
       </c>
@@ -17983,7 +18403,7 @@
         <f>[1]MAIN!C17</f>
         <v>Ferry P Simanjuntak</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="4">
         <f>[1]MAIN!E17</f>
         <v>47000000000016</v>
       </c>
@@ -18013,7 +18433,7 @@
         <f>[1]MAIN!C18</f>
         <v>Siti Mulyani</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="4">
         <f>[1]MAIN!E18</f>
         <v>47000000000017</v>
       </c>
@@ -18043,7 +18463,7 @@
         <f>[1]MAIN!C19</f>
         <v>Tenri Sumange</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="4">
         <f>[1]MAIN!E19</f>
         <v>47000000000018</v>
       </c>
@@ -18073,7 +18493,7 @@
         <f>[1]MAIN!C20</f>
         <v>Hardianto</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="4">
         <f>[1]MAIN!E20</f>
         <v>47000000000019</v>
       </c>
@@ -18103,7 +18523,7 @@
         <f>[1]MAIN!C21</f>
         <v>Fitriastuti Kurnia</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="4">
         <f>[1]MAIN!E21</f>
         <v>47000000000020</v>
       </c>
@@ -18133,7 +18553,7 @@
         <f>[1]MAIN!C22</f>
         <v>Iwan Wibawa</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="4">
         <f>[1]MAIN!E22</f>
         <v>47000000000021</v>
       </c>
@@ -18163,7 +18583,7 @@
         <f>[1]MAIN!C23</f>
         <v>Zaire Dite</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="4">
         <f>[1]MAIN!E23</f>
         <v>47000000000022</v>
       </c>
@@ -18193,7 +18613,7 @@
         <f>[1]MAIN!C24</f>
         <v>Handoko</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="4">
         <f>[1]MAIN!E24</f>
         <v>47000000000023</v>
       </c>
@@ -18223,7 +18643,7 @@
         <f>[1]MAIN!C25</f>
         <v>Abdullah Nabil</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="4">
         <f>[1]MAIN!E25</f>
         <v>47000000000024</v>
       </c>
@@ -18253,7 +18673,7 @@
         <f>[1]MAIN!C26</f>
         <v>Utami Dewi</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="4">
         <f>[1]MAIN!E26</f>
         <v>47000000000025</v>
       </c>
@@ -18283,7 +18703,7 @@
         <f>[1]MAIN!C27</f>
         <v>Dadan Suhendar</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="4">
         <f>[1]MAIN!E27</f>
         <v>47000000000026</v>
       </c>
@@ -18313,7 +18733,7 @@
         <f>[1]MAIN!C28</f>
         <v>Fikri</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="4">
         <f>[1]MAIN!E28</f>
         <v>47000000000027</v>
       </c>
@@ -18343,7 +18763,7 @@
         <f>[1]MAIN!C29</f>
         <v>Fardi Nauli R</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="4">
         <f>[1]MAIN!E29</f>
         <v>47000000000028</v>
       </c>
@@ -18373,7 +18793,7 @@
         <f>[1]MAIN!C30</f>
         <v>Dinnar Budiarti</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="4">
         <f>[1]MAIN!E30</f>
         <v>47000000000029</v>
       </c>
@@ -18403,7 +18823,7 @@
         <f>[1]MAIN!C31</f>
         <v>Sumirat</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="4">
         <f>[1]MAIN!E31</f>
         <v>47000000000030</v>
       </c>
@@ -18433,7 +18853,7 @@
         <f>[1]MAIN!C32</f>
         <v>Anika Setyowati</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="4">
         <f>[1]MAIN!E32</f>
         <v>47000000000031</v>
       </c>
@@ -18463,7 +18883,7 @@
         <f>[1]MAIN!C33</f>
         <v>Surtoyo Syukri</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="4">
         <f>[1]MAIN!E33</f>
         <v>47000000000032</v>
       </c>
@@ -18493,7 +18913,7 @@
         <f>[1]MAIN!C34</f>
         <v>Santi Dewi RW</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="4">
         <f>[1]MAIN!E34</f>
         <v>47000000000033</v>
       </c>
@@ -18523,7 +18943,7 @@
         <f>[1]MAIN!C35</f>
         <v>Alphaliyanri Lasria</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="4">
         <f>[1]MAIN!E35</f>
         <v>47000000000034</v>
       </c>
@@ -18553,7 +18973,7 @@
         <f>[1]MAIN!C36</f>
         <v>Jaya Ganef</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="4">
         <f>[1]MAIN!E36</f>
         <v>47000000000035</v>
       </c>
@@ -18583,7 +19003,7 @@
         <f>[1]MAIN!C37</f>
         <v>Noercholis Firmansyah</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="4">
         <f>[1]MAIN!E37</f>
         <v>47000000000036</v>
       </c>
@@ -18613,7 +19033,7 @@
         <f>[1]MAIN!C38</f>
         <v>Herni Yuliati</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="4">
         <f>[1]MAIN!E38</f>
         <v>47000000000037</v>
       </c>
@@ -18643,7 +19063,7 @@
         <f>[1]MAIN!C39</f>
         <v>Triwiarti Dibya</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="4">
         <f>[1]MAIN!E39</f>
         <v>47000000000038</v>
       </c>
@@ -18673,7 +19093,7 @@
         <f>[1]MAIN!C40</f>
         <v>Redi Subekti</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="4">
         <f>[1]MAIN!E40</f>
         <v>47000000000039</v>
       </c>
@@ -18703,7 +19123,7 @@
         <f>[1]MAIN!C41</f>
         <v>Eka Hamidah</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="4">
         <f>[1]MAIN!E41</f>
         <v>47000000000040</v>
       </c>
@@ -18733,7 +19153,7 @@
         <f>[1]MAIN!C42</f>
         <v>Anwar Purnomo</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="4">
         <f>[1]MAIN!E42</f>
         <v>47000000000041</v>
       </c>
@@ -18763,7 +19183,7 @@
         <f>[1]MAIN!C43</f>
         <v>Ahmad Zulkarnaen</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="4">
         <f>[1]MAIN!E43</f>
         <v>47000000000042</v>
       </c>
@@ -18793,7 +19213,7 @@
         <f>[1]MAIN!C44</f>
         <v>Reni Septiana</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="4">
         <f>[1]MAIN!E44</f>
         <v>47000000000043</v>
       </c>
@@ -18823,7 +19243,7 @@
         <f>[1]MAIN!C45</f>
         <v>Ibrahim Soukani</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="4">
         <f>[1]MAIN!E45</f>
         <v>47000000000044</v>
       </c>
@@ -18853,7 +19273,7 @@
         <f>[1]MAIN!C46</f>
         <v>Iva Nurvahayati</v>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="4">
         <f>[1]MAIN!E46</f>
         <v>47000000000045</v>
       </c>
@@ -18883,7 +19303,7 @@
         <f>[1]MAIN!C47</f>
         <v>Yulianti</v>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="4">
         <f>[1]MAIN!E47</f>
         <v>47000000000046</v>
       </c>
@@ -18913,7 +19333,7 @@
         <f>[1]MAIN!C48</f>
         <v>Adi Ruswandi</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="4">
         <f>[1]MAIN!E48</f>
         <v>47000000000047</v>
       </c>
@@ -18943,7 +19363,7 @@
         <f>[1]MAIN!C49</f>
         <v>Rinaldi Asrin</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="4">
         <f>[1]MAIN!E49</f>
         <v>47000000000048</v>
       </c>
@@ -18973,7 +19393,7 @@
         <f>[1]MAIN!C50</f>
         <v>Budi Satrio</v>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="4">
         <f>[1]MAIN!E50</f>
         <v>47000000000049</v>
       </c>
@@ -19003,7 +19423,7 @@
         <f>[1]MAIN!C51</f>
         <v>Heri Susanto</v>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="4">
         <f>[1]MAIN!E51</f>
         <v>47000000000050</v>
       </c>
@@ -19033,7 +19453,7 @@
         <f>[1]MAIN!C52</f>
         <v>Eko Laksono</v>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="4">
         <f>[1]MAIN!E52</f>
         <v>47000000000051</v>
       </c>
@@ -19063,7 +19483,7 @@
         <f>[1]MAIN!C53</f>
         <v>Gunawan</v>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="4">
         <f>[1]MAIN!E53</f>
         <v>47000000000052</v>
       </c>
@@ -19093,7 +19513,7 @@
         <f>[1]MAIN!C54</f>
         <v>Wisudanto C. Suntoyo</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="4">
         <f>[1]MAIN!E54</f>
         <v>47000000000053</v>
       </c>
@@ -19123,7 +19543,7 @@
         <f>[1]MAIN!C55</f>
         <v>Bherly Novrandy</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="4">
         <f>[1]MAIN!E55</f>
         <v>47000000000054</v>
       </c>
@@ -19153,7 +19573,7 @@
         <f>[1]MAIN!C56</f>
         <v>Tri M. Saputra</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="4">
         <f>[1]MAIN!E56</f>
         <v>47000000000055</v>
       </c>
@@ -19183,7 +19603,7 @@
         <f>[1]MAIN!C57</f>
         <v>Jonhar Aziz</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="4">
         <f>[1]MAIN!E57</f>
         <v>47000000000056</v>
       </c>
@@ -19213,7 +19633,7 @@
         <f>[1]MAIN!C58</f>
         <v>Marungkil Sagala</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="4">
         <f>[1]MAIN!E58</f>
         <v>47000000000057</v>
       </c>
@@ -19243,7 +19663,7 @@
         <f>[1]MAIN!C59</f>
         <v>T Assubki</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="4">
         <f>[1]MAIN!E59</f>
         <v>47000000000058</v>
       </c>
@@ -19273,7 +19693,7 @@
         <f>[1]MAIN!C60</f>
         <v>Dionesius S. Duka</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="4">
         <f>[1]MAIN!E60</f>
         <v>47000000000059</v>
       </c>
@@ -19303,7 +19723,7 @@
         <f>[1]MAIN!C61</f>
         <v>Endang Sutrisna</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="4">
         <f>[1]MAIN!E61</f>
         <v>47000000000060</v>
       </c>
@@ -19333,7 +19753,7 @@
         <f>[1]MAIN!C62</f>
         <v>Ganda Yuharis R</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="4">
         <f>[1]MAIN!E62</f>
         <v>47000000000061</v>
       </c>
@@ -19363,7 +19783,7 @@
         <f>[1]MAIN!C63</f>
         <v>Hanif Ashari</v>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="4">
         <f>[1]MAIN!E63</f>
         <v>47000000000062</v>
       </c>
@@ -19393,7 +19813,7 @@
         <f>[1]MAIN!C64</f>
         <v>Kholik</v>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="4">
         <f>[1]MAIN!E64</f>
         <v>47000000000063</v>
       </c>
@@ -19423,7 +19843,7 @@
         <f>[1]MAIN!C65</f>
         <v>Nandang</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="4">
         <f>[1]MAIN!E65</f>
         <v>47000000000064</v>
       </c>
@@ -19453,7 +19873,7 @@
         <f>[1]MAIN!C66</f>
         <v>Risdyanto Risdyanto</v>
       </c>
-      <c r="D66" s="4" t="str">
+      <c r="D66" s="4">
         <f>[1]MAIN!E66</f>
         <v>47000000000065</v>
       </c>
@@ -19483,7 +19903,7 @@
         <f>[1]MAIN!C67</f>
         <v>Sofyan Maulana</v>
       </c>
-      <c r="D67" s="4" t="str">
+      <c r="D67" s="4">
         <f>[1]MAIN!E67</f>
         <v>47000000000066</v>
       </c>
@@ -19513,7 +19933,7 @@
         <f>[1]MAIN!C68</f>
         <v>Yanuar Tri Ananda</v>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="4">
         <f>[1]MAIN!E68</f>
         <v>47000000000067</v>
       </c>
@@ -19543,7 +19963,7 @@
         <f>[1]MAIN!C69</f>
         <v>Nugroho Putranto</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="4">
         <f>[1]MAIN!E69</f>
         <v>47000000000068</v>
       </c>
@@ -19573,7 +19993,7 @@
         <f>[1]MAIN!C70</f>
         <v>Alexandri</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="4">
         <f>[1]MAIN!E70</f>
         <v>47000000000069</v>
       </c>
@@ -19603,7 +20023,7 @@
         <f>[1]MAIN!C71</f>
         <v>Syafrudin Machmud</v>
       </c>
-      <c r="D71" s="4" t="str">
+      <c r="D71" s="4">
         <f>[1]MAIN!E71</f>
         <v>47000000000070</v>
       </c>
@@ -19633,7 +20053,7 @@
         <f>[1]MAIN!C72</f>
         <v>Bondhan Sosiarta</v>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="D72" s="4">
         <f>[1]MAIN!E72</f>
         <v>47000000000071</v>
       </c>
@@ -19663,7 +20083,7 @@
         <f>[1]MAIN!C73</f>
         <v>Samsul Hadi</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="4">
         <f>[1]MAIN!E73</f>
         <v>47000000000072</v>
       </c>
@@ -19693,7 +20113,7 @@
         <f>[1]MAIN!C74</f>
         <v>Marbun Pantas Banjarmahon</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="4">
         <f>[1]MAIN!E74</f>
         <v>47000000000073</v>
       </c>
@@ -19723,7 +20143,7 @@
         <f>[1]MAIN!C75</f>
         <v>Galuh Swastika</v>
       </c>
-      <c r="D75" s="4" t="str">
+      <c r="D75" s="4">
         <f>[1]MAIN!E75</f>
         <v>47000000000074</v>
       </c>
@@ -19753,7 +20173,7 @@
         <f>[1]MAIN!C76</f>
         <v>Eko Syambudi</v>
       </c>
-      <c r="D76" s="4" t="str">
+      <c r="D76" s="4">
         <f>[1]MAIN!E76</f>
         <v>47000000000075</v>
       </c>
@@ -19783,7 +20203,7 @@
         <f>[1]MAIN!C77</f>
         <v>Imelda Claudia</v>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="4">
         <f>[1]MAIN!E77</f>
         <v>47000000000076</v>
       </c>
@@ -19813,7 +20233,7 @@
         <f>[1]MAIN!C78</f>
         <v>Maharani Tanjungsari</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="4">
         <f>[1]MAIN!E78</f>
         <v>47000000000077</v>
       </c>
@@ -19843,7 +20263,7 @@
         <f>[1]MAIN!C79</f>
         <v>Raoli Nainggolan</v>
       </c>
-      <c r="D79" s="4" t="str">
+      <c r="D79" s="4">
         <f>[1]MAIN!E79</f>
         <v>47000000000078</v>
       </c>
@@ -19873,7 +20293,7 @@
         <f>[1]MAIN!C80</f>
         <v>Esa Annahar</v>
       </c>
-      <c r="D80" s="4" t="str">
+      <c r="D80" s="4">
         <f>[1]MAIN!E80</f>
         <v>47000000000079</v>
       </c>
@@ -19903,7 +20323,7 @@
         <f>[1]MAIN!C81</f>
         <v>novalia</v>
       </c>
-      <c r="D81" s="4" t="str">
+      <c r="D81" s="4">
         <f>[1]MAIN!E81</f>
         <v>47000000000080</v>
       </c>
@@ -19933,7 +20353,7 @@
         <f>[1]MAIN!C82</f>
         <v>Efrina Dwililia</v>
       </c>
-      <c r="D82" s="4" t="str">
+      <c r="D82" s="4">
         <f>[1]MAIN!E82</f>
         <v>47000000000081</v>
       </c>
@@ -19963,7 +20383,7 @@
         <f>[1]MAIN!C83</f>
         <v>Diyah Martina</v>
       </c>
-      <c r="D83" s="4" t="str">
+      <c r="D83" s="4">
         <f>[1]MAIN!E83</f>
         <v>47000000000082</v>
       </c>
@@ -19993,7 +20413,7 @@
         <f>[1]MAIN!C84</f>
         <v>Ricky Samuel</v>
       </c>
-      <c r="D84" s="4" t="str">
+      <c r="D84" s="4">
         <f>[1]MAIN!E84</f>
         <v>47000000000083</v>
       </c>
@@ -20023,7 +20443,7 @@
         <f>[1]MAIN!C85</f>
         <v>Indra Muchtar</v>
       </c>
-      <c r="D85" s="4" t="str">
+      <c r="D85" s="4">
         <f>[1]MAIN!E85</f>
         <v>47000000000084</v>
       </c>
@@ -20053,7 +20473,7 @@
         <f>[1]MAIN!C86</f>
         <v>Turita Marantina</v>
       </c>
-      <c r="D86" s="4" t="str">
+      <c r="D86" s="4">
         <f>[1]MAIN!E86</f>
         <v>47000000000085</v>
       </c>
@@ -20083,7 +20503,7 @@
         <f>[1]MAIN!C87</f>
         <v>Parulian Napitupulu</v>
       </c>
-      <c r="D87" s="4" t="str">
+      <c r="D87" s="4">
         <f>[1]MAIN!E87</f>
         <v>47000000000086</v>
       </c>
@@ -20113,7 +20533,7 @@
         <f>[1]MAIN!C88</f>
         <v>Rudi Junaedi</v>
       </c>
-      <c r="D88" s="4" t="str">
+      <c r="D88" s="4">
         <f>[1]MAIN!E88</f>
         <v>47000000000087</v>
       </c>
@@ -20143,7 +20563,7 @@
         <f>[1]MAIN!C89</f>
         <v>Edi Turnip</v>
       </c>
-      <c r="D89" s="4" t="str">
+      <c r="D89" s="4">
         <f>[1]MAIN!E89</f>
         <v>47000000000088</v>
       </c>
@@ -20173,7 +20593,7 @@
         <f>[1]MAIN!C90</f>
         <v>Istanto Istanto</v>
       </c>
-      <c r="D90" s="4" t="str">
+      <c r="D90" s="4">
         <f>[1]MAIN!E90</f>
         <v>47000000000089</v>
       </c>
@@ -20203,7 +20623,7 @@
         <f>[1]MAIN!C91</f>
         <v>Al Amin</v>
       </c>
-      <c r="D91" s="4" t="str">
+      <c r="D91" s="4">
         <f>[1]MAIN!E91</f>
         <v>47000000000090</v>
       </c>
@@ -20233,7 +20653,7 @@
         <f>[1]MAIN!C92</f>
         <v>Johannes Silalahi</v>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="D92" s="4">
         <f>[1]MAIN!E92</f>
         <v>47000000000091</v>
       </c>
@@ -20263,7 +20683,7 @@
         <f>[1]MAIN!C93</f>
         <v>Anak Agung Netti Ariani</v>
       </c>
-      <c r="D93" s="4" t="str">
+      <c r="D93" s="4">
         <f>[1]MAIN!E93</f>
         <v>47000000000092</v>
       </c>
@@ -20293,7 +20713,7 @@
         <f>[1]MAIN!C94</f>
         <v>Hanantowiryo Tamtama</v>
       </c>
-      <c r="D94" s="4" t="str">
+      <c r="D94" s="4">
         <f>[1]MAIN!E94</f>
         <v>47000000000093</v>
       </c>
@@ -20323,7 +20743,7 @@
         <f>[1]MAIN!C95</f>
         <v>Sarah Sibarani</v>
       </c>
-      <c r="D95" s="4" t="str">
+      <c r="D95" s="4">
         <f>[1]MAIN!E95</f>
         <v>47000000000094</v>
       </c>
@@ -20353,7 +20773,7 @@
         <f>[1]MAIN!C96</f>
         <v>Dodit Widiarto</v>
       </c>
-      <c r="D96" s="4" t="str">
+      <c r="D96" s="4">
         <f>[1]MAIN!E96</f>
         <v>47000000000095</v>
       </c>
@@ -20383,7 +20803,7 @@
         <f>[1]MAIN!C97</f>
         <v>Rika Ginting</v>
       </c>
-      <c r="D97" s="4" t="str">
+      <c r="D97" s="4">
         <f>[1]MAIN!E97</f>
         <v>47000000000096</v>
       </c>
@@ -20413,7 +20833,7 @@
         <f>[1]MAIN!C98</f>
         <v>Emir Paranita Nasution</v>
       </c>
-      <c r="D98" s="4" t="str">
+      <c r="D98" s="4">
         <f>[1]MAIN!E98</f>
         <v>47000000000097</v>
       </c>
@@ -20443,7 +20863,7 @@
         <f>[1]MAIN!C99</f>
         <v>Yefri Hendrayani</v>
       </c>
-      <c r="D99" s="4" t="str">
+      <c r="D99" s="4">
         <f>[1]MAIN!E99</f>
         <v>47000000000098</v>
       </c>
@@ -20473,7 +20893,7 @@
         <f>[1]MAIN!C100</f>
         <v>subagio</v>
       </c>
-      <c r="D100" s="4" t="str">
+      <c r="D100" s="4">
         <f>[1]MAIN!E100</f>
         <v>47000000000099</v>
       </c>
@@ -20503,7 +20923,7 @@
         <f>[1]MAIN!C101</f>
         <v>Gustia Rakhmanita</v>
       </c>
-      <c r="D101" s="4" t="str">
+      <c r="D101" s="4">
         <f>[1]MAIN!E101</f>
         <v>47000000000100</v>
       </c>
@@ -20533,7 +20953,7 @@
         <f>[1]MAIN!C102</f>
         <v>Agnes Sutedja</v>
       </c>
-      <c r="D102" s="4" t="str">
+      <c r="D102" s="4">
         <f>[1]MAIN!E102</f>
         <v>47000000000101</v>
       </c>
@@ -20563,7 +20983,7 @@
         <f>[1]MAIN!C103</f>
         <v>Farhana</v>
       </c>
-      <c r="D103" s="4" t="str">
+      <c r="D103" s="4">
         <f>[1]MAIN!E103</f>
         <v>47000000000102</v>
       </c>
@@ -20593,7 +21013,7 @@
         <f>[1]MAIN!C104</f>
         <v>Arfianti Haryani</v>
       </c>
-      <c r="D104" s="4" t="str">
+      <c r="D104" s="4">
         <f>[1]MAIN!E104</f>
         <v>47000000000103</v>
       </c>
@@ -20623,7 +21043,7 @@
         <f>[1]MAIN!C105</f>
         <v>Herdi Yulia Rohmana</v>
       </c>
-      <c r="D105" s="4" t="str">
+      <c r="D105" s="4">
         <f>[1]MAIN!E105</f>
         <v>47000000000104</v>
       </c>
@@ -20653,7 +21073,7 @@
         <f>[1]MAIN!C106</f>
         <v>Desi Setiowati</v>
       </c>
-      <c r="D106" s="4" t="str">
+      <c r="D106" s="4">
         <f>[1]MAIN!E106</f>
         <v>47000000000105</v>
       </c>
@@ -20683,7 +21103,7 @@
         <f>[1]MAIN!C107</f>
         <v>Imam Basuki</v>
       </c>
-      <c r="D107" s="4" t="str">
+      <c r="D107" s="4">
         <f>[1]MAIN!E107</f>
         <v>47000000000106</v>
       </c>
@@ -20713,7 +21133,7 @@
         <f>[1]MAIN!C108</f>
         <v>otong Bustori</v>
       </c>
-      <c r="D108" s="4" t="str">
+      <c r="D108" s="4">
         <f>[1]MAIN!E108</f>
         <v>47000000000107</v>
       </c>
@@ -20743,7 +21163,7 @@
         <f>[1]MAIN!C109</f>
         <v>Retnasha Gameswari</v>
       </c>
-      <c r="D109" s="4" t="str">
+      <c r="D109" s="4">
         <f>[1]MAIN!E109</f>
         <v>47000000000108</v>
       </c>
@@ -20773,7 +21193,7 @@
         <f>[1]MAIN!C110</f>
         <v>Juminar</v>
       </c>
-      <c r="D110" s="4" t="str">
+      <c r="D110" s="4">
         <f>[1]MAIN!E110</f>
         <v>47000000000109</v>
       </c>
@@ -20803,7 +21223,7 @@
         <f>[1]MAIN!C111</f>
         <v>Trisyanto</v>
       </c>
-      <c r="D111" s="4" t="str">
+      <c r="D111" s="4">
         <f>[1]MAIN!E111</f>
         <v>47000000000110</v>
       </c>
@@ -20833,7 +21253,7 @@
         <f>[1]MAIN!C112</f>
         <v>Liaseptriani Liaseptriani</v>
       </c>
-      <c r="D112" s="4" t="str">
+      <c r="D112" s="4">
         <f>[1]MAIN!E112</f>
         <v>47000000000111</v>
       </c>
@@ -20863,7 +21283,7 @@
         <f>[1]MAIN!C113</f>
         <v>gatot harsono</v>
       </c>
-      <c r="D113" s="4" t="str">
+      <c r="D113" s="4">
         <f>[1]MAIN!E113</f>
         <v>47000000000112</v>
       </c>
@@ -20893,7 +21313,7 @@
         <f>[1]MAIN!C114</f>
         <v>Feri Priyanto</v>
       </c>
-      <c r="D114" s="4" t="str">
+      <c r="D114" s="4">
         <f>[1]MAIN!E114</f>
         <v>47000000000113</v>
       </c>
@@ -20923,7 +21343,7 @@
         <f>[1]MAIN!C115</f>
         <v>Winda Suherman</v>
       </c>
-      <c r="D115" s="4" t="str">
+      <c r="D115" s="4">
         <f>[1]MAIN!E115</f>
         <v>47000000000114</v>
       </c>
@@ -20953,7 +21373,7 @@
         <f>[1]MAIN!C116</f>
         <v>Indawan Haryadi</v>
       </c>
-      <c r="D116" s="4" t="str">
+      <c r="D116" s="4">
         <f>[1]MAIN!E116</f>
         <v>47000000000115</v>
       </c>
@@ -20983,7 +21403,7 @@
         <f>[1]MAIN!C117</f>
         <v>Laode</v>
       </c>
-      <c r="D117" s="4" t="str">
+      <c r="D117" s="4">
         <f>[1]MAIN!E117</f>
         <v>47000000000116</v>
       </c>
@@ -21013,7 +21433,7 @@
         <f>[1]MAIN!C118</f>
         <v>Iwan Setiawan</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D118" s="4">
         <f>[1]MAIN!E118</f>
         <v>47000000000117</v>
       </c>
@@ -21043,7 +21463,7 @@
         <f>[1]MAIN!C119</f>
         <v>Warsito Edy Saputra</v>
       </c>
-      <c r="D119" s="4" t="str">
+      <c r="D119" s="4">
         <f>[1]MAIN!E119</f>
         <v>47000000000118</v>
       </c>
@@ -21073,7 +21493,7 @@
         <f>[1]MAIN!C120</f>
         <v>Moh. Afif</v>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D120" s="4">
         <f>[1]MAIN!E120</f>
         <v>47000000000119</v>
       </c>
@@ -21103,7 +21523,7 @@
         <f>[1]MAIN!C121</f>
         <v>Sutarno</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="4">
         <f>[1]MAIN!E121</f>
         <v>47000000000120</v>
       </c>
@@ -21133,7 +21553,7 @@
         <f>[1]MAIN!C122</f>
         <v>Andri Herdiansyah</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="4">
         <f>[1]MAIN!E122</f>
         <v>47000000000121</v>
       </c>
@@ -21163,7 +21583,7 @@
         <f>[1]MAIN!C123</f>
         <v>Dony Darmawan</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="4">
         <f>[1]MAIN!E123</f>
         <v>47000000000122</v>
       </c>
@@ -21193,7 +21613,7 @@
         <f>[1]MAIN!C124</f>
         <v>Ahmad Syaifullah</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="4">
         <f>[1]MAIN!E124</f>
         <v>47000000000123</v>
       </c>
@@ -21223,7 +21643,7 @@
         <f>[1]MAIN!C125</f>
         <v>Erwin Said</v>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="4">
         <f>[1]MAIN!E125</f>
         <v>47000000000124</v>
       </c>
@@ -21253,7 +21673,7 @@
         <f>[1]MAIN!C126</f>
         <v>Harry Isnaeni</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D126" s="4">
         <f>[1]MAIN!E126</f>
         <v>47000000000125</v>
       </c>
@@ -21283,7 +21703,7 @@
         <f>[1]MAIN!C127</f>
         <v>Kahar Triyono</v>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D127" s="4">
         <f>[1]MAIN!E127</f>
         <v>47000000000126</v>
       </c>
@@ -21313,7 +21733,7 @@
         <f>[1]MAIN!C128</f>
         <v>Jondril Hantoni</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D128" s="4">
         <f>[1]MAIN!E128</f>
         <v>47000000000127</v>
       </c>
@@ -21343,7 +21763,7 @@
         <f>[1]MAIN!C129</f>
         <v>Zainuddin Zainuddin</v>
       </c>
-      <c r="D129" s="4" t="str">
+      <c r="D129" s="4">
         <f>[1]MAIN!E129</f>
         <v>47000000000128</v>
       </c>
@@ -21373,7 +21793,7 @@
         <f>[1]MAIN!C130</f>
         <v>Sudarlan Sudarlan</v>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D130" s="4">
         <f>[1]MAIN!E130</f>
         <v>47000000000129</v>
       </c>
@@ -21403,7 +21823,7 @@
         <f>[1]MAIN!C131</f>
         <v>Jerry Djajasaputra</v>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D131" s="4">
         <f>[1]MAIN!E131</f>
         <v>47000000000130</v>
       </c>
@@ -21433,7 +21853,7 @@
         <f>[1]MAIN!C132</f>
         <v>Eddy Waluyo</v>
       </c>
-      <c r="D132" s="4" t="str">
+      <c r="D132" s="4">
         <f>[1]MAIN!E132</f>
         <v>47000000000131</v>
       </c>
@@ -21463,7 +21883,7 @@
         <f>[1]MAIN!C133</f>
         <v>Yusman</v>
       </c>
-      <c r="D133" s="4" t="str">
+      <c r="D133" s="4">
         <f>[1]MAIN!E133</f>
         <v>47000000000132</v>
       </c>
@@ -21493,7 +21913,7 @@
         <f>[1]MAIN!C134</f>
         <v>Marissa Watak</v>
       </c>
-      <c r="D134" s="4" t="str">
+      <c r="D134" s="4">
         <f>[1]MAIN!E134</f>
         <v>47000000000133</v>
       </c>
@@ -21523,7 +21943,7 @@
         <f>[1]MAIN!C135</f>
         <v>Sugiarto Sugiarto</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D135" s="4">
         <f>[1]MAIN!E135</f>
         <v>47000000000134</v>
       </c>
@@ -21553,7 +21973,7 @@
         <f>[1]MAIN!C136</f>
         <v>Tutus Ary</v>
       </c>
-      <c r="D136" s="4" t="str">
+      <c r="D136" s="4">
         <f>[1]MAIN!E136</f>
         <v>47000000000135</v>
       </c>
@@ -21583,7 +22003,7 @@
         <f>[1]MAIN!C137</f>
         <v>sumadi</v>
       </c>
-      <c r="D137" s="4" t="str">
+      <c r="D137" s="4">
         <f>[1]MAIN!E137</f>
         <v>47000000000136</v>
       </c>
@@ -21613,7 +22033,7 @@
         <f>[1]MAIN!C138</f>
         <v>Totok Kristianto</v>
       </c>
-      <c r="D138" s="4" t="str">
+      <c r="D138" s="4">
         <f>[1]MAIN!E138</f>
         <v>47000000000137</v>
       </c>
@@ -21643,7 +22063,7 @@
         <f>[1]MAIN!C139</f>
         <v>Yossie Deliana</v>
       </c>
-      <c r="D139" s="4" t="str">
+      <c r="D139" s="4">
         <f>[1]MAIN!E139</f>
         <v>47000000000138</v>
       </c>
@@ -21673,7 +22093,7 @@
         <f>[1]MAIN!C140</f>
         <v>Samad Abdul</v>
       </c>
-      <c r="D140" s="4" t="str">
+      <c r="D140" s="4">
         <f>[1]MAIN!E140</f>
         <v>47000000000139</v>
       </c>
@@ -21703,7 +22123,7 @@
         <f>[1]MAIN!C141</f>
         <v>Agus Priyatno Mahmudo</v>
       </c>
-      <c r="D141" s="4" t="str">
+      <c r="D141" s="4">
         <f>[1]MAIN!E141</f>
         <v>47000000000140</v>
       </c>
@@ -21733,7 +22153,7 @@
         <f>[1]MAIN!C142</f>
         <v>Agus Tanto</v>
       </c>
-      <c r="D142" s="4" t="str">
+      <c r="D142" s="4">
         <f>[1]MAIN!E142</f>
         <v>47000000000141</v>
       </c>
@@ -21763,7 +22183,7 @@
         <f>[1]MAIN!C143</f>
         <v>Andrie</v>
       </c>
-      <c r="D143" s="4" t="str">
+      <c r="D143" s="4">
         <f>[1]MAIN!E143</f>
         <v>47000000000142</v>
       </c>
@@ -21793,7 +22213,7 @@
         <f>[1]MAIN!C144</f>
         <v>Bambang Irawan</v>
       </c>
-      <c r="D144" s="4" t="str">
+      <c r="D144" s="4">
         <f>[1]MAIN!E144</f>
         <v>47000000000143</v>
       </c>
@@ -21823,7 +22243,7 @@
         <f>[1]MAIN!C145</f>
         <v>Cecep Maulana</v>
       </c>
-      <c r="D145" s="4" t="str">
+      <c r="D145" s="4">
         <f>[1]MAIN!E145</f>
         <v>47000000000144</v>
       </c>
@@ -21853,7 +22273,7 @@
         <f>[1]MAIN!C146</f>
         <v>Djuang Tampubolon</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D146" s="4">
         <f>[1]MAIN!E146</f>
         <v>47000000000145</v>
       </c>
@@ -21883,7 +22303,7 @@
         <f>[1]MAIN!C147</f>
         <v>0</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D147" s="4">
         <f>[1]MAIN!E147</f>
         <v>47000000000146</v>
       </c>
@@ -21902,7 +22322,7 @@
         <f>[1]MAIN!C148</f>
         <v>0</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D148" s="4">
         <f>[1]MAIN!E148</f>
         <v>47000000000147</v>
       </c>
@@ -21921,7 +22341,7 @@
         <f>[1]MAIN!C149</f>
         <v>Effendi fendi</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D149" s="4">
         <f>[1]MAIN!E149</f>
         <v>47000000000148</v>
       </c>
@@ -21951,7 +22371,7 @@
         <f>[1]MAIN!C150</f>
         <v>HR Marlina STR</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D150" s="4">
         <f>[1]MAIN!E150</f>
         <v>47000000000149</v>
       </c>
@@ -21981,7 +22401,7 @@
         <f>[1]MAIN!C151</f>
         <v>0</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D151" s="4">
         <f>[1]MAIN!E151</f>
         <v>47000000000150</v>
       </c>
@@ -22000,7 +22420,7 @@
         <f>[1]MAIN!C152</f>
         <v>Juharja Juharja</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D152" s="4">
         <f>[1]MAIN!E152</f>
         <v>47000000000151</v>
       </c>
@@ -22030,7 +22450,7 @@
         <f>[1]MAIN!C153</f>
         <v>Idham Idham</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D153" s="4">
         <f>[1]MAIN!E153</f>
         <v>47000000000152</v>
       </c>
@@ -22060,7 +22480,7 @@
         <f>[1]MAIN!C154</f>
         <v>Mashuri Mashuri</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D154" s="4">
         <f>[1]MAIN!E154</f>
         <v>47000000000153</v>
       </c>
@@ -22090,7 +22510,7 @@
         <f>[1]MAIN!C155</f>
         <v>Ardiansyah</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D155" s="4">
         <f>[1]MAIN!E155</f>
         <v>47000000000154</v>
       </c>
@@ -22120,7 +22540,7 @@
         <f>[1]MAIN!C156</f>
         <v>Novan Nugraha</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D156" s="4">
         <f>[1]MAIN!E156</f>
         <v>47000000000155</v>
       </c>
@@ -22150,7 +22570,7 @@
         <f>[1]MAIN!C157</f>
         <v>Rhino Priawan</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D157" s="4">
         <f>[1]MAIN!E157</f>
         <v>47000000000156</v>
       </c>
@@ -22180,7 +22600,7 @@
         <f>[1]MAIN!C158</f>
         <v>Suriono Suriono</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D158" s="4">
         <f>[1]MAIN!E158</f>
         <v>47000000000157</v>
       </c>
@@ -22210,7 +22630,7 @@
         <f>[1]MAIN!C159</f>
         <v>0</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D159" s="4">
         <f>[1]MAIN!E159</f>
         <v>47000000000158</v>
       </c>
@@ -22229,7 +22649,7 @@
         <f>[1]MAIN!C160</f>
         <v>Leo Nababan</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D160" s="4">
         <f>[1]MAIN!E160</f>
         <v>47000000000159</v>
       </c>
@@ -22259,7 +22679,7 @@
         <f>[1]MAIN!C161</f>
         <v>Idham Nasution</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D161" s="4">
         <f>[1]MAIN!E161</f>
         <v>47000000000160</v>
       </c>
@@ -22289,7 +22709,7 @@
         <f>[1]MAIN!C162</f>
         <v>Andri Gunawan</v>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D162" s="4">
         <f>[1]MAIN!E162</f>
         <v>47000000000161</v>
       </c>
@@ -22319,7 +22739,7 @@
         <f>[1]MAIN!C163</f>
         <v>Teuku Zulkifli</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D163" s="4">
         <f>[1]MAIN!E163</f>
         <v>47000000000162</v>
       </c>
@@ -22349,7 +22769,7 @@
         <f>[1]MAIN!C164</f>
         <v>Isa Taufiq</v>
       </c>
-      <c r="D164" s="4" t="str">
+      <c r="D164" s="4">
         <f>[1]MAIN!E164</f>
         <v>47000000000163</v>
       </c>
@@ -22379,7 +22799,7 @@
         <f>[1]MAIN!C165</f>
         <v>0</v>
       </c>
-      <c r="D165" s="4" t="str">
+      <c r="D165" s="4">
         <f>[1]MAIN!E165</f>
         <v>47000000000164</v>
       </c>
@@ -22398,7 +22818,7 @@
         <f>[1]MAIN!C166</f>
         <v>0</v>
       </c>
-      <c r="D166" s="4" t="str">
+      <c r="D166" s="4">
         <f>[1]MAIN!E166</f>
         <v>47000000000165</v>
       </c>
@@ -22417,7 +22837,7 @@
         <f>[1]MAIN!C167</f>
         <v>0</v>
       </c>
-      <c r="D167" s="4" t="str">
+      <c r="D167" s="4">
         <f>[1]MAIN!E167</f>
         <v>47000000000166</v>
       </c>
@@ -22436,7 +22856,7 @@
         <f>[1]MAIN!C168</f>
         <v>0</v>
       </c>
-      <c r="D168" s="4" t="str">
+      <c r="D168" s="4">
         <f>[1]MAIN!E168</f>
         <v>47000000000167</v>
       </c>
@@ -22455,7 +22875,7 @@
         <f>[1]MAIN!C169</f>
         <v>0</v>
       </c>
-      <c r="D169" s="4" t="str">
+      <c r="D169" s="4">
         <f>[1]MAIN!E169</f>
         <v>47000000000168</v>
       </c>
@@ -22474,7 +22894,7 @@
         <f>[1]MAIN!C170</f>
         <v>0</v>
       </c>
-      <c r="D170" s="4" t="str">
+      <c r="D170" s="4">
         <f>[1]MAIN!E170</f>
         <v>47000000000169</v>
       </c>
@@ -22493,7 +22913,7 @@
         <f>[1]MAIN!C171</f>
         <v>Benita Sofia</v>
       </c>
-      <c r="D171" s="4" t="str">
+      <c r="D171" s="4">
         <f>[1]MAIN!E171</f>
         <v>47000000000170</v>
       </c>
@@ -22523,7 +22943,7 @@
         <f>[1]MAIN!C172</f>
         <v>Zulfikar Siregar</v>
       </c>
-      <c r="D172" s="4" t="str">
+      <c r="D172" s="4">
         <f>[1]MAIN!E172</f>
         <v>47000000000171</v>
       </c>
@@ -22553,7 +22973,7 @@
         <f>[1]MAIN!C173</f>
         <v>Erwin Firmansyah</v>
       </c>
-      <c r="D173" s="4" t="str">
+      <c r="D173" s="4">
         <f>[1]MAIN!E173</f>
         <v>47000000000172</v>
       </c>
@@ -22583,7 +23003,7 @@
         <f>[1]MAIN!C174</f>
         <v>Dian Hariyana</v>
       </c>
-      <c r="D174" s="4" t="str">
+      <c r="D174" s="4">
         <f>[1]MAIN!E174</f>
         <v>47000000000173</v>
       </c>
@@ -22613,7 +23033,7 @@
         <f>[1]MAIN!C175</f>
         <v>Adhitya Danar</v>
       </c>
-      <c r="D175" s="4" t="str">
+      <c r="D175" s="4">
         <f>[1]MAIN!E175</f>
         <v>47000000000174</v>
       </c>
@@ -22643,7 +23063,7 @@
         <f>[1]MAIN!C176</f>
         <v>tri aji</v>
       </c>
-      <c r="D176" s="4" t="str">
+      <c r="D176" s="4">
         <f>[1]MAIN!E176</f>
         <v>47000000000175</v>
       </c>
@@ -22673,7 +23093,7 @@
         <f>[1]MAIN!C177</f>
         <v>marzuki</v>
       </c>
-      <c r="D177" s="4" t="str">
+      <c r="D177" s="4">
         <f>[1]MAIN!E177</f>
         <v>47000000000176</v>
       </c>
@@ -22703,7 +23123,7 @@
         <f>[1]MAIN!C178</f>
         <v>Yulius</v>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D178" s="4">
         <f>[1]MAIN!E178</f>
         <v>47000000000177</v>
       </c>
@@ -22733,7 +23153,7 @@
         <f>[1]MAIN!C179</f>
         <v>Supriyadi</v>
       </c>
-      <c r="D179" s="4" t="str">
+      <c r="D179" s="4">
         <f>[1]MAIN!E179</f>
         <v>47000000000178</v>
       </c>
@@ -22763,7 +23183,7 @@
         <f>[1]MAIN!C180</f>
         <v>Yakup Sunaryo</v>
       </c>
-      <c r="D180" s="4" t="str">
+      <c r="D180" s="4">
         <f>[1]MAIN!E180</f>
         <v>47000000000179</v>
       </c>
@@ -22793,7 +23213,7 @@
         <f>[1]MAIN!C181</f>
         <v>Hendar Pambudi</v>
       </c>
-      <c r="D181" s="4" t="str">
+      <c r="D181" s="4">
         <f>[1]MAIN!E181</f>
         <v>47000000000180</v>
       </c>
@@ -22823,7 +23243,7 @@
         <f>[1]MAIN!C182</f>
         <v>Simron Ronaldi Nasution</v>
       </c>
-      <c r="D182" s="4" t="str">
+      <c r="D182" s="4">
         <f>[1]MAIN!E182</f>
         <v>47000000000181</v>
       </c>
@@ -22853,7 +23273,7 @@
         <f>[1]MAIN!C183</f>
         <v>Nugraha</v>
       </c>
-      <c r="D183" s="4" t="str">
+      <c r="D183" s="4">
         <f>[1]MAIN!E183</f>
         <v>47000000000182</v>
       </c>
@@ -22883,7 +23303,7 @@
         <f>[1]MAIN!C184</f>
         <v>Dwinanto Prabowo</v>
       </c>
-      <c r="D184" s="4" t="str">
+      <c r="D184" s="4">
         <f>[1]MAIN!E184</f>
         <v>47000000000183</v>
       </c>
@@ -22913,7 +23333,7 @@
         <f>[1]MAIN!C185</f>
         <v>Nurhidayat</v>
       </c>
-      <c r="D185" s="4" t="str">
+      <c r="D185" s="4">
         <f>[1]MAIN!E185</f>
         <v>47000000000184</v>
       </c>
@@ -22943,7 +23363,7 @@
         <f>[1]MAIN!C186</f>
         <v>Tiara Kemalasari</v>
       </c>
-      <c r="D186" s="4" t="str">
+      <c r="D186" s="4">
         <f>[1]MAIN!E186</f>
         <v>47000000000185</v>
       </c>
@@ -22973,7 +23393,7 @@
         <f>[1]MAIN!C187</f>
         <v>Suci Mardiana</v>
       </c>
-      <c r="D187" s="4" t="str">
+      <c r="D187" s="4">
         <f>[1]MAIN!E187</f>
         <v>47000000000186</v>
       </c>
@@ -23003,7 +23423,7 @@
         <f>[1]MAIN!C188</f>
         <v>Vonny Agram</v>
       </c>
-      <c r="D188" s="4" t="str">
+      <c r="D188" s="4">
         <f>[1]MAIN!E188</f>
         <v>47000000000187</v>
       </c>
@@ -23033,7 +23453,7 @@
         <f>[1]MAIN!C189</f>
         <v>mulyono</v>
       </c>
-      <c r="D189" s="4" t="str">
+      <c r="D189" s="4">
         <f>[1]MAIN!E189</f>
         <v>47000000000188</v>
       </c>
@@ -23063,7 +23483,7 @@
         <f>[1]MAIN!C190</f>
         <v>Keila</v>
       </c>
-      <c r="D190" s="4" t="str">
+      <c r="D190" s="4">
         <f>[1]MAIN!E190</f>
         <v>47000000000189</v>
       </c>
@@ -23093,7 +23513,7 @@
         <f>[1]MAIN!C191</f>
         <v>Taslim</v>
       </c>
-      <c r="D191" s="4" t="str">
+      <c r="D191" s="4">
         <f>[1]MAIN!E191</f>
         <v>47000000000190</v>
       </c>
@@ -23123,7 +23543,7 @@
         <f>[1]MAIN!C192</f>
         <v>Rubah</v>
       </c>
-      <c r="D192" s="4" t="str">
+      <c r="D192" s="4">
         <f>[1]MAIN!E192</f>
         <v>47000000000191</v>
       </c>
@@ -23153,7 +23573,7 @@
         <f>[1]MAIN!C193</f>
         <v>Jaya Sitepu</v>
       </c>
-      <c r="D193" s="4" t="str">
+      <c r="D193" s="4">
         <f>[1]MAIN!E193</f>
         <v>47000000000192</v>
       </c>
@@ -23183,7 +23603,7 @@
         <f>[1]MAIN!C194</f>
         <v>Junaidi</v>
       </c>
-      <c r="D194" s="4" t="str">
+      <c r="D194" s="4">
         <f>[1]MAIN!E194</f>
         <v>47000000000193</v>
       </c>
@@ -23213,7 +23633,7 @@
         <f>[1]MAIN!C195</f>
         <v>Listyo Hartanto</v>
       </c>
-      <c r="D195" s="4" t="str">
+      <c r="D195" s="4">
         <f>[1]MAIN!E195</f>
         <v>47000000000194</v>
       </c>
@@ -23243,7 +23663,7 @@
         <f>[1]MAIN!C196</f>
         <v>Francis Imanuel</v>
       </c>
-      <c r="D196" s="4" t="str">
+      <c r="D196" s="4">
         <f>[1]MAIN!E196</f>
         <v>47000000000195</v>
       </c>
@@ -23273,7 +23693,7 @@
         <f>[1]MAIN!C197</f>
         <v>Nancy Meriana Sinaga</v>
       </c>
-      <c r="D197" s="4" t="str">
+      <c r="D197" s="4">
         <f>[1]MAIN!E197</f>
         <v>47000000000196</v>
       </c>
@@ -23303,7 +23723,7 @@
         <f>[1]MAIN!C198</f>
         <v>Rohmani</v>
       </c>
-      <c r="D198" s="4" t="str">
+      <c r="D198" s="4">
         <f>[1]MAIN!E198</f>
         <v>47000000000197</v>
       </c>
@@ -23333,7 +23753,7 @@
         <f>[1]MAIN!C199</f>
         <v>Herri Setyawan</v>
       </c>
-      <c r="D199" s="4" t="str">
+      <c r="D199" s="4">
         <f>[1]MAIN!E199</f>
         <v>47000000000198</v>
       </c>
@@ -23363,7 +23783,7 @@
         <f>[1]MAIN!C200</f>
         <v>Kurniadi</v>
       </c>
-      <c r="D200" s="4" t="str">
+      <c r="D200" s="4">
         <f>[1]MAIN!E200</f>
         <v>47000000000199</v>
       </c>
@@ -23393,7 +23813,7 @@
         <f>[1]MAIN!C201</f>
         <v>Arini</v>
       </c>
-      <c r="D201" s="4" t="str">
+      <c r="D201" s="4">
         <f>[1]MAIN!E201</f>
         <v>47000000000200</v>
       </c>
@@ -23423,7 +23843,7 @@
         <f>[1]MAIN!C202</f>
         <v>Pikri Hidayat</v>
       </c>
-      <c r="D202" s="4" t="str">
+      <c r="D202" s="4">
         <f>[1]MAIN!E202</f>
         <v>47000000000201</v>
       </c>
@@ -23453,7 +23873,7 @@
         <f>[1]MAIN!C203</f>
         <v>Anggina Tri Yudandi</v>
       </c>
-      <c r="D203" s="4" t="str">
+      <c r="D203" s="4">
         <f>[1]MAIN!E203</f>
         <v>47000000000202</v>
       </c>
@@ -23483,7 +23903,7 @@
         <f>[1]MAIN!C204</f>
         <v>Sigit Rudiantono</v>
       </c>
-      <c r="D204" s="4" t="str">
+      <c r="D204" s="4">
         <f>[1]MAIN!E204</f>
         <v>47000000000203</v>
       </c>
@@ -23513,7 +23933,7 @@
         <f>[1]MAIN!C205</f>
         <v>Muhamad Ikhsan</v>
       </c>
-      <c r="D205" s="4" t="str">
+      <c r="D205" s="4">
         <f>[1]MAIN!E205</f>
         <v>47000000000204</v>
       </c>
@@ -23543,7 +23963,7 @@
         <f>[1]MAIN!C206</f>
         <v>Endang Lestari</v>
       </c>
-      <c r="D206" s="4" t="str">
+      <c r="D206" s="4">
         <f>[1]MAIN!E206</f>
         <v>47000000000205</v>
       </c>
@@ -23573,7 +23993,7 @@
         <f>[1]MAIN!C207</f>
         <v>Ardi</v>
       </c>
-      <c r="D207" s="4" t="str">
+      <c r="D207" s="4">
         <f>[1]MAIN!E207</f>
         <v>47000000000206</v>
       </c>
@@ -23603,7 +24023,7 @@
         <f>[1]MAIN!C208</f>
         <v>Elieser Ferdy P</v>
       </c>
-      <c r="D208" s="4" t="str">
+      <c r="D208" s="4">
         <f>[1]MAIN!E208</f>
         <v>47000000000207</v>
       </c>
@@ -23633,7 +24053,7 @@
         <f>[1]MAIN!C209</f>
         <v>Sjanti Devi</v>
       </c>
-      <c r="D209" s="4" t="str">
+      <c r="D209" s="4">
         <f>[1]MAIN!E209</f>
         <v>47000000000208</v>
       </c>
@@ -23663,7 +24083,7 @@
         <f>[1]MAIN!C210</f>
         <v>Herman Budoyo</v>
       </c>
-      <c r="D210" s="4" t="str">
+      <c r="D210" s="4">
         <f>[1]MAIN!E210</f>
         <v>47000000000209</v>
       </c>
@@ -23693,7 +24113,7 @@
         <f>[1]MAIN!C211</f>
         <v>Ahmad Faza</v>
       </c>
-      <c r="D211" s="4" t="str">
+      <c r="D211" s="4">
         <f>[1]MAIN!E211</f>
         <v>47000000000210</v>
       </c>
@@ -23723,7 +24143,7 @@
         <f>[1]MAIN!C212</f>
         <v>Anna Savitrie</v>
       </c>
-      <c r="D212" s="4" t="str">
+      <c r="D212" s="4">
         <f>[1]MAIN!E212</f>
         <v>47000000000211</v>
       </c>
@@ -23753,7 +24173,7 @@
         <f>[1]MAIN!C213</f>
         <v>Sunaryati</v>
       </c>
-      <c r="D213" s="4" t="str">
+      <c r="D213" s="4">
         <f>[1]MAIN!E213</f>
         <v>47000000000212</v>
       </c>
@@ -23783,7 +24203,7 @@
         <f>[1]MAIN!C214</f>
         <v>Afrida Eka Putri</v>
       </c>
-      <c r="D214" s="4" t="str">
+      <c r="D214" s="4">
         <f>[1]MAIN!E214</f>
         <v>47000000000213</v>
       </c>
@@ -23813,7 +24233,7 @@
         <f>[1]MAIN!C215</f>
         <v>Barika</v>
       </c>
-      <c r="D215" s="4" t="str">
+      <c r="D215" s="4">
         <f>[1]MAIN!E215</f>
         <v>47000000000214</v>
       </c>
@@ -23843,7 +24263,7 @@
         <f>[1]MAIN!C216</f>
         <v>Alfaedi</v>
       </c>
-      <c r="D216" s="4" t="str">
+      <c r="D216" s="4">
         <f>[1]MAIN!E216</f>
         <v>47000000000215</v>
       </c>
@@ -23873,7 +24293,7 @@
         <f>[1]MAIN!C217</f>
         <v>sutra riandi</v>
       </c>
-      <c r="D217" s="4" t="str">
+      <c r="D217" s="4">
         <f>[1]MAIN!E217</f>
         <v>47000000000216</v>
       </c>
@@ -23903,7 +24323,7 @@
         <f>[1]MAIN!C218</f>
         <v>bachtiar</v>
       </c>
-      <c r="D218" s="4" t="str">
+      <c r="D218" s="4">
         <f>[1]MAIN!E218</f>
         <v>47000000000217</v>
       </c>
@@ -23933,7 +24353,7 @@
         <f>[1]MAIN!C219</f>
         <v>Yudi Rahmadi</v>
       </c>
-      <c r="D219" s="4" t="str">
+      <c r="D219" s="4">
         <f>[1]MAIN!E219</f>
         <v>47000000000218</v>
       </c>
@@ -23963,7 +24383,7 @@
         <f>[1]MAIN!C220</f>
         <v>Iwan Sumantri</v>
       </c>
-      <c r="D220" s="4" t="str">
+      <c r="D220" s="4">
         <f>[1]MAIN!E220</f>
         <v>47000000000219</v>
       </c>
@@ -23993,7 +24413,7 @@
         <f>[1]MAIN!C221</f>
         <v>Hanif Eko Saputro</v>
       </c>
-      <c r="D221" s="4" t="str">
+      <c r="D221" s="4">
         <f>[1]MAIN!E221</f>
         <v>47000000000220</v>
       </c>
@@ -24023,7 +24443,7 @@
         <f>[1]MAIN!C222</f>
         <v>Antok</v>
       </c>
-      <c r="D222" s="4" t="str">
+      <c r="D222" s="4">
         <f>[1]MAIN!E222</f>
         <v>47000000000221</v>
       </c>
@@ -24053,7 +24473,7 @@
         <f>[1]MAIN!C223</f>
         <v>Frederika Intan</v>
       </c>
-      <c r="D223" s="4" t="str">
+      <c r="D223" s="4">
         <f>[1]MAIN!E223</f>
         <v>47000000000222</v>
       </c>
@@ -24083,7 +24503,7 @@
         <f>[1]MAIN!C224</f>
         <v>Kurniawan</v>
       </c>
-      <c r="D224" s="4" t="str">
+      <c r="D224" s="4">
         <f>[1]MAIN!E224</f>
         <v>47000000000223</v>
       </c>
@@ -24113,7 +24533,7 @@
         <f>[1]MAIN!C225</f>
         <v>dudung</v>
       </c>
-      <c r="D225" s="4" t="str">
+      <c r="D225" s="4">
         <f>[1]MAIN!E225</f>
         <v>47000000000224</v>
       </c>
@@ -24143,7 +24563,7 @@
         <f>[1]MAIN!C226</f>
         <v>Gina Septa</v>
       </c>
-      <c r="D226" s="4" t="str">
+      <c r="D226" s="4">
         <f>[1]MAIN!E226</f>
         <v>47000000000225</v>
       </c>
@@ -24173,7 +24593,7 @@
         <f>[1]MAIN!C227</f>
         <v>Rahmat Riyadi</v>
       </c>
-      <c r="D227" s="4" t="str">
+      <c r="D227" s="4">
         <f>[1]MAIN!E227</f>
         <v>47000000000226</v>
       </c>
@@ -24203,7 +24623,7 @@
         <f>[1]MAIN!C228</f>
         <v>Antony Pakpahan</v>
       </c>
-      <c r="D228" s="4" t="str">
+      <c r="D228" s="4">
         <f>[1]MAIN!E228</f>
         <v>47000000000227</v>
       </c>
@@ -24233,7 +24653,7 @@
         <f>[1]MAIN!C229</f>
         <v>Muhammad Taufan</v>
       </c>
-      <c r="D229" s="4" t="str">
+      <c r="D229" s="4">
         <f>[1]MAIN!E229</f>
         <v>47000000000228</v>
       </c>
@@ -24263,7 +24683,7 @@
         <f>[1]MAIN!C230</f>
         <v>tedy harseno</v>
       </c>
-      <c r="D230" s="4" t="str">
+      <c r="D230" s="4">
         <f>[1]MAIN!E230</f>
         <v>47000000000229</v>
       </c>
@@ -24293,7 +24713,7 @@
         <f>[1]MAIN!C231</f>
         <v>Arman</v>
       </c>
-      <c r="D231" s="4" t="str">
+      <c r="D231" s="4">
         <f>[1]MAIN!E231</f>
         <v>47000000000230</v>
       </c>
@@ -24323,7 +24743,7 @@
         <f>[1]MAIN!C232</f>
         <v>Ardisam</v>
       </c>
-      <c r="D232" s="4" t="str">
+      <c r="D232" s="4">
         <f>[1]MAIN!E232</f>
         <v>47000000000231</v>
       </c>
@@ -24353,7 +24773,7 @@
         <f>[1]MAIN!C233</f>
         <v>irwan</v>
       </c>
-      <c r="D233" s="4" t="str">
+      <c r="D233" s="4">
         <f>[1]MAIN!E233</f>
         <v>47000000000232</v>
       </c>
@@ -24383,7 +24803,7 @@
         <f>[1]MAIN!C234</f>
         <v>Indra Jaya</v>
       </c>
-      <c r="D234" s="4" t="str">
+      <c r="D234" s="4">
         <f>[1]MAIN!E234</f>
         <v>47000000000233</v>
       </c>
@@ -24413,7 +24833,7 @@
         <f>[1]MAIN!C235</f>
         <v>Kendra Daniswara</v>
       </c>
-      <c r="D235" s="4" t="str">
+      <c r="D235" s="4">
         <f>[1]MAIN!E235</f>
         <v>47000000000234</v>
       </c>
@@ -24443,7 +24863,7 @@
         <f>[1]MAIN!C236</f>
         <v>Ichsanudin</v>
       </c>
-      <c r="D236" s="4" t="str">
+      <c r="D236" s="4">
         <f>[1]MAIN!E236</f>
         <v>47000000000235</v>
       </c>
@@ -24473,7 +24893,7 @@
         <f>[1]MAIN!C237</f>
         <v>Riki Chairul Anwar</v>
       </c>
-      <c r="D237" s="4" t="str">
+      <c r="D237" s="4">
         <f>[1]MAIN!E237</f>
         <v>47000000000236</v>
       </c>
@@ -24503,7 +24923,7 @@
         <f>[1]MAIN!C238</f>
         <v>Ikun M Soedrajat</v>
       </c>
-      <c r="D238" s="4" t="str">
+      <c r="D238" s="4">
         <f>[1]MAIN!E238</f>
         <v>47000000000237</v>
       </c>
@@ -24533,7 +24953,7 @@
         <f>[1]MAIN!C239</f>
         <v>Firman Akbar</v>
       </c>
-      <c r="D239" s="4" t="str">
+      <c r="D239" s="4">
         <f>[1]MAIN!E239</f>
         <v>47000000000238</v>
       </c>
@@ -24563,7 +24983,7 @@
         <f>[1]MAIN!C240</f>
         <v>Rakman A Hadi</v>
       </c>
-      <c r="D240" s="4" t="str">
+      <c r="D240" s="4">
         <f>[1]MAIN!E240</f>
         <v>47000000000239</v>
       </c>
@@ -24593,7 +25013,7 @@
         <f>[1]MAIN!C241</f>
         <v>Marten Tabun</v>
       </c>
-      <c r="D241" s="4" t="str">
+      <c r="D241" s="4">
         <f>[1]MAIN!E241</f>
         <v>47000000000240</v>
       </c>
@@ -24623,7 +25043,7 @@
         <f>[1]MAIN!C242</f>
         <v>Dudi Rustandi</v>
       </c>
-      <c r="D242" s="4" t="str">
+      <c r="D242" s="4">
         <f>[1]MAIN!E242</f>
         <v>47000000000241</v>
       </c>
@@ -24653,7 +25073,7 @@
         <f>[1]MAIN!C243</f>
         <v>saifulloh</v>
       </c>
-      <c r="D243" s="4" t="str">
+      <c r="D243" s="4">
         <f>[1]MAIN!E243</f>
         <v>47000000000242</v>
       </c>
@@ -24683,7 +25103,7 @@
         <f>[1]MAIN!C244</f>
         <v>saifuloh</v>
       </c>
-      <c r="D244" s="4" t="str">
+      <c r="D244" s="4">
         <f>[1]MAIN!E244</f>
         <v>47000000000243</v>
       </c>
@@ -24713,7 +25133,7 @@
         <f>[1]MAIN!C245</f>
         <v>Liani Atmaningrum</v>
       </c>
-      <c r="D245" s="4" t="str">
+      <c r="D245" s="4">
         <f>[1]MAIN!E245</f>
         <v>47000000000244</v>
       </c>
@@ -24743,7 +25163,7 @@
         <f>[1]MAIN!C246</f>
         <v>Mohammad Arman Tompo</v>
       </c>
-      <c r="D246" s="4" t="str">
+      <c r="D246" s="4">
         <f>[1]MAIN!E246</f>
         <v>47000000000245</v>
       </c>
@@ -24773,7 +25193,7 @@
         <f>[1]MAIN!C247</f>
         <v>Ida Tri Wulaningsih</v>
       </c>
-      <c r="D247" s="4" t="str">
+      <c r="D247" s="4">
         <f>[1]MAIN!E247</f>
         <v>47000000000246</v>
       </c>
@@ -24803,7 +25223,7 @@
         <f>[1]MAIN!C248</f>
         <v>Kiki Mustikawati</v>
       </c>
-      <c r="D248" s="4" t="str">
+      <c r="D248" s="4">
         <f>[1]MAIN!E248</f>
         <v>47000000000247</v>
       </c>
@@ -24833,7 +25253,7 @@
         <f>[1]MAIN!C249</f>
         <v>Edy Putra Waskita</v>
       </c>
-      <c r="D249" s="4" t="str">
+      <c r="D249" s="4">
         <f>[1]MAIN!E249</f>
         <v>47000000000248</v>
       </c>
@@ -24863,7 +25283,7 @@
         <f>[1]MAIN!C250</f>
         <v>Ramaizon</v>
       </c>
-      <c r="D250" s="4" t="str">
+      <c r="D250" s="4">
         <f>[1]MAIN!E250</f>
         <v>47000000000249</v>
       </c>
@@ -24893,7 +25313,7 @@
         <f>[1]MAIN!C251</f>
         <v>Arif Prasetyo</v>
       </c>
-      <c r="D251" s="4" t="str">
+      <c r="D251" s="4">
         <f>[1]MAIN!E251</f>
         <v>47000000000250</v>
       </c>
@@ -24923,7 +25343,7 @@
         <f>[1]MAIN!C252</f>
         <v>murdiansyah</v>
       </c>
-      <c r="D252" s="4" t="str">
+      <c r="D252" s="4">
         <f>[1]MAIN!E252</f>
         <v>47000000000251</v>
       </c>
@@ -24953,7 +25373,7 @@
         <f>[1]MAIN!C253</f>
         <v>rifki</v>
       </c>
-      <c r="D253" s="4" t="str">
+      <c r="D253" s="4">
         <f>[1]MAIN!E253</f>
         <v>47000000000252</v>
       </c>
@@ -24983,7 +25403,7 @@
         <f>[1]MAIN!C254</f>
         <v>elisa</v>
       </c>
-      <c r="D254" s="4" t="str">
+      <c r="D254" s="4">
         <f>[1]MAIN!E254</f>
         <v>47000000000253</v>
       </c>
@@ -25013,7 +25433,7 @@
         <f>[1]MAIN!C255</f>
         <v>triyono</v>
       </c>
-      <c r="D255" s="4" t="str">
+      <c r="D255" s="4">
         <f>[1]MAIN!E255</f>
         <v>47000000000254</v>
       </c>
@@ -25043,7 +25463,7 @@
         <f>[1]MAIN!C256</f>
         <v>Monang Simarmata</v>
       </c>
-      <c r="D256" s="4" t="str">
+      <c r="D256" s="4">
         <f>[1]MAIN!E256</f>
         <v>47000000000255</v>
       </c>
@@ -25073,7 +25493,7 @@
         <f>[1]MAIN!C257</f>
         <v>sandika</v>
       </c>
-      <c r="D257" s="4" t="str">
+      <c r="D257" s="4">
         <f>[1]MAIN!E257</f>
         <v>47000000000256</v>
       </c>
@@ -25103,7 +25523,7 @@
         <f>[1]MAIN!C258</f>
         <v>utanto</v>
       </c>
-      <c r="D258" s="4" t="str">
+      <c r="D258" s="4">
         <f>[1]MAIN!E258</f>
         <v>47000000000257</v>
       </c>
@@ -25133,7 +25553,7 @@
         <f>[1]MAIN!C259</f>
         <v>Aris Widodo Pamungkas</v>
       </c>
-      <c r="D259" s="4" t="str">
+      <c r="D259" s="4">
         <f>[1]MAIN!E259</f>
         <v>47000000000258</v>
       </c>
@@ -25163,7 +25583,7 @@
         <f>[1]MAIN!C260</f>
         <v>Yessi Setiarini</v>
       </c>
-      <c r="D260" s="4" t="str">
+      <c r="D260" s="4">
         <f>[1]MAIN!E260</f>
         <v>47000000000259</v>
       </c>
@@ -25193,7 +25613,7 @@
         <f>[1]MAIN!C261</f>
         <v>Ari Yuniasmono</v>
       </c>
-      <c r="D261" s="4" t="str">
+      <c r="D261" s="4">
         <f>[1]MAIN!E261</f>
         <v>47000000000260</v>
       </c>
@@ -25223,7 +25643,7 @@
         <f>[1]MAIN!C262</f>
         <v>0</v>
       </c>
-      <c r="D262" s="4" t="str">
+      <c r="D262" s="4">
         <f>[1]MAIN!E262</f>
         <v>47000000000261</v>
       </c>
@@ -25253,7 +25673,7 @@
         <f>[1]MAIN!C263</f>
         <v>Dedi Marciano Rizanur</v>
       </c>
-      <c r="D263" s="4" t="str">
+      <c r="D263" s="4">
         <f>[1]MAIN!E263</f>
         <v>47000000000262</v>
       </c>
@@ -25283,7 +25703,7 @@
         <f>[1]MAIN!C264</f>
         <v>Uswatun Khasanah</v>
       </c>
-      <c r="D264" s="4" t="str">
+      <c r="D264" s="4">
         <f>[1]MAIN!E264</f>
         <v>47000000000263</v>
       </c>
@@ -25313,7 +25733,7 @@
         <f>[1]MAIN!C265</f>
         <v>Weldi Wimar</v>
       </c>
-      <c r="D265" s="4" t="str">
+      <c r="D265" s="4">
         <f>[1]MAIN!E265</f>
         <v>47000000000264</v>
       </c>
@@ -25343,7 +25763,7 @@
         <f>[1]MAIN!C266</f>
         <v>Yorid Fae</v>
       </c>
-      <c r="D266" s="4" t="str">
+      <c r="D266" s="4">
         <f>[1]MAIN!E266</f>
         <v>47000000000265</v>
       </c>
@@ -25373,7 +25793,7 @@
         <f>[1]MAIN!C267</f>
         <v>Saut MPL Tobing</v>
       </c>
-      <c r="D267" s="4" t="str">
+      <c r="D267" s="4">
         <f>[1]MAIN!E267</f>
         <v>47000000000266</v>
       </c>
@@ -25403,7 +25823,7 @@
         <f>[1]MAIN!C268</f>
         <v>Wahyu Widodo</v>
       </c>
-      <c r="D268" s="4" t="str">
+      <c r="D268" s="4">
         <f>[1]MAIN!E268</f>
         <v>47000000000267</v>
       </c>
@@ -25433,7 +25853,7 @@
         <f>[1]MAIN!C269</f>
         <v>Yunni Sazili</v>
       </c>
-      <c r="D269" s="4" t="str">
+      <c r="D269" s="4">
         <f>[1]MAIN!E269</f>
         <v>47000000000268</v>
       </c>
@@ -25463,7 +25883,7 @@
         <f>[1]MAIN!C270</f>
         <v>Iswahyuni</v>
       </c>
-      <c r="D270" s="4" t="str">
+      <c r="D270" s="4">
         <f>[1]MAIN!E270</f>
         <v>47000000000269</v>
       </c>
@@ -25493,7 +25913,7 @@
         <f>[1]MAIN!C271</f>
         <v>Endang Sobari</v>
       </c>
-      <c r="D271" s="4" t="str">
+      <c r="D271" s="4">
         <f>[1]MAIN!E271</f>
         <v>47000000000270</v>
       </c>
@@ -25523,7 +25943,7 @@
         <f>[1]MAIN!C272</f>
         <v>Edi Siswanto</v>
       </c>
-      <c r="D272" s="4" t="str">
+      <c r="D272" s="4">
         <f>[1]MAIN!E272</f>
         <v>47000000000271</v>
       </c>
@@ -25553,7 +25973,7 @@
         <f>[1]MAIN!C273</f>
         <v>Syahrizal</v>
       </c>
-      <c r="D273" s="4" t="str">
+      <c r="D273" s="4">
         <f>[1]MAIN!E273</f>
         <v>47000000000272</v>
       </c>
@@ -25583,7 +26003,7 @@
         <f>[1]MAIN!C274</f>
         <v>Anton Iryanto</v>
       </c>
-      <c r="D274" s="4" t="str">
+      <c r="D274" s="4">
         <f>[1]MAIN!E274</f>
         <v>47000000000273</v>
       </c>
@@ -25613,7 +26033,7 @@
         <f>[1]MAIN!C275</f>
         <v>Chairul Musaddat</v>
       </c>
-      <c r="D275" s="4" t="str">
+      <c r="D275" s="4">
         <f>[1]MAIN!E275</f>
         <v>47000000000274</v>
       </c>
@@ -25643,7 +26063,7 @@
         <f>[1]MAIN!C276</f>
         <v>Rere Ronggolawe</v>
       </c>
-      <c r="D276" s="4" t="str">
+      <c r="D276" s="4">
         <f>[1]MAIN!E276</f>
         <v>47000000000275</v>
       </c>
@@ -25673,7 +26093,7 @@
         <f>[1]MAIN!C277</f>
         <v>Ryan Bagus Sasminta</v>
       </c>
-      <c r="D277" s="4" t="str">
+      <c r="D277" s="4">
         <f>[1]MAIN!E277</f>
         <v>47000000000276</v>
       </c>
@@ -25703,7 +26123,7 @@
         <f>[1]MAIN!C278</f>
         <v>Bela Retmalantika</v>
       </c>
-      <c r="D278" s="4" t="str">
+      <c r="D278" s="4">
         <f>[1]MAIN!E278</f>
         <v>47000000000277</v>
       </c>
@@ -25733,7 +26153,7 @@
         <f>[1]MAIN!C279</f>
         <v>Sinta Vera Trikawati</v>
       </c>
-      <c r="D279" s="4" t="str">
+      <c r="D279" s="4">
         <f>[1]MAIN!E279</f>
         <v>47000000000278</v>
       </c>
@@ -25763,7 +26183,7 @@
         <f>[1]MAIN!C280</f>
         <v>Redi Setiadi</v>
       </c>
-      <c r="D280" s="4" t="str">
+      <c r="D280" s="4">
         <f>[1]MAIN!E280</f>
         <v>47000000000279</v>
       </c>
@@ -25793,7 +26213,7 @@
         <f>[1]MAIN!C281</f>
         <v>Slamet Budi Setiawan</v>
       </c>
-      <c r="D281" s="4" t="str">
+      <c r="D281" s="4">
         <f>[1]MAIN!E281</f>
         <v>47000000000280</v>
       </c>
@@ -25823,7 +26243,7 @@
         <f>[1]MAIN!C282</f>
         <v>Hendrik</v>
       </c>
-      <c r="D282" s="4" t="str">
+      <c r="D282" s="4">
         <f>[1]MAIN!E282</f>
         <v>47000000000281</v>
       </c>
@@ -25853,7 +26273,7 @@
         <f>[1]MAIN!C283</f>
         <v>Manutar Tamba</v>
       </c>
-      <c r="D283" s="4" t="str">
+      <c r="D283" s="4">
         <f>[1]MAIN!E283</f>
         <v>47000000000282</v>
       </c>
@@ -25886,7 +26306,7 @@
         <f>[1]MAIN!C284</f>
         <v>SYSTEM CRON</v>
       </c>
-      <c r="D284" s="11" t="str">
+      <c r="D284" s="11">
         <f>[1]MAIN!E284</f>
         <v>47000000000283</v>
       </c>
@@ -25905,7 +26325,7 @@
         <f>[1]MAIN!C285</f>
         <v>Nur Kusumowati</v>
       </c>
-      <c r="D285" s="4" t="str">
+      <c r="D285" s="4">
         <f>[1]MAIN!E285</f>
         <v>47000000000284</v>
       </c>
@@ -25935,7 +26355,7 @@
         <f>[1]MAIN!C286</f>
         <v>Ubaidillah</v>
       </c>
-      <c r="D286" s="4" t="str">
+      <c r="D286" s="4">
         <f>[1]MAIN!E286</f>
         <v>47000000000285</v>
       </c>
@@ -25965,7 +26385,7 @@
         <f>[1]MAIN!C287</f>
         <v>Iman Hakiki</v>
       </c>
-      <c r="D287" s="4" t="str">
+      <c r="D287" s="4">
         <f>[1]MAIN!E287</f>
         <v>47000000000286</v>
       </c>
@@ -25995,7 +26415,7 @@
         <f>[1]MAIN!C288</f>
         <v>Susilawati</v>
       </c>
-      <c r="D288" s="4" t="str">
+      <c r="D288" s="4">
         <f>[1]MAIN!E288</f>
         <v>47000000000287</v>
       </c>
@@ -26025,7 +26445,7 @@
         <f>[1]MAIN!C289</f>
         <v>Darsito</v>
       </c>
-      <c r="D289" s="4" t="str">
+      <c r="D289" s="4">
         <f>[1]MAIN!E289</f>
         <v>47000000000288</v>
       </c>
@@ -26055,7 +26475,7 @@
         <f>[1]MAIN!C290</f>
         <v>zafrizal</v>
       </c>
-      <c r="D290" s="4" t="str">
+      <c r="D290" s="4">
         <f>[1]MAIN!E290</f>
         <v>47000000000289</v>
       </c>
@@ -26085,7 +26505,7 @@
         <f>[1]MAIN!C291</f>
         <v>Manotar Tamba</v>
       </c>
-      <c r="D291" s="4" t="str">
+      <c r="D291" s="4">
         <f>[1]MAIN!E291</f>
         <v>47000000000290</v>
       </c>
@@ -26115,7 +26535,7 @@
         <f>[1]MAIN!C292</f>
         <v>Surono</v>
       </c>
-      <c r="D292" s="4" t="str">
+      <c r="D292" s="4">
         <f>[1]MAIN!E292</f>
         <v>47000000000291</v>
       </c>
@@ -26145,7 +26565,7 @@
         <f>[1]MAIN!C293</f>
         <v>Suryadi</v>
       </c>
-      <c r="D293" s="4" t="str">
+      <c r="D293" s="4">
         <f>[1]MAIN!E293</f>
         <v>47000000000292</v>
       </c>
@@ -26175,7 +26595,7 @@
         <f>[1]MAIN!C294</f>
         <v>Rais Indra Noor</v>
       </c>
-      <c r="D294" s="4" t="str">
+      <c r="D294" s="4">
         <f>[1]MAIN!E294</f>
         <v>47000000000293</v>
       </c>
@@ -26205,7 +26625,7 @@
         <f>[1]MAIN!C295</f>
         <v>Faiz Haems</v>
       </c>
-      <c r="D295" s="4" t="str">
+      <c r="D295" s="4">
         <f>[1]MAIN!E295</f>
         <v>47000000000294</v>
       </c>
@@ -26235,7 +26655,7 @@
         <f>[1]MAIN!C296</f>
         <v>Agung Hendarto</v>
       </c>
-      <c r="D296" s="4" t="str">
+      <c r="D296" s="4">
         <f>[1]MAIN!E296</f>
         <v>47000000000295</v>
       </c>
@@ -26265,7 +26685,7 @@
         <f>[1]MAIN!C297</f>
         <v>Deni Setiawan</v>
       </c>
-      <c r="D297" s="4" t="str">
+      <c r="D297" s="4">
         <f>[1]MAIN!E297</f>
         <v>47000000000296</v>
       </c>
@@ -26295,7 +26715,7 @@
         <f>[1]MAIN!C298</f>
         <v>Shobarin Jabar</v>
       </c>
-      <c r="D298" s="4" t="str">
+      <c r="D298" s="4">
         <f>[1]MAIN!E298</f>
         <v>47000000000297</v>
       </c>
@@ -26325,7 +26745,7 @@
         <f>[1]MAIN!C299</f>
         <v>Riandi</v>
       </c>
-      <c r="D299" s="4" t="str">
+      <c r="D299" s="4">
         <f>[1]MAIN!E299</f>
         <v>47000000000298</v>
       </c>
@@ -26355,7 +26775,7 @@
         <f>[1]MAIN!C300</f>
         <v>Mulyadi</v>
       </c>
-      <c r="D300" s="4" t="str">
+      <c r="D300" s="4">
         <f>[1]MAIN!E300</f>
         <v>47000000000299</v>
       </c>
@@ -26385,7 +26805,7 @@
         <f>[1]MAIN!C301</f>
         <v>Dedi Rianto</v>
       </c>
-      <c r="D301" s="4" t="str">
+      <c r="D301" s="4">
         <f>[1]MAIN!E301</f>
         <v>47000000000300</v>
       </c>
@@ -26415,7 +26835,7 @@
         <f>[1]MAIN!C302</f>
         <v>Iyus Darwin</v>
       </c>
-      <c r="D302" s="4" t="str">
+      <c r="D302" s="4">
         <f>[1]MAIN!E302</f>
         <v>47000000000301</v>
       </c>
@@ -26445,7 +26865,7 @@
         <f>[1]MAIN!C303</f>
         <v>Yasir Liem</v>
       </c>
-      <c r="D303" s="4" t="str">
+      <c r="D303" s="4">
         <f>[1]MAIN!E303</f>
         <v>47000000000302</v>
       </c>
@@ -26475,7 +26895,7 @@
         <f>[1]MAIN!C304</f>
         <v>Sir Muhammad Zafrulloh Khan</v>
       </c>
-      <c r="D304" s="4" t="str">
+      <c r="D304" s="4">
         <f>[1]MAIN!E304</f>
         <v>47000000000303</v>
       </c>
@@ -26505,7 +26925,7 @@
         <f>[1]MAIN!C305</f>
         <v>Nawir Lahamutu</v>
       </c>
-      <c r="D305" s="4" t="str">
+      <c r="D305" s="4">
         <f>[1]MAIN!E305</f>
         <v>47000000000304</v>
       </c>
@@ -26535,7 +26955,7 @@
         <f>[1]MAIN!C306</f>
         <v>Swar Jono</v>
       </c>
-      <c r="D306" s="4" t="str">
+      <c r="D306" s="4">
         <f>[1]MAIN!E306</f>
         <v>47000000000305</v>
       </c>
@@ -26565,7 +26985,7 @@
         <f>[1]MAIN!C307</f>
         <v>Hasan Gani</v>
       </c>
-      <c r="D307" s="4" t="str">
+      <c r="D307" s="4">
         <f>[1]MAIN!E307</f>
         <v>47000000000306</v>
       </c>
@@ -26595,7 +27015,7 @@
         <f>[1]MAIN!C308</f>
         <v>Imam Mustofa</v>
       </c>
-      <c r="D308" s="4" t="str">
+      <c r="D308" s="4">
         <f>[1]MAIN!E308</f>
         <v>47000000000307</v>
       </c>
@@ -26625,7 +27045,7 @@
         <f>[1]MAIN!C309</f>
         <v>jumino</v>
       </c>
-      <c r="D309" s="4" t="str">
+      <c r="D309" s="4">
         <f>[1]MAIN!E309</f>
         <v>47000000000308</v>
       </c>
@@ -26655,7 +27075,7 @@
         <f>[1]MAIN!C310</f>
         <v>Felpy</v>
       </c>
-      <c r="D310" s="4" t="str">
+      <c r="D310" s="4">
         <f>[1]MAIN!E310</f>
         <v>47000000000309</v>
       </c>
@@ -26685,7 +27105,7 @@
         <f>[1]MAIN!C311</f>
         <v>Yuliandaru Suryoatmodjo</v>
       </c>
-      <c r="D311" s="4" t="str">
+      <c r="D311" s="4">
         <f>[1]MAIN!E311</f>
         <v>47000000000310</v>
       </c>
@@ -26715,7 +27135,7 @@
         <f>[1]MAIN!C312</f>
         <v>awaludin</v>
       </c>
-      <c r="D312" s="4" t="str">
+      <c r="D312" s="4">
         <f>[1]MAIN!E312</f>
         <v>47000000000311</v>
       </c>
@@ -26745,7 +27165,7 @@
         <f>[1]MAIN!C313</f>
         <v>M Denny  Micrazudin</v>
       </c>
-      <c r="D313" s="4" t="str">
+      <c r="D313" s="4">
         <f>[1]MAIN!E313</f>
         <v>47000000000312</v>
       </c>
@@ -26775,7 +27195,7 @@
         <f>[1]MAIN!C314</f>
         <v>Ambon Rumalean</v>
       </c>
-      <c r="D314" s="4" t="str">
+      <c r="D314" s="4">
         <f>[1]MAIN!E314</f>
         <v>47000000000313</v>
       </c>
@@ -26805,7 +27225,7 @@
         <f>[1]MAIN!C315</f>
         <v>Nawal</v>
       </c>
-      <c r="D315" s="4" t="str">
+      <c r="D315" s="4">
         <f>[1]MAIN!E315</f>
         <v>47000000000314</v>
       </c>
@@ -26835,7 +27255,7 @@
         <f>[1]MAIN!C316</f>
         <v>Miftakhul Muzakky</v>
       </c>
-      <c r="D316" s="4" t="str">
+      <c r="D316" s="4">
         <f>[1]MAIN!E316</f>
         <v>47000000000315</v>
       </c>
@@ -26865,7 +27285,7 @@
         <f>[1]MAIN!C317</f>
         <v>Bambang Prihatin</v>
       </c>
-      <c r="D317" s="4" t="str">
+      <c r="D317" s="4">
         <f>[1]MAIN!E317</f>
         <v>47000000000316</v>
       </c>
@@ -26895,7 +27315,7 @@
         <f>[1]MAIN!C318</f>
         <v>Rizki Akbar</v>
       </c>
-      <c r="D318" s="4" t="str">
+      <c r="D318" s="4">
         <f>[1]MAIN!E318</f>
         <v>47000000000317</v>
       </c>
@@ -26925,7 +27345,7 @@
         <f>[1]MAIN!C319</f>
         <v>Isa Anshori</v>
       </c>
-      <c r="D319" s="4" t="str">
+      <c r="D319" s="4">
         <f>[1]MAIN!E319</f>
         <v>47000000000318</v>
       </c>
@@ -26955,7 +27375,7 @@
         <f>[1]MAIN!C320</f>
         <v>Ridwan Nurhadi</v>
       </c>
-      <c r="D320" s="4" t="str">
+      <c r="D320" s="4">
         <f>[1]MAIN!E320</f>
         <v>47000000000319</v>
       </c>
@@ -26985,7 +27405,7 @@
         <f>[1]MAIN!C321</f>
         <v>Budiman</v>
       </c>
-      <c r="D321" s="4" t="str">
+      <c r="D321" s="4">
         <f>[1]MAIN!E321</f>
         <v>47000000000320</v>
       </c>
@@ -27015,7 +27435,7 @@
         <f>[1]MAIN!C322</f>
         <v>Frando J Siahan</v>
       </c>
-      <c r="D322" s="4" t="str">
+      <c r="D322" s="4">
         <f>[1]MAIN!E322</f>
         <v>47000000000321</v>
       </c>
@@ -27045,7 +27465,7 @@
         <f>[1]MAIN!C323</f>
         <v>Ares S Mauboi</v>
       </c>
-      <c r="D323" s="4" t="str">
+      <c r="D323" s="4">
         <f>[1]MAIN!E323</f>
         <v>47000000000322</v>
       </c>
@@ -27075,7 +27495,7 @@
         <f>[1]MAIN!C324</f>
         <v>Hadi Kasmuri</v>
       </c>
-      <c r="D324" s="4" t="str">
+      <c r="D324" s="4">
         <f>[1]MAIN!E324</f>
         <v>47000000000323</v>
       </c>
@@ -27105,7 +27525,7 @@
         <f>[1]MAIN!C325</f>
         <v>Yusri Azhar</v>
       </c>
-      <c r="D325" s="4" t="str">
+      <c r="D325" s="4">
         <f>[1]MAIN!E325</f>
         <v>47000000000324</v>
       </c>
@@ -27135,7 +27555,7 @@
         <f>[1]MAIN!C326</f>
         <v>M Rusdi</v>
       </c>
-      <c r="D326" s="4" t="str">
+      <c r="D326" s="4">
         <f>[1]MAIN!E326</f>
         <v>47000000000325</v>
       </c>
@@ -27165,7 +27585,7 @@
         <f>[1]MAIN!C327</f>
         <v>Dedi Syahputra</v>
       </c>
-      <c r="D327" s="4" t="str">
+      <c r="D327" s="4">
         <f>[1]MAIN!E327</f>
         <v>47000000000326</v>
       </c>
@@ -27195,7 +27615,7 @@
         <f>[1]MAIN!C328</f>
         <v>Dedi Kusnadi</v>
       </c>
-      <c r="D328" s="4" t="str">
+      <c r="D328" s="4">
         <f>[1]MAIN!E328</f>
         <v>47000000000327</v>
       </c>
@@ -27225,7 +27645,7 @@
         <f>[1]MAIN!C329</f>
         <v>Moritz Thomsen Marbun</v>
       </c>
-      <c r="D329" s="4" t="str">
+      <c r="D329" s="4">
         <f>[1]MAIN!E329</f>
         <v>47000000000328</v>
       </c>
@@ -27255,7 +27675,7 @@
         <f>[1]MAIN!C330</f>
         <v>Aryoko Sudiro</v>
       </c>
-      <c r="D330" s="4" t="str">
+      <c r="D330" s="4">
         <f>[1]MAIN!E330</f>
         <v>47000000000329</v>
       </c>
@@ -27285,7 +27705,7 @@
         <f>[1]MAIN!C331</f>
         <v>Prayanti Dewi Anggraini</v>
       </c>
-      <c r="D331" s="4" t="str">
+      <c r="D331" s="4">
         <f>[1]MAIN!E331</f>
         <v>47000000000330</v>
       </c>
@@ -27315,7 +27735,7 @@
         <f>[1]MAIN!C332</f>
         <v>Ardita</v>
       </c>
-      <c r="D332" s="4" t="str">
+      <c r="D332" s="4">
         <f>[1]MAIN!E332</f>
         <v>47000000000331</v>
       </c>
@@ -27345,7 +27765,7 @@
         <f>[1]MAIN!C333</f>
         <v>PM Q000135</v>
       </c>
-      <c r="D333" s="11" t="str">
+      <c r="D333" s="11">
         <f>[1]MAIN!E333</f>
         <v>47000000000332</v>
       </c>
@@ -27364,7 +27784,7 @@
         <f>[1]MAIN!C334</f>
         <v>Nicky Kurnia</v>
       </c>
-      <c r="D334" s="4" t="str">
+      <c r="D334" s="4">
         <f>[1]MAIN!E334</f>
         <v>47000000000333</v>
       </c>
@@ -27394,7 +27814,7 @@
         <f>[1]MAIN!C335</f>
         <v>M Ari Ardizah Nasution</v>
       </c>
-      <c r="D335" s="4" t="str">
+      <c r="D335" s="4">
         <f>[1]MAIN!E335</f>
         <v>47000000000334</v>
       </c>
@@ -27424,7 +27844,7 @@
         <f>[1]MAIN!C336</f>
         <v>Dadan Hermawan</v>
       </c>
-      <c r="D336" s="4" t="str">
+      <c r="D336" s="4">
         <f>[1]MAIN!E336</f>
         <v>47000000000335</v>
       </c>
@@ -27454,7 +27874,7 @@
         <f>[1]MAIN!C337</f>
         <v>Ardhi Swasono</v>
       </c>
-      <c r="D337" s="4" t="str">
+      <c r="D337" s="4">
         <f>[1]MAIN!E337</f>
         <v>47000000000336</v>
       </c>
@@ -27484,7 +27904,7 @@
         <f>[1]MAIN!C338</f>
         <v>Budi Pranata Sinaga</v>
       </c>
-      <c r="D338" s="4" t="str">
+      <c r="D338" s="4">
         <f>[1]MAIN!E338</f>
         <v>47000000000337</v>
       </c>
@@ -27514,7 +27934,7 @@
         <f>[1]MAIN!C339</f>
         <v>Midin Ena</v>
       </c>
-      <c r="D339" s="4" t="str">
+      <c r="D339" s="4">
         <f>[1]MAIN!E339</f>
         <v>47000000000338</v>
       </c>
@@ -27544,7 +27964,7 @@
         <f>[1]MAIN!C340</f>
         <v>Bardai</v>
       </c>
-      <c r="D340" s="4" t="str">
+      <c r="D340" s="4">
         <f>[1]MAIN!E340</f>
         <v>47000000000339</v>
       </c>
@@ -27574,7 +27994,7 @@
         <f>[1]MAIN!C341</f>
         <v>Syafruddin</v>
       </c>
-      <c r="D341" s="4" t="str">
+      <c r="D341" s="4">
         <f>[1]MAIN!E341</f>
         <v>47000000000340</v>
       </c>
@@ -27604,7 +28024,7 @@
         <f>[1]MAIN!C342</f>
         <v>Rizky Fauzy</v>
       </c>
-      <c r="D342" s="4" t="str">
+      <c r="D342" s="4">
         <f>[1]MAIN!E342</f>
         <v>47000000000341</v>
       </c>
@@ -27634,7 +28054,7 @@
         <f>[1]MAIN!C343</f>
         <v>Imam Safiiy</v>
       </c>
-      <c r="D343" s="4" t="str">
+      <c r="D343" s="4">
         <f>[1]MAIN!E343</f>
         <v>47000000000342</v>
       </c>
@@ -27664,7 +28084,7 @@
         <f>[1]MAIN!C344</f>
         <v>Jimmy Wal</v>
       </c>
-      <c r="D344" s="4" t="str">
+      <c r="D344" s="4">
         <f>[1]MAIN!E344</f>
         <v>47000000000343</v>
       </c>
@@ -27694,7 +28114,7 @@
         <f>[1]MAIN!C345</f>
         <v>Budianto</v>
       </c>
-      <c r="D345" s="4" t="str">
+      <c r="D345" s="4">
         <f>[1]MAIN!E345</f>
         <v>47000000000344</v>
       </c>
@@ -27724,7 +28144,7 @@
         <f>[1]MAIN!C346</f>
         <v>Rio Hakim</v>
       </c>
-      <c r="D346" s="4" t="str">
+      <c r="D346" s="4">
         <f>[1]MAIN!E346</f>
         <v>47000000000345</v>
       </c>
@@ -27754,7 +28174,7 @@
         <f>[1]MAIN!C347</f>
         <v>Nasrul Anwar P</v>
       </c>
-      <c r="D347" s="4" t="str">
+      <c r="D347" s="4">
         <f>[1]MAIN!E347</f>
         <v>47000000000346</v>
       </c>
@@ -27784,7 +28204,7 @@
         <f>[1]MAIN!C348</f>
         <v>Syaiful Idjam</v>
       </c>
-      <c r="D348" s="4" t="str">
+      <c r="D348" s="4">
         <f>[1]MAIN!E348</f>
         <v>47000000000347</v>
       </c>
@@ -27814,7 +28234,7 @@
         <f>[1]MAIN!C349</f>
         <v>Yudo Jati Rahmat Satrio</v>
       </c>
-      <c r="D349" s="4" t="str">
+      <c r="D349" s="4">
         <f>[1]MAIN!E349</f>
         <v>47000000000348</v>
       </c>
@@ -27844,7 +28264,7 @@
         <f>[1]MAIN!C350</f>
         <v>Mursalim</v>
       </c>
-      <c r="D350" s="4" t="str">
+      <c r="D350" s="4">
         <f>[1]MAIN!E350</f>
         <v>47000000000349</v>
       </c>
@@ -27874,7 +28294,7 @@
         <f>[1]MAIN!C351</f>
         <v>Aditya Yudha Prawira</v>
       </c>
-      <c r="D351" s="4" t="str">
+      <c r="D351" s="4">
         <f>[1]MAIN!E351</f>
         <v>47000000000350</v>
       </c>
@@ -27904,7 +28324,7 @@
         <f>[1]MAIN!C352</f>
         <v>Siska Marlina</v>
       </c>
-      <c r="D352" s="4" t="str">
+      <c r="D352" s="4">
         <f>[1]MAIN!E352</f>
         <v>47000000000351</v>
       </c>
@@ -27934,7 +28354,7 @@
         <f>[1]MAIN!C353</f>
         <v>Nur Indra Sri Melati</v>
       </c>
-      <c r="D353" s="4" t="str">
+      <c r="D353" s="4">
         <f>[1]MAIN!E353</f>
         <v>47000000000352</v>
       </c>
@@ -27964,7 +28384,7 @@
         <f>[1]MAIN!C354</f>
         <v>Marcella Avia Ramadhinaningrum</v>
       </c>
-      <c r="D354" s="4" t="str">
+      <c r="D354" s="4">
         <f>[1]MAIN!E354</f>
         <v>47000000000353</v>
       </c>
@@ -27994,7 +28414,7 @@
         <f>[1]MAIN!C355</f>
         <v>Jaruli Samosir</v>
       </c>
-      <c r="D355" s="4" t="str">
+      <c r="D355" s="4">
         <f>[1]MAIN!E355</f>
         <v>47000000000354</v>
       </c>
@@ -28024,7 +28444,7 @@
         <f>[1]MAIN!C356</f>
         <v>Ari Priwarsono</v>
       </c>
-      <c r="D356" s="4" t="str">
+      <c r="D356" s="4">
         <f>[1]MAIN!E356</f>
         <v>47000000000355</v>
       </c>
@@ -28054,7 +28474,7 @@
         <f>[1]MAIN!C357</f>
         <v>Teguh Susanto</v>
       </c>
-      <c r="D357" s="4" t="str">
+      <c r="D357" s="4">
         <f>[1]MAIN!E357</f>
         <v>47000000000356</v>
       </c>
@@ -28084,7 +28504,7 @@
         <f>[1]MAIN!C358</f>
         <v>Juan Talitha</v>
       </c>
-      <c r="D358" s="4" t="str">
+      <c r="D358" s="4">
         <f>[1]MAIN!E358</f>
         <v>47000000000357</v>
       </c>
@@ -28114,7 +28534,7 @@
         <f>[1]MAIN!C359</f>
         <v>Rachmad</v>
       </c>
-      <c r="D359" s="4" t="str">
+      <c r="D359" s="4">
         <f>[1]MAIN!E359</f>
         <v>47000000000358</v>
       </c>
@@ -28144,7 +28564,7 @@
         <f>[1]MAIN!C360</f>
         <v>Radjiman</v>
       </c>
-      <c r="D360" s="4" t="str">
+      <c r="D360" s="4">
         <f>[1]MAIN!E360</f>
         <v>47000000000359</v>
       </c>
@@ -28174,7 +28594,7 @@
         <f>[1]MAIN!C361</f>
         <v>Mat Soleh</v>
       </c>
-      <c r="D361" s="4" t="str">
+      <c r="D361" s="4">
         <f>[1]MAIN!E361</f>
         <v>47000000000360</v>
       </c>
@@ -28204,7 +28624,7 @@
         <f>[1]MAIN!C362</f>
         <v>Binsar</v>
       </c>
-      <c r="D362" s="4" t="str">
+      <c r="D362" s="4">
         <f>[1]MAIN!E362</f>
         <v>47000000000361</v>
       </c>
@@ -28234,7 +28654,7 @@
         <f>[1]MAIN!C363</f>
         <v>Abdul Karim</v>
       </c>
-      <c r="D363" s="4" t="str">
+      <c r="D363" s="4">
         <f>[1]MAIN!E363</f>
         <v>47000000000362</v>
       </c>
@@ -28264,7 +28684,7 @@
         <f>[1]MAIN!C364</f>
         <v>Cahyaningrum Widiastuti</v>
       </c>
-      <c r="D364" s="4" t="str">
+      <c r="D364" s="4">
         <f>[1]MAIN!E364</f>
         <v>47000000000363</v>
       </c>
@@ -28294,7 +28714,7 @@
         <f>[1]MAIN!C365</f>
         <v>Icha Mailinda</v>
       </c>
-      <c r="D365" s="4" t="str">
+      <c r="D365" s="4">
         <f>[1]MAIN!E365</f>
         <v>47000000000364</v>
       </c>
@@ -28324,7 +28744,7 @@
         <f>[1]MAIN!C366</f>
         <v>Cahyaning Annisa</v>
       </c>
-      <c r="D366" s="4" t="str">
+      <c r="D366" s="4">
         <f>[1]MAIN!E366</f>
         <v>47000000000365</v>
       </c>
@@ -28354,7 +28774,7 @@
         <f>[1]MAIN!C367</f>
         <v>Yahya Adyasa Febriansyah</v>
       </c>
-      <c r="D367" s="4" t="str">
+      <c r="D367" s="4">
         <f>[1]MAIN!E367</f>
         <v>47000000000366</v>
       </c>
@@ -28384,7 +28804,7 @@
         <f>[1]MAIN!C368</f>
         <v>Haikal</v>
       </c>
-      <c r="D368" s="4" t="str">
+      <c r="D368" s="4">
         <f>[1]MAIN!E368</f>
         <v>47000000000367</v>
       </c>
@@ -28414,7 +28834,7 @@
         <f>[1]MAIN!C369</f>
         <v>Febriyanto Ahdiat</v>
       </c>
-      <c r="D369" s="4" t="str">
+      <c r="D369" s="4">
         <f>[1]MAIN!E369</f>
         <v>47000000000368</v>
       </c>
@@ -28444,7 +28864,7 @@
         <f>[1]MAIN!C370</f>
         <v>Urbanus</v>
       </c>
-      <c r="D370" s="4" t="str">
+      <c r="D370" s="4">
         <f>[1]MAIN!E370</f>
         <v>47000000000369</v>
       </c>
@@ -28474,7 +28894,7 @@
         <f>[1]MAIN!C371</f>
         <v>Siswanto</v>
       </c>
-      <c r="D371" s="4" t="str">
+      <c r="D371" s="4">
         <f>[1]MAIN!E371</f>
         <v>47000000000370</v>
       </c>
@@ -28504,7 +28924,7 @@
         <f>[1]MAIN!C372</f>
         <v>Prayati Zai</v>
       </c>
-      <c r="D372" s="4" t="str">
+      <c r="D372" s="4">
         <f>[1]MAIN!E372</f>
         <v>47000000000371</v>
       </c>
@@ -28534,7 +28954,7 @@
         <f>[1]MAIN!C373</f>
         <v>Willy Indarto</v>
       </c>
-      <c r="D373" s="4" t="str">
+      <c r="D373" s="4">
         <f>[1]MAIN!E373</f>
         <v>47000000000372</v>
       </c>
@@ -28564,7 +28984,7 @@
         <f>[1]MAIN!C374</f>
         <v>Junaedi</v>
       </c>
-      <c r="D374" s="4" t="str">
+      <c r="D374" s="4">
         <f>[1]MAIN!E374</f>
         <v>47000000000373</v>
       </c>
@@ -28594,7 +29014,7 @@
         <f>[1]MAIN!C375</f>
         <v>Fikri Caesarandi</v>
       </c>
-      <c r="D375" s="4" t="str">
+      <c r="D375" s="4">
         <f>[1]MAIN!E375</f>
         <v>47000000000374</v>
       </c>
@@ -28624,7 +29044,7 @@
         <f>[1]MAIN!C376</f>
         <v>Sakinah Tantriani</v>
       </c>
-      <c r="D376" s="4" t="str">
+      <c r="D376" s="4">
         <f>[1]MAIN!E376</f>
         <v>47000000000375</v>
       </c>
@@ -28654,7 +29074,7 @@
         <f>[1]MAIN!C377</f>
         <v>Dian Firdaus</v>
       </c>
-      <c r="D377" s="4" t="str">
+      <c r="D377" s="4">
         <f>[1]MAIN!E377</f>
         <v>47000000000376</v>
       </c>
@@ -28684,7 +29104,7 @@
         <f>[1]MAIN!C378</f>
         <v>uswatun hasamah</v>
       </c>
-      <c r="D378" s="4" t="str">
+      <c r="D378" s="4">
         <f>[1]MAIN!E378</f>
         <v>47000000000377</v>
       </c>
@@ -28714,7 +29134,7 @@
         <f>[1]MAIN!C379</f>
         <v>sarif hidayatul umah</v>
       </c>
-      <c r="D379" s="4" t="str">
+      <c r="D379" s="4">
         <f>[1]MAIN!E379</f>
         <v>47000000000378</v>
       </c>
@@ -28744,7 +29164,7 @@
         <f>[1]MAIN!C380</f>
         <v>Abdul Rahman Sitompul</v>
       </c>
-      <c r="D380" s="4" t="str">
+      <c r="D380" s="4">
         <f>[1]MAIN!E380</f>
         <v>47000000000379</v>
       </c>
@@ -28774,7 +29194,7 @@
         <f>[1]MAIN!C381</f>
         <v>Abdollah Syani Siregar</v>
       </c>
-      <c r="D381" s="4" t="str">
+      <c r="D381" s="4">
         <f>[1]MAIN!E381</f>
         <v>47000000000380</v>
       </c>
@@ -28807,7 +29227,7 @@
         <f>[1]MAIN!C382</f>
         <v>M. Ervan Isyawal Akbar</v>
       </c>
-      <c r="D382" s="4" t="str">
+      <c r="D382" s="4">
         <f>[1]MAIN!E382</f>
         <v>47000000000381</v>
       </c>
@@ -28837,7 +29257,7 @@
         <f>[1]MAIN!C383</f>
         <v>Erfananda Rasyid</v>
       </c>
-      <c r="D383" s="4" t="str">
+      <c r="D383" s="4">
         <f>[1]MAIN!E383</f>
         <v>47000000000382</v>
       </c>
@@ -28867,7 +29287,7 @@
         <f>[1]MAIN!C384</f>
         <v>Arif Gunawan</v>
       </c>
-      <c r="D384" s="4" t="str">
+      <c r="D384" s="4">
         <f>[1]MAIN!E384</f>
         <v>47000000000383</v>
       </c>
@@ -28897,7 +29317,7 @@
         <f>[1]MAIN!C385</f>
         <v>Elsa Jayanti</v>
       </c>
-      <c r="D385" s="4" t="str">
+      <c r="D385" s="4">
         <f>[1]MAIN!E385</f>
         <v>47000000000384</v>
       </c>
@@ -28927,7 +29347,7 @@
         <f>[1]MAIN!C386</f>
         <v>Muhamad Hamdan Rifai</v>
       </c>
-      <c r="D386" s="4" t="str">
+      <c r="D386" s="4">
         <f>[1]MAIN!E386</f>
         <v>47000000000385</v>
       </c>
@@ -28957,7 +29377,7 @@
         <f>[1]MAIN!C387</f>
         <v>Rizky Reza Pradipta</v>
       </c>
-      <c r="D387" s="4" t="str">
+      <c r="D387" s="4">
         <f>[1]MAIN!E387</f>
         <v>47000000000386</v>
       </c>
@@ -28987,7 +29407,7 @@
         <f>[1]MAIN!C388</f>
         <v>nora meilissa</v>
       </c>
-      <c r="D388" s="4" t="str">
+      <c r="D388" s="4">
         <f>[1]MAIN!E388</f>
         <v>47000000000387</v>
       </c>
@@ -29017,7 +29437,7 @@
         <f>[1]MAIN!C389</f>
         <v>Rahmat Sirfano</v>
       </c>
-      <c r="D389" s="4" t="str">
+      <c r="D389" s="4">
         <f>[1]MAIN!E389</f>
         <v>47000000000388</v>
       </c>
@@ -29047,7 +29467,7 @@
         <f>[1]MAIN!C390</f>
         <v>Wahyu</v>
       </c>
-      <c r="D390" s="4" t="str">
+      <c r="D390" s="4">
         <f>[1]MAIN!E390</f>
         <v>47000000000389</v>
       </c>
@@ -29077,7 +29497,7 @@
         <f>[1]MAIN!C391</f>
         <v>Ario Setyo Gunawan</v>
       </c>
-      <c r="D391" s="4" t="str">
+      <c r="D391" s="4">
         <f>[1]MAIN!E391</f>
         <v>47000000000390</v>
       </c>
@@ -29107,7 +29527,7 @@
         <f>[1]MAIN!C392</f>
         <v>Yosef Hang Wan</v>
       </c>
-      <c r="D392" s="4" t="str">
+      <c r="D392" s="4">
         <f>[1]MAIN!E392</f>
         <v>47000000000391</v>
       </c>
@@ -29137,7 +29557,7 @@
         <f>[1]MAIN!C393</f>
         <v>Maradona Manurung</v>
       </c>
-      <c r="D393" s="4" t="str">
+      <c r="D393" s="4">
         <f>[1]MAIN!E393</f>
         <v>47000000000392</v>
       </c>
@@ -29167,7 +29587,7 @@
         <f>[1]MAIN!C394</f>
         <v>Hervian Bagus Saputra</v>
       </c>
-      <c r="D394" s="4" t="str">
+      <c r="D394" s="4">
         <f>[1]MAIN!E394</f>
         <v>47000000000393</v>
       </c>
@@ -29197,7 +29617,7 @@
         <f>[1]MAIN!C395</f>
         <v>Arfah Hanum</v>
       </c>
-      <c r="D395" s="4" t="str">
+      <c r="D395" s="4">
         <f>[1]MAIN!E395</f>
         <v>47000000000394</v>
       </c>
@@ -29227,7 +29647,7 @@
         <f>[1]MAIN!C396</f>
         <v>Sugeng Ismanto</v>
       </c>
-      <c r="D396" s="4" t="str">
+      <c r="D396" s="4">
         <f>[1]MAIN!E396</f>
         <v>47000000000395</v>
       </c>
@@ -29257,7 +29677,7 @@
         <f>[1]MAIN!C397</f>
         <v>Mia Puspitasari</v>
       </c>
-      <c r="D397" s="4" t="str">
+      <c r="D397" s="4">
         <f>[1]MAIN!E397</f>
         <v>47000000000396</v>
       </c>
@@ -29287,7 +29707,7 @@
         <f>[1]MAIN!C398</f>
         <v>Panca Yudi Baskoro</v>
       </c>
-      <c r="D398" s="4" t="str">
+      <c r="D398" s="4">
         <f>[1]MAIN!E398</f>
         <v>47000000000397</v>
       </c>
@@ -29317,7 +29737,7 @@
         <f>[1]MAIN!C399</f>
         <v>Ilham Arisyandy</v>
       </c>
-      <c r="D399" s="4" t="str">
+      <c r="D399" s="4">
         <f>[1]MAIN!E399</f>
         <v>47000000000398</v>
       </c>
@@ -29347,7 +29767,7 @@
         <f>[1]MAIN!C400</f>
         <v>Ilham Ilham</v>
       </c>
-      <c r="D400" s="4" t="str">
+      <c r="D400" s="4">
         <f>[1]MAIN!E400</f>
         <v>47000000000399</v>
       </c>
@@ -29377,7 +29797,7 @@
         <f>[1]MAIN!C401</f>
         <v>Rohendi Rohendi</v>
       </c>
-      <c r="D401" s="4" t="str">
+      <c r="D401" s="4">
         <f>[1]MAIN!E401</f>
         <v>47000000000400</v>
       </c>
@@ -29407,7 +29827,7 @@
         <f>[1]MAIN!C402</f>
         <v>Ulman Juanda</v>
       </c>
-      <c r="D402" s="4" t="str">
+      <c r="D402" s="4">
         <f>[1]MAIN!E402</f>
         <v>47000000000401</v>
       </c>
@@ -29437,7 +29857,7 @@
         <f>[1]MAIN!C403</f>
         <v>Deddy Rochman</v>
       </c>
-      <c r="D403" s="4" t="str">
+      <c r="D403" s="4">
         <f>[1]MAIN!E403</f>
         <v>47000000000402</v>
       </c>
@@ -29467,7 +29887,7 @@
         <f>[1]MAIN!C404</f>
         <v>Adli Margie</v>
       </c>
-      <c r="D404" s="4" t="str">
+      <c r="D404" s="4">
         <f>[1]MAIN!E404</f>
         <v>47000000000403</v>
       </c>
@@ -29497,7 +29917,7 @@
         <f>[1]MAIN!C405</f>
         <v>Pristu Andonoto</v>
       </c>
-      <c r="D405" s="4" t="str">
+      <c r="D405" s="4">
         <f>[1]MAIN!E405</f>
         <v>47000000000404</v>
       </c>
@@ -29527,7 +29947,7 @@
         <f>[1]MAIN!C406</f>
         <v>Dwi Joko</v>
       </c>
-      <c r="D406" s="4" t="str">
+      <c r="D406" s="4">
         <f>[1]MAIN!E406</f>
         <v>47000000000405</v>
       </c>
@@ -29557,7 +29977,7 @@
         <f>[1]MAIN!C407</f>
         <v>Teguh Pratama</v>
       </c>
-      <c r="D407" s="4" t="str">
+      <c r="D407" s="4">
         <f>[1]MAIN!E407</f>
         <v>47000000000406</v>
       </c>
@@ -29587,7 +30007,7 @@
         <f>[1]MAIN!C408</f>
         <v>Maharani Uthmaniah</v>
       </c>
-      <c r="D408" s="4" t="str">
+      <c r="D408" s="4">
         <f>[1]MAIN!E408</f>
         <v>47000000000407</v>
       </c>
@@ -29617,7 +30037,7 @@
         <f>[1]MAIN!C409</f>
         <v>Sena Andi Satria</v>
       </c>
-      <c r="D409" s="4" t="str">
+      <c r="D409" s="4">
         <f>[1]MAIN!E409</f>
         <v>47000000000408</v>
       </c>
@@ -29647,7 +30067,7 @@
         <f>[1]MAIN!C410</f>
         <v>Mulia Rohanson Harahap</v>
       </c>
-      <c r="D410" s="4" t="str">
+      <c r="D410" s="4">
         <f>[1]MAIN!E410</f>
         <v>47000000000409</v>
       </c>
@@ -29677,7 +30097,7 @@
         <f>[1]MAIN!C411</f>
         <v>Riki Evindra</v>
       </c>
-      <c r="D411" s="4" t="str">
+      <c r="D411" s="4">
         <f>[1]MAIN!E411</f>
         <v>47000000000410</v>
       </c>
@@ -29707,7 +30127,7 @@
         <f>[1]MAIN!C412</f>
         <v>Muhamad Nurhamsach</v>
       </c>
-      <c r="D412" s="4" t="str">
+      <c r="D412" s="4">
         <f>[1]MAIN!E412</f>
         <v>47000000000411</v>
       </c>
@@ -29737,7 +30157,7 @@
         <f>[1]MAIN!C413</f>
         <v>Veradita Yulanda</v>
       </c>
-      <c r="D413" s="4" t="str">
+      <c r="D413" s="4">
         <f>[1]MAIN!E413</f>
         <v>47000000000412</v>
       </c>
@@ -29767,7 +30187,7 @@
         <f>[1]MAIN!C414</f>
         <v>Kevin Henokh Tambunan</v>
       </c>
-      <c r="D414" s="4" t="str">
+      <c r="D414" s="4">
         <f>[1]MAIN!E414</f>
         <v>47000000000413</v>
       </c>
@@ -29797,7 +30217,7 @@
         <f>[1]MAIN!C415</f>
         <v>Suci Rachma Sari</v>
       </c>
-      <c r="D415" s="4" t="str">
+      <c r="D415" s="4">
         <f>[1]MAIN!E415</f>
         <v>47000000000414</v>
       </c>
@@ -29827,7 +30247,7 @@
         <f>[1]MAIN!C416</f>
         <v>R.Lar Kumalaning Tresno</v>
       </c>
-      <c r="D416" s="4" t="str">
+      <c r="D416" s="4">
         <f>[1]MAIN!E416</f>
         <v>47000000000415</v>
       </c>
@@ -29857,7 +30277,7 @@
         <f>[1]MAIN!C417</f>
         <v>Budi Raharja</v>
       </c>
-      <c r="D417" s="4" t="str">
+      <c r="D417" s="4">
         <f>[1]MAIN!E417</f>
         <v>47000000000416</v>
       </c>
@@ -29887,7 +30307,7 @@
         <f>[1]MAIN!C418</f>
         <v>Anggit Ismiyanto</v>
       </c>
-      <c r="D418" s="4" t="str">
+      <c r="D418" s="4">
         <f>[1]MAIN!E418</f>
         <v>47000000000417</v>
       </c>
@@ -29917,7 +30337,7 @@
         <f>[1]MAIN!C419</f>
         <v>Ali Wahono</v>
       </c>
-      <c r="D419" s="4" t="str">
+      <c r="D419" s="4">
         <f>[1]MAIN!E419</f>
         <v>47000000000418</v>
       </c>
@@ -29947,7 +30367,7 @@
         <f>[1]MAIN!C420</f>
         <v>Silvia Putri</v>
       </c>
-      <c r="D420" s="4" t="str">
+      <c r="D420" s="4">
         <f>[1]MAIN!E420</f>
         <v>47000000000419</v>
       </c>
@@ -29977,7 +30397,7 @@
         <f>[1]MAIN!C421</f>
         <v>Paryanto</v>
       </c>
-      <c r="D421" s="4" t="str">
+      <c r="D421" s="4">
         <f>[1]MAIN!E421</f>
         <v>47000000000420</v>
       </c>
@@ -30007,7 +30427,7 @@
         <f>[1]MAIN!C422</f>
         <v>Muklis</v>
       </c>
-      <c r="D422" s="4" t="str">
+      <c r="D422" s="4">
         <f>[1]MAIN!E422</f>
         <v>47000000000421</v>
       </c>
@@ -30037,7 +30457,7 @@
         <f>[1]MAIN!C423</f>
         <v>Zalfi Yandri</v>
       </c>
-      <c r="D423" s="4" t="str">
+      <c r="D423" s="4">
         <f>[1]MAIN!E423</f>
         <v>47000000000422</v>
       </c>
@@ -30067,7 +30487,7 @@
         <f>[1]MAIN!C424</f>
         <v>Grace Kurniawan</v>
       </c>
-      <c r="D424" s="4" t="str">
+      <c r="D424" s="4">
         <f>[1]MAIN!E424</f>
         <v>47000000000423</v>
       </c>
@@ -30097,7 +30517,7 @@
         <f>[1]MAIN!C425</f>
         <v>Farekh Huzair</v>
       </c>
-      <c r="D425" s="4" t="str">
+      <c r="D425" s="4">
         <f>[1]MAIN!E425</f>
         <v>47000000000424</v>
       </c>
@@ -30127,7 +30547,7 @@
         <f>[1]MAIN!C426</f>
         <v>Saarah Andriani</v>
       </c>
-      <c r="D426" s="4" t="str">
+      <c r="D426" s="4">
         <f>[1]MAIN!E426</f>
         <v>47000000000425</v>
       </c>
@@ -30157,7 +30577,7 @@
         <f>[1]MAIN!C427</f>
         <v>Anisah</v>
       </c>
-      <c r="D427" s="4" t="str">
+      <c r="D427" s="4">
         <f>[1]MAIN!E427</f>
         <v>47000000000426</v>
       </c>
@@ -30187,7 +30607,7 @@
         <f>[1]MAIN!C428</f>
         <v>Mohd. Elfan Pratama</v>
       </c>
-      <c r="D428" s="4" t="str">
+      <c r="D428" s="4">
         <f>[1]MAIN!E428</f>
         <v>47000000000427</v>
       </c>
@@ -30217,7 +30637,7 @@
         <f>[1]MAIN!C429</f>
         <v>Deny Adi</v>
       </c>
-      <c r="D429" s="4" t="str">
+      <c r="D429" s="4">
         <f>[1]MAIN!E429</f>
         <v>47000000000428</v>
       </c>
@@ -30247,7 +30667,7 @@
         <f>[1]MAIN!C430</f>
         <v>Heru Sugiri</v>
       </c>
-      <c r="D430" s="4" t="str">
+      <c r="D430" s="4">
         <f>[1]MAIN!E430</f>
         <v>47000000000429</v>
       </c>
@@ -30277,7 +30697,7 @@
         <f>[1]MAIN!C431</f>
         <v>Teguh Joko Pamuji</v>
       </c>
-      <c r="D431" s="4" t="str">
+      <c r="D431" s="4">
         <f>[1]MAIN!E431</f>
         <v>47000000000430</v>
       </c>
@@ -30307,7 +30727,7 @@
         <f>[1]MAIN!C432</f>
         <v>Nopitasari</v>
       </c>
-      <c r="D432" s="4" t="str">
+      <c r="D432" s="4">
         <f>[1]MAIN!E432</f>
         <v>47000000000431</v>
       </c>
@@ -30337,7 +30757,7 @@
         <f>[1]MAIN!C433</f>
         <v>Fani Dwi Astutik</v>
       </c>
-      <c r="D433" s="4" t="str">
+      <c r="D433" s="4">
         <f>[1]MAIN!E433</f>
         <v>47000000000432</v>
       </c>
@@ -30367,7 +30787,7 @@
         <f>[1]MAIN!C434</f>
         <v>Sholehah</v>
       </c>
-      <c r="D434" s="4" t="str">
+      <c r="D434" s="4">
         <f>[1]MAIN!E434</f>
         <v>47000000000433</v>
       </c>
@@ -30397,7 +30817,7 @@
         <f>[1]MAIN!C435</f>
         <v>Wisnu Ardian</v>
       </c>
-      <c r="D435" s="4" t="str">
+      <c r="D435" s="4">
         <f>[1]MAIN!E435</f>
         <v>47000000000434</v>
       </c>
@@ -30427,7 +30847,7 @@
         <f>[1]MAIN!C436</f>
         <v>Wisnu Ardian</v>
       </c>
-      <c r="D436" s="4" t="str">
+      <c r="D436" s="4">
         <f>[1]MAIN!E436</f>
         <v>47000000000435</v>
       </c>
@@ -30457,7 +30877,7 @@
         <f>[1]MAIN!C437</f>
         <v>Putra Perdana Tirtomoyo</v>
       </c>
-      <c r="D437" s="4" t="str">
+      <c r="D437" s="4">
         <f>[1]MAIN!E437</f>
         <v>47000000000436</v>
       </c>
@@ -30487,7 +30907,7 @@
         <f>[1]MAIN!C438</f>
         <v>Jaenudin</v>
       </c>
-      <c r="D438" s="4" t="str">
+      <c r="D438" s="4">
         <f>[1]MAIN!E438</f>
         <v>47000000000437</v>
       </c>
@@ -30517,7 +30937,7 @@
         <f>[1]MAIN!C439</f>
         <v>Jusuf Gandi</v>
       </c>
-      <c r="D439" s="4" t="str">
+      <c r="D439" s="4">
         <f>[1]MAIN!E439</f>
         <v>47000000000438</v>
       </c>
@@ -30547,7 +30967,7 @@
         <f>[1]MAIN!C440</f>
         <v>Jodie Satria</v>
       </c>
-      <c r="D440" s="4" t="str">
+      <c r="D440" s="4">
         <f>[1]MAIN!E440</f>
         <v>47000000000439</v>
       </c>
@@ -30577,7 +30997,7 @@
         <f>[1]MAIN!C441</f>
         <v>Ujang Barma</v>
       </c>
-      <c r="D441" s="4" t="str">
+      <c r="D441" s="4">
         <f>[1]MAIN!E441</f>
         <v>47000000000440</v>
       </c>
@@ -30607,7 +31027,7 @@
         <f>[1]MAIN!C442</f>
         <v>Ajan</v>
       </c>
-      <c r="D442" s="4" t="str">
+      <c r="D442" s="4">
         <f>[1]MAIN!E442</f>
         <v>47000000000441</v>
       </c>
@@ -30637,7 +31057,7 @@
         <f>[1]MAIN!C443</f>
         <v>Mista</v>
       </c>
-      <c r="D443" s="4" t="str">
+      <c r="D443" s="4">
         <f>[1]MAIN!E443</f>
         <v>47000000000442</v>
       </c>
@@ -30667,7 +31087,7 @@
         <f>[1]MAIN!C444</f>
         <v>Enceng Hemawan</v>
       </c>
-      <c r="D444" s="4" t="str">
+      <c r="D444" s="4">
         <f>[1]MAIN!E444</f>
         <v>47000000000443</v>
       </c>
@@ -30697,7 +31117,7 @@
         <f>[1]MAIN!C445</f>
         <v>Kosasih</v>
       </c>
-      <c r="D445" s="4" t="str">
+      <c r="D445" s="4">
         <f>[1]MAIN!E445</f>
         <v>47000000000444</v>
       </c>
@@ -30727,7 +31147,7 @@
         <f>[1]MAIN!C446</f>
         <v>habib</v>
       </c>
-      <c r="D446" s="4" t="str">
+      <c r="D446" s="4">
         <f>[1]MAIN!E446</f>
         <v>47000000000445</v>
       </c>
@@ -30757,7 +31177,7 @@
         <f>[1]MAIN!C447</f>
         <v>Endang Endang</v>
       </c>
-      <c r="D447" s="4" t="str">
+      <c r="D447" s="4">
         <f>[1]MAIN!E447</f>
         <v>47000000000446</v>
       </c>
@@ -30787,7 +31207,7 @@
         <f>[1]MAIN!C448</f>
         <v>Narno Narno</v>
       </c>
-      <c r="D448" s="4" t="str">
+      <c r="D448" s="4">
         <f>[1]MAIN!E448</f>
         <v>47000000000447</v>
       </c>
@@ -30817,7 +31237,7 @@
         <f>[1]MAIN!C449</f>
         <v>Rizak Tri Septian</v>
       </c>
-      <c r="D449" s="4" t="str">
+      <c r="D449" s="4">
         <f>[1]MAIN!E449</f>
         <v>47000000000448</v>
       </c>
@@ -30847,7 +31267,7 @@
         <f>[1]MAIN!C450</f>
         <v>Rian Yushak</v>
       </c>
-      <c r="D450" s="4" t="str">
+      <c r="D450" s="4">
         <f>[1]MAIN!E450</f>
         <v>47000000000449</v>
       </c>
@@ -30877,7 +31297,7 @@
         <f>[1]MAIN!C451</f>
         <v>Lisma Natalia</v>
       </c>
-      <c r="D451" s="4" t="str">
+      <c r="D451" s="4">
         <f>[1]MAIN!E451</f>
         <v>47000000000450</v>
       </c>
@@ -30907,7 +31327,7 @@
         <f>[1]MAIN!C452</f>
         <v>David Lumban Gaol</v>
       </c>
-      <c r="D452" s="4" t="str">
+      <c r="D452" s="4">
         <f>[1]MAIN!E452</f>
         <v>47000000000451</v>
       </c>
@@ -30937,7 +31357,7 @@
         <f>[1]MAIN!C453</f>
         <v>Vidhy Kartika Putri</v>
       </c>
-      <c r="D453" s="4" t="str">
+      <c r="D453" s="4">
         <f>[1]MAIN!E453</f>
         <v>47000000000452</v>
       </c>
@@ -30967,7 +31387,7 @@
         <f>[1]MAIN!C454</f>
         <v>Arjiyanto</v>
       </c>
-      <c r="D454" s="4" t="str">
+      <c r="D454" s="4">
         <f>[1]MAIN!E454</f>
         <v>47000000000453</v>
       </c>
@@ -30997,7 +31417,7 @@
         <f>[1]MAIN!C455</f>
         <v>Muhammad Ardiansyah</v>
       </c>
-      <c r="D455" s="4" t="str">
+      <c r="D455" s="4">
         <f>[1]MAIN!E455</f>
         <v>47000000000454</v>
       </c>
@@ -31027,7 +31447,7 @@
         <f>[1]MAIN!C456</f>
         <v>Turita Pramuning</v>
       </c>
-      <c r="D456" s="4" t="str">
+      <c r="D456" s="4">
         <f>[1]MAIN!E456</f>
         <v>47000000000455</v>
       </c>
@@ -31057,7 +31477,7 @@
         <f>[1]MAIN!C457</f>
         <v>External Audit</v>
       </c>
-      <c r="D457" s="11" t="str">
+      <c r="D457" s="11">
         <f>[1]MAIN!E457</f>
         <v>47000000000456</v>
       </c>
@@ -31076,7 +31496,7 @@
         <f>[1]MAIN!C458</f>
         <v>Seftiyan Hadi Maulana</v>
       </c>
-      <c r="D458" s="4" t="str">
+      <c r="D458" s="4">
         <f>[1]MAIN!E458</f>
         <v>47000000000457</v>
       </c>
@@ -31106,7 +31526,7 @@
         <f>[1]MAIN!C459</f>
         <v>Edy Situmeang</v>
       </c>
-      <c r="D459" s="4" t="str">
+      <c r="D459" s="4">
         <f>[1]MAIN!E459</f>
         <v>47000000000458</v>
       </c>
@@ -31136,7 +31556,7 @@
         <f>[1]MAIN!C460</f>
         <v>M Ridho Pramudia</v>
       </c>
-      <c r="D460" s="4" t="str">
+      <c r="D460" s="4">
         <f>[1]MAIN!E460</f>
         <v>47000000000459</v>
       </c>
@@ -31166,7 +31586,7 @@
         <f>[1]MAIN!C461</f>
         <v>Mhd Syahputra</v>
       </c>
-      <c r="D461" s="4" t="str">
+      <c r="D461" s="4">
         <f>[1]MAIN!E461</f>
         <v>47000000000460</v>
       </c>
@@ -31196,7 +31616,7 @@
         <f>[1]MAIN!C462</f>
         <v>Jeefrianda HP Sigalingging</v>
       </c>
-      <c r="D462" s="4" t="str">
+      <c r="D462" s="4">
         <f>[1]MAIN!E462</f>
         <v>47000000000461</v>
       </c>
@@ -31226,7 +31646,7 @@
         <f>[1]MAIN!C463</f>
         <v>Amir Sofyan Hadi</v>
       </c>
-      <c r="D463" s="4" t="str">
+      <c r="D463" s="4">
         <f>[1]MAIN!E463</f>
         <v>47000000000462</v>
       </c>
@@ -31256,7 +31676,7 @@
         <f>[1]MAIN!C464</f>
         <v>Jusuf Bobby Putra</v>
       </c>
-      <c r="D464" s="4" t="str">
+      <c r="D464" s="4">
         <f>[1]MAIN!E464</f>
         <v>47000000000463</v>
       </c>
@@ -31286,7 +31706,7 @@
         <f>[1]MAIN!C465</f>
         <v>Muhammad Khadafy</v>
       </c>
-      <c r="D465" s="4" t="str">
+      <c r="D465" s="4">
         <f>[1]MAIN!E465</f>
         <v>47000000000464</v>
       </c>
@@ -31316,7 +31736,7 @@
         <f>[1]MAIN!C466</f>
         <v>Desi Herawati</v>
       </c>
-      <c r="D466" s="4" t="str">
+      <c r="D466" s="4">
         <f>[1]MAIN!E466</f>
         <v>47000000000465</v>
       </c>
@@ -31346,7 +31766,7 @@
         <f>[1]MAIN!C467</f>
         <v>Zam Roji</v>
       </c>
-      <c r="D467" s="4" t="str">
+      <c r="D467" s="4">
         <f>[1]MAIN!E467</f>
         <v>47000000000466</v>
       </c>
@@ -31376,7 +31796,7 @@
         <f>[1]MAIN!C468</f>
         <v>Idian</v>
       </c>
-      <c r="D468" s="4" t="str">
+      <c r="D468" s="4">
         <f>[1]MAIN!E468</f>
         <v>47000000000467</v>
       </c>
@@ -31406,7 +31826,7 @@
         <f>[1]MAIN!C469</f>
         <v>Atmo Sastro Dinoto</v>
       </c>
-      <c r="D469" s="4" t="str">
+      <c r="D469" s="4">
         <f>[1]MAIN!E469</f>
         <v>47000000000468</v>
       </c>
@@ -31436,7 +31856,7 @@
         <f>[1]MAIN!C470</f>
         <v>Finance Taketaker</v>
       </c>
-      <c r="D470" s="11" t="str">
+      <c r="D470" s="11">
         <f>[1]MAIN!E470</f>
         <v>47000000000469</v>
       </c>
@@ -31454,7 +31874,7 @@
         <f>[1]MAIN!C471</f>
         <v>Herlin Juli Asri</v>
       </c>
-      <c r="D471" s="4" t="str">
+      <c r="D471" s="4">
         <f>[1]MAIN!E471</f>
         <v>47000000000470</v>
       </c>
@@ -31484,7 +31904,7 @@
         <f>[1]MAIN!C472</f>
         <v>Wahyu Ramadhani</v>
       </c>
-      <c r="D472" s="4" t="str">
+      <c r="D472" s="4">
         <f>[1]MAIN!E472</f>
         <v>47000000000471</v>
       </c>
@@ -31514,7 +31934,7 @@
         <f>[1]MAIN!C473</f>
         <v>Bani Mustazeni</v>
       </c>
-      <c r="D473" s="4" t="str">
+      <c r="D473" s="4">
         <f>[1]MAIN!E473</f>
         <v>47000000000472</v>
       </c>
@@ -31544,7 +31964,7 @@
         <f>[1]MAIN!C474</f>
         <v>Elsa Mardian</v>
       </c>
-      <c r="D474" s="4" t="str">
+      <c r="D474" s="4">
         <f>[1]MAIN!E474</f>
         <v>47000000000473</v>
       </c>
@@ -31574,7 +31994,7 @@
         <f>[1]MAIN!C475</f>
         <v>Ujang Suryana</v>
       </c>
-      <c r="D475" s="4" t="str">
+      <c r="D475" s="4">
         <f>[1]MAIN!E475</f>
         <v>47000000000474</v>
       </c>
@@ -31604,7 +32024,7 @@
         <f>[1]MAIN!C476</f>
         <v>Panji Bima Santri</v>
       </c>
-      <c r="D476" s="4" t="str">
+      <c r="D476" s="4">
         <f>[1]MAIN!E476</f>
         <v>47000000000475</v>
       </c>
@@ -31634,7 +32054,7 @@
         <f>[1]MAIN!C477</f>
         <v>Annisa Dewi Arumsari</v>
       </c>
-      <c r="D477" s="4" t="str">
+      <c r="D477" s="4">
         <f>[1]MAIN!E477</f>
         <v>47000000000476</v>
       </c>
@@ -31664,7 +32084,7 @@
         <f>[1]MAIN!C478</f>
         <v>Khafid Fahrurrozi</v>
       </c>
-      <c r="D478" s="4" t="str">
+      <c r="D478" s="4">
         <f>[1]MAIN!E478</f>
         <v>47000000000477</v>
       </c>
@@ -31694,7 +32114,7 @@
         <f>[1]MAIN!C479</f>
         <v>Rayan Suryadikara</v>
       </c>
-      <c r="D479" s="4" t="str">
+      <c r="D479" s="4">
         <f>[1]MAIN!E479</f>
         <v>47000000000478</v>
       </c>
@@ -31724,7 +32144,7 @@
         <f>[1]MAIN!C480</f>
         <v>Joko Wiyono</v>
       </c>
-      <c r="D480" s="4" t="str">
+      <c r="D480" s="4">
         <f>[1]MAIN!E480</f>
         <v>47000000000479</v>
       </c>
@@ -31754,7 +32174,7 @@
         <f>[1]MAIN!C481</f>
         <v>Annyess Sri Maristi</v>
       </c>
-      <c r="D481" s="4" t="str">
+      <c r="D481" s="4">
         <f>[1]MAIN!E481</f>
         <v>47000000000480</v>
       </c>
@@ -31773,7 +32193,7 @@
         <f>[1]MAIN!C482</f>
         <v>Annyes Sri Maristi</v>
       </c>
-      <c r="D482" s="4" t="str">
+      <c r="D482" s="4">
         <f>[1]MAIN!E482</f>
         <v>47000000000481</v>
       </c>
@@ -31803,7 +32223,7 @@
         <f>[1]MAIN!C483</f>
         <v>Fuzi Mafhrozi</v>
       </c>
-      <c r="D483" s="4" t="str">
+      <c r="D483" s="4">
         <f>[1]MAIN!E483</f>
         <v>47000000000482</v>
       </c>
@@ -31833,7 +32253,7 @@
         <f>[1]MAIN!C484</f>
         <v>Roy Aditya</v>
       </c>
-      <c r="D484" s="4" t="str">
+      <c r="D484" s="4">
         <f>[1]MAIN!E484</f>
         <v>47000000000483</v>
       </c>
@@ -31863,7 +32283,7 @@
         <f>[1]MAIN!C485</f>
         <v>Shihab</v>
       </c>
-      <c r="D485" s="4" t="str">
+      <c r="D485" s="4">
         <f>[1]MAIN!E485</f>
         <v>47000000000484</v>
       </c>
@@ -31893,7 +32313,7 @@
         <f>[1]MAIN!C486</f>
         <v>Dony Setiawan</v>
       </c>
-      <c r="D486" s="4" t="str">
+      <c r="D486" s="4">
         <f>[1]MAIN!E486</f>
         <v>47000000000485</v>
       </c>
@@ -31923,7 +32343,7 @@
         <f>[1]MAIN!C487</f>
         <v>Ario Yulianto Wibowo</v>
       </c>
-      <c r="D487" s="4" t="str">
+      <c r="D487" s="4">
         <f>[1]MAIN!E487</f>
         <v>47000000000486</v>
       </c>
@@ -31956,7 +32376,7 @@
         <f>[1]MAIN!C488</f>
         <v>Zainudin Anwar</v>
       </c>
-      <c r="D488" s="4" t="str">
+      <c r="D488" s="4">
         <f>[1]MAIN!E488</f>
         <v>47000000000487</v>
       </c>
@@ -31986,7 +32406,7 @@
         <f>[1]MAIN!C489</f>
         <v>Sulih</v>
       </c>
-      <c r="D489" s="4" t="str">
+      <c r="D489" s="4">
         <f>[1]MAIN!E489</f>
         <v>47000000000488</v>
       </c>
@@ -32016,7 +32436,7 @@
         <f>[1]MAIN!C490</f>
         <v>Ario Yulianto Wibowo</v>
       </c>
-      <c r="D490" s="4" t="str">
+      <c r="D490" s="4">
         <f>[1]MAIN!E490</f>
         <v>47000000000489</v>
       </c>
@@ -32046,7 +32466,7 @@
         <f>[1]MAIN!C491</f>
         <v>anugerah Januariansyah</v>
       </c>
-      <c r="D491" s="4" t="str">
+      <c r="D491" s="4">
         <f>[1]MAIN!E491</f>
         <v>47000000000490</v>
       </c>
@@ -32076,7 +32496,7 @@
         <f>[1]MAIN!C492</f>
         <v>Anugerah Januariansyah</v>
       </c>
-      <c r="D492" s="4" t="str">
+      <c r="D492" s="4">
         <f>[1]MAIN!E492</f>
         <v>47000000000491</v>
       </c>
@@ -32106,7 +32526,7 @@
         <f>[1]MAIN!C493</f>
         <v>agus salim</v>
       </c>
-      <c r="D493" s="4" t="str">
+      <c r="D493" s="4">
         <f>[1]MAIN!E493</f>
         <v>47000000000492</v>
       </c>
@@ -32136,7 +32556,7 @@
         <f>[1]MAIN!C494</f>
         <v>rangga darmawan</v>
       </c>
-      <c r="D494" s="4" t="str">
+      <c r="D494" s="4">
         <f>[1]MAIN!E494</f>
         <v>47000000000493</v>
       </c>
@@ -32166,7 +32586,7 @@
         <f>[1]MAIN!C495</f>
         <v>Hernita Dwi</v>
       </c>
-      <c r="D495" s="4" t="str">
+      <c r="D495" s="4">
         <f>[1]MAIN!E495</f>
         <v>47000000000494</v>
       </c>
@@ -32196,7 +32616,7 @@
         <f>[1]MAIN!C496</f>
         <v>Faiz Horifal</v>
       </c>
-      <c r="D496" s="4" t="str">
+      <c r="D496" s="4">
         <f>[1]MAIN!E496</f>
         <v>47000000000495</v>
       </c>
@@ -32226,7 +32646,7 @@
         <f>[1]MAIN!C497</f>
         <v>Rendy Prananta Purba</v>
       </c>
-      <c r="D497" s="4" t="str">
+      <c r="D497" s="4">
         <f>[1]MAIN!E497</f>
         <v>47000000000496</v>
       </c>
@@ -32256,7 +32676,7 @@
         <f>[1]MAIN!C498</f>
         <v>Mochamad Samman</v>
       </c>
-      <c r="D498" s="4" t="str">
+      <c r="D498" s="4">
         <f>[1]MAIN!E498</f>
         <v>47000000000497</v>
       </c>
@@ -32286,7 +32706,7 @@
         <f>[1]MAIN!C499</f>
         <v>Fuad Febrian</v>
       </c>
-      <c r="D499" s="4" t="str">
+      <c r="D499" s="4">
         <f>[1]MAIN!E499</f>
         <v>47000000000498</v>
       </c>
@@ -32316,7 +32736,7 @@
         <f>[1]MAIN!C500</f>
         <v>suyanto</v>
       </c>
-      <c r="D500" s="4" t="str">
+      <c r="D500" s="4">
         <f>[1]MAIN!E500</f>
         <v>47000000000499</v>
       </c>
@@ -32346,7 +32766,7 @@
         <f>[1]MAIN!C501</f>
         <v>ruswandi</v>
       </c>
-      <c r="D501" s="4" t="str">
+      <c r="D501" s="4">
         <f>[1]MAIN!E501</f>
         <v>47000000000500</v>
       </c>
@@ -32376,7 +32796,7 @@
         <f>[1]MAIN!C502</f>
         <v>Sang Toga Sitompul</v>
       </c>
-      <c r="D502" s="4" t="str">
+      <c r="D502" s="4">
         <f>[1]MAIN!E502</f>
         <v>47000000000501</v>
       </c>
@@ -32406,7 +32826,7 @@
         <f>[1]MAIN!C503</f>
         <v>eka purwanti</v>
       </c>
-      <c r="D503" s="4" t="str">
+      <c r="D503" s="4">
         <f>[1]MAIN!E503</f>
         <v>47000000000502</v>
       </c>
@@ -32436,7 +32856,7 @@
         <f>[1]MAIN!C504</f>
         <v>Magang Bhayangkari</v>
       </c>
-      <c r="D504" s="11" t="str">
+      <c r="D504" s="11">
         <f>[1]MAIN!E504</f>
         <v>47000000000503</v>
       </c>
@@ -32455,7 +32875,7 @@
         <f>[1]MAIN!C505</f>
         <v>Harlen Amudi Purba</v>
       </c>
-      <c r="D505" s="4" t="str">
+      <c r="D505" s="4">
         <f>[1]MAIN!E505</f>
         <v>47000000000504</v>
       </c>
@@ -32485,7 +32905,7 @@
         <f>[1]MAIN!C506</f>
         <v>Rafi Firman Saputra</v>
       </c>
-      <c r="D506" s="4" t="str">
+      <c r="D506" s="4">
         <f>[1]MAIN!E506</f>
         <v>47000000000505</v>
       </c>
@@ -32515,7 +32935,7 @@
         <f>[1]MAIN!C507</f>
         <v>eko kurniawan</v>
       </c>
-      <c r="D507" s="4" t="str">
+      <c r="D507" s="4">
         <f>[1]MAIN!E507</f>
         <v>47000000000506</v>
       </c>
@@ -32545,7 +32965,7 @@
         <f>[1]MAIN!C508</f>
         <v>krisnawan</v>
       </c>
-      <c r="D508" s="4" t="str">
+      <c r="D508" s="4">
         <f>[1]MAIN!E508</f>
         <v>47000000000507</v>
       </c>
@@ -32575,7 +32995,7 @@
         <f>[1]MAIN!C509</f>
         <v>Rio Martha</v>
       </c>
-      <c r="D509" s="4" t="str">
+      <c r="D509" s="4">
         <f>[1]MAIN!E509</f>
         <v>47000000000508</v>
       </c>
@@ -32605,7 +33025,7 @@
         <f>[1]MAIN!C510</f>
         <v>Paino Suprayinto</v>
       </c>
-      <c r="D510" s="4" t="str">
+      <c r="D510" s="4">
         <f>[1]MAIN!E510</f>
         <v>47000000000509</v>
       </c>
@@ -32635,7 +33055,7 @@
         <f>[1]MAIN!C511</f>
         <v>eka bagus</v>
       </c>
-      <c r="D511" s="4" t="str">
+      <c r="D511" s="4">
         <f>[1]MAIN!E511</f>
         <v>47000000000510</v>
       </c>
@@ -32665,7 +33085,7 @@
         <f>[1]MAIN!C512</f>
         <v>Belina Lindarwani</v>
       </c>
-      <c r="D512" s="4" t="str">
+      <c r="D512" s="4">
         <f>[1]MAIN!E512</f>
         <v>47000000000511</v>
       </c>
@@ -32695,7 +33115,7 @@
         <f>[1]MAIN!C513</f>
         <v>Martimbul Rahman</v>
       </c>
-      <c r="D513" s="4" t="str">
+      <c r="D513" s="4">
         <f>[1]MAIN!E513</f>
         <v>47000000000512</v>
       </c>
@@ -32725,7 +33145,7 @@
         <f>[1]MAIN!C514</f>
         <v>Aldi Mulyadi</v>
       </c>
-      <c r="D514" s="4" t="str">
+      <c r="D514" s="4">
         <f>[1]MAIN!E514</f>
         <v>47000000000513</v>
       </c>
@@ -32755,7 +33175,7 @@
         <f>[1]MAIN!C515</f>
         <v>Rommel Hutapea</v>
       </c>
-      <c r="D515" s="4" t="str">
+      <c r="D515" s="4">
         <f>[1]MAIN!E515</f>
         <v>47000000000514</v>
       </c>
@@ -32769,7 +33189,7 @@
         <v>25000000000371</v>
       </c>
       <c r="J515" s="2" t="str">
-        <f t="shared" ref="J515:J576" si="8">IF(OR(EXACT(H515, ""), ISNA(H515)=TRUE), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_LDAPUserToPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", D515, ", ", H515, ");"))</f>
+        <f t="shared" ref="J515:J574" si="8">IF(OR(EXACT(H515, ""), ISNA(H515)=TRUE), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblMapper_LDAPUserToPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, ", D515, ", ", H515, ");"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblMapper_LDAPUserToPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 47000000000514, 25000000000371);</v>
       </c>
       <c r="L515" s="7">
@@ -32785,7 +33205,7 @@
         <f>[1]MAIN!C516</f>
         <v>Wendy Septiyan</v>
       </c>
-      <c r="D516" s="4" t="str">
+      <c r="D516" s="4">
         <f>[1]MAIN!E516</f>
         <v>47000000000515</v>
       </c>
@@ -32815,7 +33235,7 @@
         <f>[1]MAIN!C517</f>
         <v>Febryan Mahsyar</v>
       </c>
-      <c r="D517" s="4" t="str">
+      <c r="D517" s="4">
         <f>[1]MAIN!E517</f>
         <v>47000000000516</v>
       </c>
@@ -32845,7 +33265,7 @@
         <f>[1]MAIN!C518</f>
         <v>Sherly Tamira</v>
       </c>
-      <c r="D518" s="4" t="str">
+      <c r="D518" s="4">
         <f>[1]MAIN!E518</f>
         <v>47000000000517</v>
       </c>
@@ -32875,7 +33295,7 @@
         <f>[1]MAIN!C519</f>
         <v>Taufik Mulia Pane</v>
       </c>
-      <c r="D519" s="4" t="str">
+      <c r="D519" s="4">
         <f>[1]MAIN!E519</f>
         <v>47000000000518</v>
       </c>
@@ -32908,7 +33328,7 @@
         <f>[1]MAIN!C520</f>
         <v>Eka Purwanti</v>
       </c>
-      <c r="D520" s="4" t="str">
+      <c r="D520" s="4">
         <f>[1]MAIN!E520</f>
         <v>47000000000519</v>
       </c>
@@ -32938,7 +33358,7 @@
         <f>[1]MAIN!C521</f>
         <v>Safira Nurbaiti</v>
       </c>
-      <c r="D521" s="4" t="str">
+      <c r="D521" s="4">
         <f>[1]MAIN!E521</f>
         <v>47000000000520</v>
       </c>
@@ -32971,7 +33391,7 @@
         <f>[1]MAIN!C522</f>
         <v>Irvan Agus Dharma</v>
       </c>
-      <c r="D522" s="4" t="str">
+      <c r="D522" s="4">
         <f>[1]MAIN!E522</f>
         <v>47000000000521</v>
       </c>
@@ -33004,7 +33424,7 @@
         <f>[1]MAIN!C523</f>
         <v>Adietya Dharmawan</v>
       </c>
-      <c r="D523" s="4" t="str">
+      <c r="D523" s="4">
         <f>[1]MAIN!E523</f>
         <v>47000000000522</v>
       </c>
@@ -33037,7 +33457,7 @@
         <f>[1]MAIN!C524</f>
         <v>Abdul Risan</v>
       </c>
-      <c r="D524" s="4" t="str">
+      <c r="D524" s="4">
         <f>[1]MAIN!E524</f>
         <v>47000000000523</v>
       </c>
@@ -33070,7 +33490,7 @@
         <f>[1]MAIN!C525</f>
         <v>Sufie Amalia</v>
       </c>
-      <c r="D525" s="4" t="str">
+      <c r="D525" s="4">
         <f>[1]MAIN!E525</f>
         <v>47000000000524</v>
       </c>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_LDAPUserToPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_LDAPUserToPerson.xlsx
@@ -3722,35 +3722,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -22931,7 +22903,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C597" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L612" sqref="L612"/>
+      <selection pane="bottomRight" activeCell="E605" sqref="E605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -40553,7 +40525,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H611">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>EXACT(H3, H4)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_LDAPUserToPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblMapper_LDAPUserToPerson.xlsx
@@ -19078,10 +19078,10 @@
   <dimension ref="B1:K631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C593" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H604" sqref="H604"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19930,11 +19930,11 @@
         <v>Fikri</v>
       </c>
       <c r="E30" s="34">
-        <v>25000000000154</v>
+        <v>25000000000155</v>
       </c>
       <c r="F30" s="30" t="str">
         <f>IF(EXACT($E30, ""), "", VLOOKUP($E30, [2]DataLookUp!$B$4:$C$618, 2, FALSE))</f>
-        <v>Fikri</v>
+        <v>M. Fikri Caesarandi Hasibuan</v>
       </c>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
@@ -19942,7 +19942,7 @@
       </c>
       <c r="I30" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchSysConfig"."Func_TblMapper_LDAPUserToPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 47000000000027::bigint, 25000000000154::bigint);</v>
+        <v>PERFORM "SchSysConfig"."Func_TblMapper_LDAPUserToPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 47000000000027::bigint, 25000000000155::bigint);</v>
       </c>
       <c r="K30" s="34"/>
     </row>
